--- a/static/documentos/ficha_proyecto.xlsx
+++ b/static/documentos/ficha_proyecto.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pytho\PycharmProjects\sion\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B116EE2-EF31-46ED-AB4D-AB73F669831F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A998879D-2464-4373-9BD5-526EA9074262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24180" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ficha de proyecto" sheetId="2" r:id="rId1"/>
-    <sheet name="Plan de inversion" sheetId="3" r:id="rId2"/>
-    <sheet name="Flujo de caja" sheetId="4" r:id="rId3"/>
+    <sheet name="IDENTIFICACION PROYECTOS" sheetId="5" r:id="rId1"/>
+    <sheet name="Ficha de proyecto" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan de inversion" sheetId="3" r:id="rId3"/>
+    <sheet name="Flujo de caja" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
   <si>
     <t>FORMATO FICHA DE PROYECTO IRACA</t>
   </si>
@@ -675,6 +676,38 @@
       <t xml:space="preserve">  [(Ingresos-Egresos)+Saldo Inicial]</t>
     </r>
   </si>
+  <si>
+    <t>IDENTIFICACIÓN Y PRIORIZACIÓN DE PROYECTOS CON ENFOQUE ÉTNICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBLEMATICAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROYECTOS POTENCIALES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIORIZACION DE PROYECTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMAS TRADICIONALES DE
+PRODUCCION PARA LA SEGURIDAD
+ALIMENTARIA </t>
+  </si>
+  <si>
+    <t>PRACTICAS TRADICIONALES DE PRODUCCIÓN Y COMERCIALIZACIÓN PARA LA
+GENERACION DE INGRESOS</t>
+  </si>
+  <si>
+    <t>DIVERSIDAD CULTURAL,
+TRADICIONAL, ORGANIZACION
+SOCIAL Y COMUNITARIA</t>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +722,7 @@
     <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,6 +966,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -966,7 +1014,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1390,6 +1438,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1397,7 +1575,7 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1579,6 +1757,87 @@
     <xf numFmtId="3" fontId="32" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1903,6 +2162,46 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1931,6 +2230,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1665393</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>341045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348D8991-04DC-491D-99C5-33F90C24253A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="56728"/>
+          <a:ext cx="1665393" cy="288127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1979,7 +2327,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2036,7 +2384,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2347,10 +2695,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F370A7F-7DAB-4285-A267-A6BAD20EE836}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66"/>
+      <c r="B1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="76"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="84"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="86"/>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="183"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="185"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="186"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="187"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="73"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="189"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="185"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="185"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="186"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="187"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="185"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="72"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="185"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="185"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="186"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="187"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="185"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="73"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="189"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC462128-4989-4C67-8E9F-694C59A8A22A}">
   <dimension ref="C1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:L6"/>
     </sheetView>
   </sheetViews>
@@ -2365,1419 +2952,1419 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:47" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="116" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="116"/>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="116"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="116"/>
-      <c r="AJ1" s="116"/>
-      <c r="AK1" s="116"/>
-      <c r="AL1" s="116"/>
-      <c r="AM1" s="116"/>
-      <c r="AN1" s="116"/>
-      <c r="AO1" s="117" t="s">
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="AP1" s="117"/>
-      <c r="AQ1" s="117"/>
-      <c r="AR1" s="117"/>
-      <c r="AS1" s="117"/>
-      <c r="AT1" s="117"/>
-      <c r="AU1" s="117"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
     </row>
     <row r="2" spans="3:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="112" t="s">
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="113"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="117" t="s">
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="117"/>
-      <c r="AQ2" s="117"/>
-      <c r="AR2" s="117"/>
-      <c r="AS2" s="117"/>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="117"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
     </row>
     <row r="3" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="121"/>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="121"/>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="122"/>
-      <c r="AO3" s="123" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="124"/>
-      <c r="AS3" s="124"/>
-      <c r="AT3" s="124"/>
-      <c r="AU3" s="125"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="145"/>
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="146"/>
     </row>
     <row r="4" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="111"/>
-      <c r="AC4" s="111"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="111"/>
-      <c r="AF4" s="111"/>
-      <c r="AG4" s="111"/>
-      <c r="AH4" s="111"/>
-      <c r="AI4" s="111"/>
-      <c r="AJ4" s="111"/>
-      <c r="AK4" s="111"/>
-      <c r="AL4" s="111"/>
-      <c r="AM4" s="111"/>
-      <c r="AN4" s="111"/>
-      <c r="AO4" s="111"/>
-      <c r="AP4" s="111"/>
-      <c r="AQ4" s="111"/>
-      <c r="AR4" s="111"/>
-      <c r="AS4" s="111"/>
-      <c r="AT4" s="111"/>
-      <c r="AU4" s="111"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
     </row>
     <row r="5" spans="3:47" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114"/>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114"/>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114"/>
-      <c r="AU5" s="115"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="135"/>
+      <c r="AF5" s="135"/>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="135"/>
+      <c r="AL5" s="135"/>
+      <c r="AM5" s="135"/>
+      <c r="AN5" s="135"/>
+      <c r="AO5" s="135"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="135"/>
+      <c r="AR5" s="135"/>
+      <c r="AS5" s="135"/>
+      <c r="AT5" s="135"/>
+      <c r="AU5" s="136"/>
     </row>
     <row r="6" spans="3:47" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="106" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="75" t="s">
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="110"/>
-      <c r="AJ6" s="110"/>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="110"/>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="110"/>
-      <c r="AR6" s="110"/>
-      <c r="AS6" s="110"/>
-      <c r="AT6" s="110"/>
-      <c r="AU6" s="110"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="98"/>
+      <c r="AI6" s="131"/>
+      <c r="AJ6" s="131"/>
+      <c r="AK6" s="131"/>
+      <c r="AL6" s="131"/>
+      <c r="AM6" s="131"/>
+      <c r="AN6" s="131"/>
+      <c r="AO6" s="131"/>
+      <c r="AP6" s="131"/>
+      <c r="AQ6" s="131"/>
+      <c r="AR6" s="131"/>
+      <c r="AS6" s="131"/>
+      <c r="AT6" s="131"/>
+      <c r="AU6" s="131"/>
     </row>
     <row r="7" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="77" t="s">
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="120"/>
+      <c r="AN7" s="120"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="120"/>
+      <c r="AR7" s="120"/>
+      <c r="AS7" s="120"/>
+      <c r="AT7" s="120"/>
+      <c r="AU7" s="120"/>
     </row>
     <row r="8" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="71" t="s">
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="71" t="s">
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="101"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="101"/>
-      <c r="AU8" s="102"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="122"/>
+      <c r="AO8" s="122"/>
+      <c r="AP8" s="122"/>
+      <c r="AQ8" s="122"/>
+      <c r="AR8" s="122"/>
+      <c r="AS8" s="122"/>
+      <c r="AT8" s="122"/>
+      <c r="AU8" s="123"/>
     </row>
     <row r="9" spans="3:47" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="71" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="75" t="s">
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="101"/>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="101"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="101"/>
-      <c r="AS9" s="101"/>
-      <c r="AT9" s="101"/>
-      <c r="AU9" s="102"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="121"/>
+      <c r="AN9" s="122"/>
+      <c r="AO9" s="122"/>
+      <c r="AP9" s="122"/>
+      <c r="AQ9" s="122"/>
+      <c r="AR9" s="122"/>
+      <c r="AS9" s="122"/>
+      <c r="AT9" s="122"/>
+      <c r="AU9" s="123"/>
     </row>
     <row r="10" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="77" t="s">
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="120"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="120"/>
+      <c r="AG10" s="120"/>
+      <c r="AH10" s="120"/>
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="120"/>
+      <c r="AO10" s="120"/>
+      <c r="AP10" s="120"/>
+      <c r="AQ10" s="120"/>
+      <c r="AR10" s="120"/>
+      <c r="AS10" s="120"/>
+      <c r="AT10" s="120"/>
+      <c r="AU10" s="120"/>
     </row>
     <row r="11" spans="3:47" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="104"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="104"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="104"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="104"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="105"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="125"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="125"/>
+      <c r="AL11" s="125"/>
+      <c r="AM11" s="125"/>
+      <c r="AN11" s="125"/>
+      <c r="AO11" s="125"/>
+      <c r="AP11" s="125"/>
+      <c r="AQ11" s="125"/>
+      <c r="AR11" s="125"/>
+      <c r="AS11" s="125"/>
+      <c r="AT11" s="125"/>
+      <c r="AU11" s="126"/>
     </row>
     <row r="12" spans="3:47" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="109"/>
-      <c r="AQ12" s="109"/>
-      <c r="AR12" s="109"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="109"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="130"/>
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="130"/>
+      <c r="AJ12" s="130"/>
+      <c r="AK12" s="130"/>
+      <c r="AL12" s="130"/>
+      <c r="AM12" s="130"/>
+      <c r="AN12" s="130"/>
+      <c r="AO12" s="130"/>
+      <c r="AP12" s="130"/>
+      <c r="AQ12" s="130"/>
+      <c r="AR12" s="130"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="130"/>
+      <c r="AU12" s="130"/>
     </row>
     <row r="13" spans="3:47" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="71" t="s">
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="71" t="s">
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="100"/>
-      <c r="AP13" s="101"/>
-      <c r="AQ13" s="101"/>
-      <c r="AR13" s="101"/>
-      <c r="AS13" s="101"/>
-      <c r="AT13" s="101"/>
-      <c r="AU13" s="102"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="122"/>
+      <c r="AQ13" s="122"/>
+      <c r="AR13" s="122"/>
+      <c r="AS13" s="122"/>
+      <c r="AT13" s="122"/>
+      <c r="AU13" s="123"/>
     </row>
     <row r="14" spans="3:47" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="73"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="94"/>
     </row>
     <row r="15" spans="3:47" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="104"/>
-      <c r="AI15" s="104"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="104"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="104"/>
-      <c r="AU15" s="105"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="125"/>
+      <c r="AI15" s="125"/>
+      <c r="AJ15" s="125"/>
+      <c r="AK15" s="125"/>
+      <c r="AL15" s="125"/>
+      <c r="AM15" s="125"/>
+      <c r="AN15" s="125"/>
+      <c r="AO15" s="125"/>
+      <c r="AP15" s="125"/>
+      <c r="AQ15" s="125"/>
+      <c r="AR15" s="125"/>
+      <c r="AS15" s="125"/>
+      <c r="AT15" s="125"/>
+      <c r="AU15" s="126"/>
     </row>
     <row r="16" spans="3:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="73"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="94"/>
     </row>
     <row r="17" spans="3:47" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="105"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="125"/>
+      <c r="AJ17" s="125"/>
+      <c r="AK17" s="125"/>
+      <c r="AL17" s="125"/>
+      <c r="AM17" s="125"/>
+      <c r="AN17" s="125"/>
+      <c r="AO17" s="125"/>
+      <c r="AP17" s="125"/>
+      <c r="AQ17" s="125"/>
+      <c r="AR17" s="125"/>
+      <c r="AS17" s="125"/>
+      <c r="AT17" s="125"/>
+      <c r="AU17" s="126"/>
     </row>
     <row r="18" spans="3:47" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="73"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="93"/>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="94"/>
     </row>
     <row r="19" spans="3:47" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="74"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="74"/>
-      <c r="AL19" s="74"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="74"/>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="74"/>
-      <c r="AS19" s="74"/>
-      <c r="AT19" s="74"/>
-      <c r="AU19" s="74"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="95"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="95"/>
+      <c r="AU19" s="95"/>
     </row>
     <row r="20" spans="3:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="73"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="93"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="94"/>
     </row>
     <row r="21" spans="3:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="74"/>
-      <c r="AL21" s="74"/>
-      <c r="AM21" s="74"/>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="74"/>
-      <c r="AP21" s="74"/>
-      <c r="AQ21" s="74"/>
-      <c r="AR21" s="74"/>
-      <c r="AS21" s="74"/>
-      <c r="AT21" s="74"/>
-      <c r="AU21" s="74"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
     </row>
     <row r="22" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="72"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="73"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="93"/>
+      <c r="AN22" s="93"/>
+      <c r="AO22" s="93"/>
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="93"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="94"/>
     </row>
     <row r="23" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="101"/>
-      <c r="AJ23" s="101"/>
-      <c r="AK23" s="101"/>
-      <c r="AL23" s="101"/>
-      <c r="AM23" s="101"/>
-      <c r="AN23" s="101"/>
-      <c r="AO23" s="101"/>
-      <c r="AP23" s="101"/>
-      <c r="AQ23" s="101"/>
-      <c r="AR23" s="101"/>
-      <c r="AS23" s="101"/>
-      <c r="AT23" s="101"/>
-      <c r="AU23" s="102"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="122"/>
+      <c r="AC23" s="122"/>
+      <c r="AD23" s="122"/>
+      <c r="AE23" s="122"/>
+      <c r="AF23" s="122"/>
+      <c r="AG23" s="122"/>
+      <c r="AH23" s="122"/>
+      <c r="AI23" s="122"/>
+      <c r="AJ23" s="122"/>
+      <c r="AK23" s="122"/>
+      <c r="AL23" s="122"/>
+      <c r="AM23" s="122"/>
+      <c r="AN23" s="122"/>
+      <c r="AO23" s="122"/>
+      <c r="AP23" s="122"/>
+      <c r="AQ23" s="122"/>
+      <c r="AR23" s="122"/>
+      <c r="AS23" s="122"/>
+      <c r="AT23" s="122"/>
+      <c r="AU23" s="123"/>
     </row>
     <row r="24" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="101"/>
-      <c r="AO24" s="101"/>
-      <c r="AP24" s="101"/>
-      <c r="AQ24" s="101"/>
-      <c r="AR24" s="101"/>
-      <c r="AS24" s="101"/>
-      <c r="AT24" s="101"/>
-      <c r="AU24" s="102"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="122"/>
+      <c r="AE24" s="122"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="122"/>
+      <c r="AH24" s="122"/>
+      <c r="AI24" s="122"/>
+      <c r="AJ24" s="122"/>
+      <c r="AK24" s="122"/>
+      <c r="AL24" s="122"/>
+      <c r="AM24" s="122"/>
+      <c r="AN24" s="122"/>
+      <c r="AO24" s="122"/>
+      <c r="AP24" s="122"/>
+      <c r="AQ24" s="122"/>
+      <c r="AR24" s="122"/>
+      <c r="AS24" s="122"/>
+      <c r="AT24" s="122"/>
+      <c r="AU24" s="123"/>
     </row>
     <row r="25" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="101"/>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="101"/>
-      <c r="AK25" s="101"/>
-      <c r="AL25" s="101"/>
-      <c r="AM25" s="101"/>
-      <c r="AN25" s="101"/>
-      <c r="AO25" s="101"/>
-      <c r="AP25" s="101"/>
-      <c r="AQ25" s="101"/>
-      <c r="AR25" s="101"/>
-      <c r="AS25" s="101"/>
-      <c r="AT25" s="101"/>
-      <c r="AU25" s="102"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="122"/>
+      <c r="AB25" s="122"/>
+      <c r="AC25" s="122"/>
+      <c r="AD25" s="122"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="122"/>
+      <c r="AG25" s="122"/>
+      <c r="AH25" s="122"/>
+      <c r="AI25" s="122"/>
+      <c r="AJ25" s="122"/>
+      <c r="AK25" s="122"/>
+      <c r="AL25" s="122"/>
+      <c r="AM25" s="122"/>
+      <c r="AN25" s="122"/>
+      <c r="AO25" s="122"/>
+      <c r="AP25" s="122"/>
+      <c r="AQ25" s="122"/>
+      <c r="AR25" s="122"/>
+      <c r="AS25" s="122"/>
+      <c r="AT25" s="122"/>
+      <c r="AU25" s="123"/>
     </row>
     <row r="26" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="76" t="s">
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="76"/>
-      <c r="AK26" s="76"/>
-      <c r="AL26" s="76"/>
-      <c r="AM26" s="76"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="76"/>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="76"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="76"/>
-      <c r="AT26" s="76"/>
-      <c r="AU26" s="77"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="97"/>
+      <c r="AB26" s="97"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="97"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="97"/>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="97"/>
+      <c r="AL26" s="97"/>
+      <c r="AM26" s="97"/>
+      <c r="AN26" s="97"/>
+      <c r="AO26" s="97"/>
+      <c r="AP26" s="97"/>
+      <c r="AQ26" s="97"/>
+      <c r="AR26" s="97"/>
+      <c r="AS26" s="97"/>
+      <c r="AT26" s="97"/>
+      <c r="AU26" s="98"/>
     </row>
     <row r="27" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="72"/>
-      <c r="AN27" s="72"/>
-      <c r="AO27" s="72"/>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="72"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="73"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="93"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="93"/>
+      <c r="AK27" s="93"/>
+      <c r="AL27" s="93"/>
+      <c r="AM27" s="93"/>
+      <c r="AN27" s="93"/>
+      <c r="AO27" s="93"/>
+      <c r="AP27" s="93"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="93"/>
+      <c r="AS27" s="93"/>
+      <c r="AT27" s="93"/>
+      <c r="AU27" s="94"/>
     </row>
     <row r="28" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="99" t="s">
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="90" t="s">
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="90" t="s">
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="90" t="s">
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="AJ28" s="91"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="90" t="s">
+      <c r="AJ28" s="112"/>
+      <c r="AK28" s="113"/>
+      <c r="AL28" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="AM28" s="91"/>
-      <c r="AN28" s="91"/>
-      <c r="AO28" s="91"/>
-      <c r="AP28" s="92"/>
-      <c r="AQ28" s="90" t="s">
+      <c r="AM28" s="112"/>
+      <c r="AN28" s="112"/>
+      <c r="AO28" s="112"/>
+      <c r="AP28" s="113"/>
+      <c r="AQ28" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="AR28" s="91"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="92"/>
+      <c r="AR28" s="112"/>
+      <c r="AS28" s="112"/>
+      <c r="AT28" s="112"/>
+      <c r="AU28" s="113"/>
     </row>
     <row r="29" spans="3:47" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="95"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="116"/>
       <c r="N29" s="1">
         <v>1</v>
       </c>
@@ -3814,41 +4401,41 @@
       <c r="Y29" s="1">
         <v>12</v>
       </c>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="93"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="93"/>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="93"/>
-      <c r="AM29" s="94"/>
-      <c r="AN29" s="94"/>
-      <c r="AO29" s="94"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="93"/>
-      <c r="AR29" s="94"/>
-      <c r="AS29" s="94"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="95"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="115"/>
+      <c r="AB29" s="115"/>
+      <c r="AC29" s="115"/>
+      <c r="AD29" s="115"/>
+      <c r="AE29" s="116"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="115"/>
+      <c r="AH29" s="116"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="115"/>
+      <c r="AK29" s="116"/>
+      <c r="AL29" s="114"/>
+      <c r="AM29" s="115"/>
+      <c r="AN29" s="115"/>
+      <c r="AO29" s="115"/>
+      <c r="AP29" s="116"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="115"/>
+      <c r="AS29" s="115"/>
+      <c r="AT29" s="115"/>
+      <c r="AU29" s="116"/>
     </row>
     <row r="30" spans="3:47" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="98"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="119"/>
       <c r="N30" s="1" t="s">
         <v>37</v>
       </c>
@@ -3885,43 +4472,43 @@
       <c r="Y30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="96"/>
-      <c r="AG30" s="97"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="96"/>
-      <c r="AM30" s="97"/>
-      <c r="AN30" s="97"/>
-      <c r="AO30" s="97"/>
-      <c r="AP30" s="98"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="97"/>
-      <c r="AS30" s="97"/>
-      <c r="AT30" s="97"/>
-      <c r="AU30" s="98"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="119"/>
+      <c r="AF30" s="117"/>
+      <c r="AG30" s="118"/>
+      <c r="AH30" s="119"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="118"/>
+      <c r="AK30" s="119"/>
+      <c r="AL30" s="117"/>
+      <c r="AM30" s="118"/>
+      <c r="AN30" s="118"/>
+      <c r="AO30" s="118"/>
+      <c r="AP30" s="119"/>
+      <c r="AQ30" s="117"/>
+      <c r="AR30" s="118"/>
+      <c r="AS30" s="118"/>
+      <c r="AT30" s="118"/>
+      <c r="AU30" s="119"/>
     </row>
     <row r="31" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
@@ -3934,43 +4521,43 @@
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
       <c r="Y31" s="24"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="89"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="88"/>
-      <c r="AK31" s="89"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="88"/>
-      <c r="AN31" s="88"/>
-      <c r="AO31" s="88"/>
-      <c r="AP31" s="89"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="88"/>
-      <c r="AS31" s="88"/>
-      <c r="AT31" s="88"/>
-      <c r="AU31" s="89"/>
+      <c r="Z31" s="108"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="109"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="108"/>
+      <c r="AJ31" s="109"/>
+      <c r="AK31" s="110"/>
+      <c r="AL31" s="108"/>
+      <c r="AM31" s="109"/>
+      <c r="AN31" s="109"/>
+      <c r="AO31" s="109"/>
+      <c r="AP31" s="110"/>
+      <c r="AQ31" s="108"/>
+      <c r="AR31" s="109"/>
+      <c r="AS31" s="109"/>
+      <c r="AT31" s="109"/>
+      <c r="AU31" s="110"/>
     </row>
     <row r="32" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
@@ -3983,43 +4570,43 @@
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
       <c r="Y32" s="24"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="89"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="88"/>
-      <c r="AK32" s="89"/>
-      <c r="AL32" s="87"/>
-      <c r="AM32" s="88"/>
-      <c r="AN32" s="88"/>
-      <c r="AO32" s="88"/>
-      <c r="AP32" s="89"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="88"/>
-      <c r="AS32" s="88"/>
-      <c r="AT32" s="88"/>
-      <c r="AU32" s="89"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="109"/>
+      <c r="AH32" s="110"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="109"/>
+      <c r="AK32" s="110"/>
+      <c r="AL32" s="108"/>
+      <c r="AM32" s="109"/>
+      <c r="AN32" s="109"/>
+      <c r="AO32" s="109"/>
+      <c r="AP32" s="110"/>
+      <c r="AQ32" s="108"/>
+      <c r="AR32" s="109"/>
+      <c r="AS32" s="109"/>
+      <c r="AT32" s="109"/>
+      <c r="AU32" s="110"/>
     </row>
     <row r="33" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
       <c r="N33" s="24"/>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -4032,43 +4619,43 @@
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
       <c r="Y33" s="24"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="88"/>
-      <c r="AE33" s="89"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="88"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="88"/>
-      <c r="AK33" s="89"/>
-      <c r="AL33" s="87"/>
-      <c r="AM33" s="88"/>
-      <c r="AN33" s="88"/>
-      <c r="AO33" s="88"/>
-      <c r="AP33" s="89"/>
-      <c r="AQ33" s="87"/>
-      <c r="AR33" s="88"/>
-      <c r="AS33" s="88"/>
-      <c r="AT33" s="88"/>
-      <c r="AU33" s="89"/>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="108"/>
+      <c r="AJ33" s="109"/>
+      <c r="AK33" s="110"/>
+      <c r="AL33" s="108"/>
+      <c r="AM33" s="109"/>
+      <c r="AN33" s="109"/>
+      <c r="AO33" s="109"/>
+      <c r="AP33" s="110"/>
+      <c r="AQ33" s="108"/>
+      <c r="AR33" s="109"/>
+      <c r="AS33" s="109"/>
+      <c r="AT33" s="109"/>
+      <c r="AU33" s="110"/>
     </row>
     <row r="34" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <v>4</v>
       </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -4081,43 +4668,43 @@
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>
       <c r="Y34" s="24"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="88"/>
-      <c r="AC34" s="88"/>
-      <c r="AD34" s="88"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="87"/>
-      <c r="AG34" s="88"/>
-      <c r="AH34" s="89"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="88"/>
-      <c r="AK34" s="89"/>
-      <c r="AL34" s="87"/>
-      <c r="AM34" s="88"/>
-      <c r="AN34" s="88"/>
-      <c r="AO34" s="88"/>
-      <c r="AP34" s="89"/>
-      <c r="AQ34" s="87"/>
-      <c r="AR34" s="88"/>
-      <c r="AS34" s="88"/>
-      <c r="AT34" s="88"/>
-      <c r="AU34" s="89"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="109"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="108"/>
+      <c r="AG34" s="109"/>
+      <c r="AH34" s="110"/>
+      <c r="AI34" s="108"/>
+      <c r="AJ34" s="109"/>
+      <c r="AK34" s="110"/>
+      <c r="AL34" s="108"/>
+      <c r="AM34" s="109"/>
+      <c r="AN34" s="109"/>
+      <c r="AO34" s="109"/>
+      <c r="AP34" s="110"/>
+      <c r="AQ34" s="108"/>
+      <c r="AR34" s="109"/>
+      <c r="AS34" s="109"/>
+      <c r="AT34" s="109"/>
+      <c r="AU34" s="110"/>
     </row>
     <row r="35" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -4130,43 +4717,43 @@
       <c r="W35" s="24"/>
       <c r="X35" s="24"/>
       <c r="Y35" s="24"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="88"/>
-      <c r="AB35" s="88"/>
-      <c r="AC35" s="88"/>
-      <c r="AD35" s="88"/>
-      <c r="AE35" s="89"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="88"/>
-      <c r="AK35" s="89"/>
-      <c r="AL35" s="87"/>
-      <c r="AM35" s="88"/>
-      <c r="AN35" s="88"/>
-      <c r="AO35" s="88"/>
-      <c r="AP35" s="89"/>
-      <c r="AQ35" s="87"/>
-      <c r="AR35" s="88"/>
-      <c r="AS35" s="88"/>
-      <c r="AT35" s="88"/>
-      <c r="AU35" s="89"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="109"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="108"/>
+      <c r="AJ35" s="109"/>
+      <c r="AK35" s="110"/>
+      <c r="AL35" s="108"/>
+      <c r="AM35" s="109"/>
+      <c r="AN35" s="109"/>
+      <c r="AO35" s="109"/>
+      <c r="AP35" s="110"/>
+      <c r="AQ35" s="108"/>
+      <c r="AR35" s="109"/>
+      <c r="AS35" s="109"/>
+      <c r="AT35" s="109"/>
+      <c r="AU35" s="110"/>
     </row>
     <row r="36" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <v>6</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
@@ -4179,43 +4766,43 @@
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
       <c r="Y36" s="24"/>
-      <c r="Z36" s="87"/>
-      <c r="AA36" s="88"/>
-      <c r="AB36" s="88"/>
-      <c r="AC36" s="88"/>
-      <c r="AD36" s="88"/>
-      <c r="AE36" s="89"/>
-      <c r="AF36" s="87"/>
-      <c r="AG36" s="88"/>
-      <c r="AH36" s="89"/>
-      <c r="AI36" s="87"/>
-      <c r="AJ36" s="88"/>
-      <c r="AK36" s="89"/>
-      <c r="AL36" s="87"/>
-      <c r="AM36" s="88"/>
-      <c r="AN36" s="88"/>
-      <c r="AO36" s="88"/>
-      <c r="AP36" s="89"/>
-      <c r="AQ36" s="87"/>
-      <c r="AR36" s="88"/>
-      <c r="AS36" s="88"/>
-      <c r="AT36" s="88"/>
-      <c r="AU36" s="89"/>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="109"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="108"/>
+      <c r="AJ36" s="109"/>
+      <c r="AK36" s="110"/>
+      <c r="AL36" s="108"/>
+      <c r="AM36" s="109"/>
+      <c r="AN36" s="109"/>
+      <c r="AO36" s="109"/>
+      <c r="AP36" s="110"/>
+      <c r="AQ36" s="108"/>
+      <c r="AR36" s="109"/>
+      <c r="AS36" s="109"/>
+      <c r="AT36" s="109"/>
+      <c r="AU36" s="110"/>
     </row>
     <row r="37" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <v>7</v>
       </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
@@ -4228,43 +4815,43 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
       <c r="Y37" s="24"/>
-      <c r="Z37" s="87"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88"/>
-      <c r="AE37" s="89"/>
-      <c r="AF37" s="87"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="87"/>
-      <c r="AJ37" s="88"/>
-      <c r="AK37" s="89"/>
-      <c r="AL37" s="87"/>
-      <c r="AM37" s="88"/>
-      <c r="AN37" s="88"/>
-      <c r="AO37" s="88"/>
-      <c r="AP37" s="89"/>
-      <c r="AQ37" s="87"/>
-      <c r="AR37" s="88"/>
-      <c r="AS37" s="88"/>
-      <c r="AT37" s="88"/>
-      <c r="AU37" s="89"/>
+      <c r="Z37" s="108"/>
+      <c r="AA37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="109"/>
+      <c r="AD37" s="109"/>
+      <c r="AE37" s="110"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="109"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="108"/>
+      <c r="AJ37" s="109"/>
+      <c r="AK37" s="110"/>
+      <c r="AL37" s="108"/>
+      <c r="AM37" s="109"/>
+      <c r="AN37" s="109"/>
+      <c r="AO37" s="109"/>
+      <c r="AP37" s="110"/>
+      <c r="AQ37" s="108"/>
+      <c r="AR37" s="109"/>
+      <c r="AS37" s="109"/>
+      <c r="AT37" s="109"/>
+      <c r="AU37" s="110"/>
     </row>
     <row r="38" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <v>8</v>
       </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
@@ -4277,43 +4864,43 @@
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
       <c r="Y38" s="24"/>
-      <c r="Z38" s="87"/>
-      <c r="AA38" s="88"/>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="89"/>
-      <c r="AF38" s="87"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="89"/>
-      <c r="AI38" s="87"/>
-      <c r="AJ38" s="88"/>
-      <c r="AK38" s="89"/>
-      <c r="AL38" s="87"/>
-      <c r="AM38" s="88"/>
-      <c r="AN38" s="88"/>
-      <c r="AO38" s="88"/>
-      <c r="AP38" s="89"/>
-      <c r="AQ38" s="87"/>
-      <c r="AR38" s="88"/>
-      <c r="AS38" s="88"/>
-      <c r="AT38" s="88"/>
-      <c r="AU38" s="89"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
+      <c r="AE38" s="110"/>
+      <c r="AF38" s="108"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="110"/>
+      <c r="AI38" s="108"/>
+      <c r="AJ38" s="109"/>
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="108"/>
+      <c r="AM38" s="109"/>
+      <c r="AN38" s="109"/>
+      <c r="AO38" s="109"/>
+      <c r="AP38" s="110"/>
+      <c r="AQ38" s="108"/>
+      <c r="AR38" s="109"/>
+      <c r="AS38" s="109"/>
+      <c r="AT38" s="109"/>
+      <c r="AU38" s="110"/>
     </row>
     <row r="39" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <v>9</v>
       </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
@@ -4326,43 +4913,43 @@
       <c r="W39" s="24"/>
       <c r="X39" s="24"/>
       <c r="Y39" s="24"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="88"/>
-      <c r="AB39" s="88"/>
-      <c r="AC39" s="88"/>
-      <c r="AD39" s="88"/>
-      <c r="AE39" s="89"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="88"/>
-      <c r="AH39" s="89"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="89"/>
-      <c r="AL39" s="87"/>
-      <c r="AM39" s="88"/>
-      <c r="AN39" s="88"/>
-      <c r="AO39" s="88"/>
-      <c r="AP39" s="89"/>
-      <c r="AQ39" s="87"/>
-      <c r="AR39" s="88"/>
-      <c r="AS39" s="88"/>
-      <c r="AT39" s="88"/>
-      <c r="AU39" s="89"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
+      <c r="AE39" s="110"/>
+      <c r="AF39" s="108"/>
+      <c r="AG39" s="109"/>
+      <c r="AH39" s="110"/>
+      <c r="AI39" s="108"/>
+      <c r="AJ39" s="109"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="108"/>
+      <c r="AM39" s="109"/>
+      <c r="AN39" s="109"/>
+      <c r="AO39" s="109"/>
+      <c r="AP39" s="110"/>
+      <c r="AQ39" s="108"/>
+      <c r="AR39" s="109"/>
+      <c r="AS39" s="109"/>
+      <c r="AT39" s="109"/>
+      <c r="AU39" s="110"/>
     </row>
     <row r="40" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <v>10</v>
       </c>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
@@ -4375,906 +4962,906 @@
       <c r="W40" s="24"/>
       <c r="X40" s="24"/>
       <c r="Y40" s="24"/>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="88"/>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="88"/>
-      <c r="AD40" s="88"/>
-      <c r="AE40" s="89"/>
-      <c r="AF40" s="87"/>
-      <c r="AG40" s="88"/>
-      <c r="AH40" s="89"/>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="88"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="87"/>
-      <c r="AM40" s="88"/>
-      <c r="AN40" s="88"/>
-      <c r="AO40" s="88"/>
-      <c r="AP40" s="89"/>
-      <c r="AQ40" s="87"/>
-      <c r="AR40" s="88"/>
-      <c r="AS40" s="88"/>
-      <c r="AT40" s="88"/>
-      <c r="AU40" s="89"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="109"/>
+      <c r="AE40" s="110"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="109"/>
+      <c r="AH40" s="110"/>
+      <c r="AI40" s="108"/>
+      <c r="AJ40" s="109"/>
+      <c r="AK40" s="110"/>
+      <c r="AL40" s="108"/>
+      <c r="AM40" s="109"/>
+      <c r="AN40" s="109"/>
+      <c r="AO40" s="109"/>
+      <c r="AP40" s="110"/>
+      <c r="AQ40" s="108"/>
+      <c r="AR40" s="109"/>
+      <c r="AS40" s="109"/>
+      <c r="AT40" s="109"/>
+      <c r="AU40" s="110"/>
     </row>
     <row r="41" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="76" t="s">
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="76"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="76"/>
-      <c r="AA41" s="76"/>
-      <c r="AB41" s="76"/>
-      <c r="AC41" s="76"/>
-      <c r="AD41" s="76"/>
-      <c r="AE41" s="76"/>
-      <c r="AF41" s="76"/>
-      <c r="AG41" s="76"/>
-      <c r="AH41" s="76"/>
-      <c r="AI41" s="76"/>
-      <c r="AJ41" s="76"/>
-      <c r="AK41" s="76"/>
-      <c r="AL41" s="76"/>
-      <c r="AM41" s="76"/>
-      <c r="AN41" s="76"/>
-      <c r="AO41" s="76"/>
-      <c r="AP41" s="76"/>
-      <c r="AQ41" s="76"/>
-      <c r="AR41" s="76"/>
-      <c r="AS41" s="76"/>
-      <c r="AT41" s="76"/>
-      <c r="AU41" s="77"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
+      <c r="S41" s="97"/>
+      <c r="T41" s="97"/>
+      <c r="U41" s="97"/>
+      <c r="V41" s="97"/>
+      <c r="W41" s="97"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="97"/>
+      <c r="Z41" s="97"/>
+      <c r="AA41" s="97"/>
+      <c r="AB41" s="97"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="97"/>
+      <c r="AG41" s="97"/>
+      <c r="AH41" s="97"/>
+      <c r="AI41" s="97"/>
+      <c r="AJ41" s="97"/>
+      <c r="AK41" s="97"/>
+      <c r="AL41" s="97"/>
+      <c r="AM41" s="97"/>
+      <c r="AN41" s="97"/>
+      <c r="AO41" s="97"/>
+      <c r="AP41" s="97"/>
+      <c r="AQ41" s="97"/>
+      <c r="AR41" s="97"/>
+      <c r="AS41" s="97"/>
+      <c r="AT41" s="97"/>
+      <c r="AU41" s="98"/>
     </row>
     <row r="42" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="72"/>
-      <c r="AC42" s="72"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="72"/>
-      <c r="AF42" s="72"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="72"/>
-      <c r="AI42" s="72"/>
-      <c r="AJ42" s="72"/>
-      <c r="AK42" s="72"/>
-      <c r="AL42" s="72"/>
-      <c r="AM42" s="72"/>
-      <c r="AN42" s="72"/>
-      <c r="AO42" s="72"/>
-      <c r="AP42" s="72"/>
-      <c r="AQ42" s="72"/>
-      <c r="AR42" s="72"/>
-      <c r="AS42" s="72"/>
-      <c r="AT42" s="72"/>
-      <c r="AU42" s="73"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="93"/>
+      <c r="AF42" s="93"/>
+      <c r="AG42" s="93"/>
+      <c r="AH42" s="93"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="93"/>
+      <c r="AK42" s="93"/>
+      <c r="AL42" s="93"/>
+      <c r="AM42" s="93"/>
+      <c r="AN42" s="93"/>
+      <c r="AO42" s="93"/>
+      <c r="AP42" s="93"/>
+      <c r="AQ42" s="93"/>
+      <c r="AR42" s="93"/>
+      <c r="AS42" s="93"/>
+      <c r="AT42" s="93"/>
+      <c r="AU42" s="94"/>
     </row>
     <row r="43" spans="3:47" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
-      <c r="AD43" s="74"/>
-      <c r="AE43" s="74"/>
-      <c r="AF43" s="74"/>
-      <c r="AG43" s="74"/>
-      <c r="AH43" s="74"/>
-      <c r="AI43" s="74"/>
-      <c r="AJ43" s="74"/>
-      <c r="AK43" s="74"/>
-      <c r="AL43" s="74"/>
-      <c r="AM43" s="74"/>
-      <c r="AN43" s="74"/>
-      <c r="AO43" s="74"/>
-      <c r="AP43" s="74"/>
-      <c r="AQ43" s="74"/>
-      <c r="AR43" s="74"/>
-      <c r="AS43" s="74"/>
-      <c r="AT43" s="74"/>
-      <c r="AU43" s="74"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="95"/>
+      <c r="AO43" s="95"/>
+      <c r="AP43" s="95"/>
+      <c r="AQ43" s="95"/>
+      <c r="AR43" s="95"/>
+      <c r="AS43" s="95"/>
+      <c r="AT43" s="95"/>
+      <c r="AU43" s="95"/>
     </row>
     <row r="44" spans="3:47" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="72"/>
-      <c r="AC44" s="72"/>
-      <c r="AD44" s="72"/>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="72"/>
-      <c r="AG44" s="72"/>
-      <c r="AH44" s="72"/>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="72"/>
-      <c r="AK44" s="72"/>
-      <c r="AL44" s="72"/>
-      <c r="AM44" s="72"/>
-      <c r="AN44" s="72"/>
-      <c r="AO44" s="72"/>
-      <c r="AP44" s="72"/>
-      <c r="AQ44" s="72"/>
-      <c r="AR44" s="72"/>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="73"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="93"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="93"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="93"/>
+      <c r="AC44" s="93"/>
+      <c r="AD44" s="93"/>
+      <c r="AE44" s="93"/>
+      <c r="AF44" s="93"/>
+      <c r="AG44" s="93"/>
+      <c r="AH44" s="93"/>
+      <c r="AI44" s="93"/>
+      <c r="AJ44" s="93"/>
+      <c r="AK44" s="93"/>
+      <c r="AL44" s="93"/>
+      <c r="AM44" s="93"/>
+      <c r="AN44" s="93"/>
+      <c r="AO44" s="93"/>
+      <c r="AP44" s="93"/>
+      <c r="AQ44" s="93"/>
+      <c r="AR44" s="93"/>
+      <c r="AS44" s="93"/>
+      <c r="AT44" s="93"/>
+      <c r="AU44" s="94"/>
     </row>
     <row r="45" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
-      <c r="AD45" s="74"/>
-      <c r="AE45" s="74"/>
-      <c r="AF45" s="74"/>
-      <c r="AG45" s="74"/>
-      <c r="AH45" s="74"/>
-      <c r="AI45" s="74"/>
-      <c r="AJ45" s="74"/>
-      <c r="AK45" s="74"/>
-      <c r="AL45" s="74"/>
-      <c r="AM45" s="74"/>
-      <c r="AN45" s="74"/>
-      <c r="AO45" s="74"/>
-      <c r="AP45" s="74"/>
-      <c r="AQ45" s="74"/>
-      <c r="AR45" s="74"/>
-      <c r="AS45" s="74"/>
-      <c r="AT45" s="74"/>
-      <c r="AU45" s="74"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
+      <c r="AF45" s="95"/>
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="95"/>
+      <c r="AJ45" s="95"/>
+      <c r="AK45" s="95"/>
+      <c r="AL45" s="95"/>
+      <c r="AM45" s="95"/>
+      <c r="AN45" s="95"/>
+      <c r="AO45" s="95"/>
+      <c r="AP45" s="95"/>
+      <c r="AQ45" s="95"/>
+      <c r="AR45" s="95"/>
+      <c r="AS45" s="95"/>
+      <c r="AT45" s="95"/>
+      <c r="AU45" s="95"/>
     </row>
     <row r="46" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="72"/>
-      <c r="AC46" s="72"/>
-      <c r="AD46" s="72"/>
-      <c r="AE46" s="72"/>
-      <c r="AF46" s="72"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="72"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="72"/>
-      <c r="AK46" s="72"/>
-      <c r="AL46" s="72"/>
-      <c r="AM46" s="72"/>
-      <c r="AN46" s="72"/>
-      <c r="AO46" s="72"/>
-      <c r="AP46" s="72"/>
-      <c r="AQ46" s="72"/>
-      <c r="AR46" s="72"/>
-      <c r="AS46" s="72"/>
-      <c r="AT46" s="72"/>
-      <c r="AU46" s="73"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="93"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="93"/>
+      <c r="W46" s="93"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="93"/>
+      <c r="AA46" s="93"/>
+      <c r="AB46" s="93"/>
+      <c r="AC46" s="93"/>
+      <c r="AD46" s="93"/>
+      <c r="AE46" s="93"/>
+      <c r="AF46" s="93"/>
+      <c r="AG46" s="93"/>
+      <c r="AH46" s="93"/>
+      <c r="AI46" s="93"/>
+      <c r="AJ46" s="93"/>
+      <c r="AK46" s="93"/>
+      <c r="AL46" s="93"/>
+      <c r="AM46" s="93"/>
+      <c r="AN46" s="93"/>
+      <c r="AO46" s="93"/>
+      <c r="AP46" s="93"/>
+      <c r="AQ46" s="93"/>
+      <c r="AR46" s="93"/>
+      <c r="AS46" s="93"/>
+      <c r="AT46" s="93"/>
+      <c r="AU46" s="94"/>
     </row>
     <row r="47" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="74"/>
-      <c r="AA47" s="74"/>
-      <c r="AB47" s="74"/>
-      <c r="AC47" s="74"/>
-      <c r="AD47" s="74"/>
-      <c r="AE47" s="74"/>
-      <c r="AF47" s="74"/>
-      <c r="AG47" s="74"/>
-      <c r="AH47" s="74"/>
-      <c r="AI47" s="74"/>
-      <c r="AJ47" s="74"/>
-      <c r="AK47" s="74"/>
-      <c r="AL47" s="74"/>
-      <c r="AM47" s="74"/>
-      <c r="AN47" s="74"/>
-      <c r="AO47" s="74"/>
-      <c r="AP47" s="74"/>
-      <c r="AQ47" s="74"/>
-      <c r="AR47" s="74"/>
-      <c r="AS47" s="74"/>
-      <c r="AT47" s="74"/>
-      <c r="AU47" s="74"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
+      <c r="AB47" s="95"/>
+      <c r="AC47" s="95"/>
+      <c r="AD47" s="95"/>
+      <c r="AE47" s="95"/>
+      <c r="AF47" s="95"/>
+      <c r="AG47" s="95"/>
+      <c r="AH47" s="95"/>
+      <c r="AI47" s="95"/>
+      <c r="AJ47" s="95"/>
+      <c r="AK47" s="95"/>
+      <c r="AL47" s="95"/>
+      <c r="AM47" s="95"/>
+      <c r="AN47" s="95"/>
+      <c r="AO47" s="95"/>
+      <c r="AP47" s="95"/>
+      <c r="AQ47" s="95"/>
+      <c r="AR47" s="95"/>
+      <c r="AS47" s="95"/>
+      <c r="AT47" s="95"/>
+      <c r="AU47" s="95"/>
     </row>
     <row r="48" spans="3:47" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="72"/>
-      <c r="AC48" s="72"/>
-      <c r="AD48" s="72"/>
-      <c r="AE48" s="72"/>
-      <c r="AF48" s="72"/>
-      <c r="AG48" s="72"/>
-      <c r="AH48" s="72"/>
-      <c r="AI48" s="72"/>
-      <c r="AJ48" s="72"/>
-      <c r="AK48" s="72"/>
-      <c r="AL48" s="72"/>
-      <c r="AM48" s="72"/>
-      <c r="AN48" s="72"/>
-      <c r="AO48" s="72"/>
-      <c r="AP48" s="72"/>
-      <c r="AQ48" s="72"/>
-      <c r="AR48" s="72"/>
-      <c r="AS48" s="72"/>
-      <c r="AT48" s="72"/>
-      <c r="AU48" s="73"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="93"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="93"/>
+      <c r="W48" s="93"/>
+      <c r="X48" s="93"/>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="93"/>
+      <c r="AA48" s="93"/>
+      <c r="AB48" s="93"/>
+      <c r="AC48" s="93"/>
+      <c r="AD48" s="93"/>
+      <c r="AE48" s="93"/>
+      <c r="AF48" s="93"/>
+      <c r="AG48" s="93"/>
+      <c r="AH48" s="93"/>
+      <c r="AI48" s="93"/>
+      <c r="AJ48" s="93"/>
+      <c r="AK48" s="93"/>
+      <c r="AL48" s="93"/>
+      <c r="AM48" s="93"/>
+      <c r="AN48" s="93"/>
+      <c r="AO48" s="93"/>
+      <c r="AP48" s="93"/>
+      <c r="AQ48" s="93"/>
+      <c r="AR48" s="93"/>
+      <c r="AS48" s="93"/>
+      <c r="AT48" s="93"/>
+      <c r="AU48" s="94"/>
     </row>
     <row r="49" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83" t="s">
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="83"/>
-      <c r="T49" s="83"/>
-      <c r="U49" s="83"/>
-      <c r="V49" s="83"/>
-      <c r="W49" s="83"/>
-      <c r="X49" s="83"/>
-      <c r="Y49" s="83"/>
-      <c r="Z49" s="83"/>
-      <c r="AA49" s="83" t="s">
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="104"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="104"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
+      <c r="V49" s="104"/>
+      <c r="W49" s="104"/>
+      <c r="X49" s="104"/>
+      <c r="Y49" s="104"/>
+      <c r="Z49" s="104"/>
+      <c r="AA49" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="AB49" s="83"/>
-      <c r="AC49" s="83"/>
-      <c r="AD49" s="83"/>
-      <c r="AE49" s="83"/>
-      <c r="AF49" s="83"/>
-      <c r="AG49" s="83"/>
-      <c r="AH49" s="83"/>
-      <c r="AI49" s="83"/>
-      <c r="AJ49" s="83"/>
-      <c r="AK49" s="83" t="s">
+      <c r="AB49" s="104"/>
+      <c r="AC49" s="104"/>
+      <c r="AD49" s="104"/>
+      <c r="AE49" s="104"/>
+      <c r="AF49" s="104"/>
+      <c r="AG49" s="104"/>
+      <c r="AH49" s="104"/>
+      <c r="AI49" s="104"/>
+      <c r="AJ49" s="104"/>
+      <c r="AK49" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="AL49" s="83"/>
-      <c r="AM49" s="83"/>
-      <c r="AN49" s="83"/>
-      <c r="AO49" s="83"/>
-      <c r="AP49" s="83"/>
-      <c r="AQ49" s="83"/>
-      <c r="AR49" s="83"/>
-      <c r="AS49" s="83"/>
-      <c r="AT49" s="83"/>
-      <c r="AU49" s="83"/>
+      <c r="AL49" s="104"/>
+      <c r="AM49" s="104"/>
+      <c r="AN49" s="104"/>
+      <c r="AO49" s="104"/>
+      <c r="AP49" s="104"/>
+      <c r="AQ49" s="104"/>
+      <c r="AR49" s="104"/>
+      <c r="AS49" s="104"/>
+      <c r="AT49" s="104"/>
+      <c r="AU49" s="104"/>
     </row>
     <row r="50" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
-      <c r="AB50" s="82"/>
-      <c r="AC50" s="82"/>
-      <c r="AD50" s="82"/>
-      <c r="AE50" s="82"/>
-      <c r="AF50" s="82"/>
-      <c r="AG50" s="82"/>
-      <c r="AH50" s="82"/>
-      <c r="AI50" s="82"/>
-      <c r="AJ50" s="82"/>
-      <c r="AK50" s="81"/>
-      <c r="AL50" s="81"/>
-      <c r="AM50" s="81"/>
-      <c r="AN50" s="81"/>
-      <c r="AO50" s="81"/>
-      <c r="AP50" s="81"/>
-      <c r="AQ50" s="81"/>
-      <c r="AR50" s="81"/>
-      <c r="AS50" s="81"/>
-      <c r="AT50" s="81"/>
-      <c r="AU50" s="81"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="103"/>
+      <c r="Z50" s="103"/>
+      <c r="AA50" s="103"/>
+      <c r="AB50" s="103"/>
+      <c r="AC50" s="103"/>
+      <c r="AD50" s="103"/>
+      <c r="AE50" s="103"/>
+      <c r="AF50" s="103"/>
+      <c r="AG50" s="103"/>
+      <c r="AH50" s="103"/>
+      <c r="AI50" s="103"/>
+      <c r="AJ50" s="103"/>
+      <c r="AK50" s="102"/>
+      <c r="AL50" s="102"/>
+      <c r="AM50" s="102"/>
+      <c r="AN50" s="102"/>
+      <c r="AO50" s="102"/>
+      <c r="AP50" s="102"/>
+      <c r="AQ50" s="102"/>
+      <c r="AR50" s="102"/>
+      <c r="AS50" s="102"/>
+      <c r="AT50" s="102"/>
+      <c r="AU50" s="102"/>
     </row>
     <row r="51" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="82"/>
-      <c r="AB51" s="82"/>
-      <c r="AC51" s="82"/>
-      <c r="AD51" s="82"/>
-      <c r="AE51" s="82"/>
-      <c r="AF51" s="82"/>
-      <c r="AG51" s="82"/>
-      <c r="AH51" s="82"/>
-      <c r="AI51" s="82"/>
-      <c r="AJ51" s="82"/>
-      <c r="AK51" s="81"/>
-      <c r="AL51" s="81"/>
-      <c r="AM51" s="81"/>
-      <c r="AN51" s="81"/>
-      <c r="AO51" s="81"/>
-      <c r="AP51" s="81"/>
-      <c r="AQ51" s="81"/>
-      <c r="AR51" s="81"/>
-      <c r="AS51" s="81"/>
-      <c r="AT51" s="81"/>
-      <c r="AU51" s="81"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="103"/>
+      <c r="N51" s="103"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="103"/>
+      <c r="T51" s="103"/>
+      <c r="U51" s="103"/>
+      <c r="V51" s="103"/>
+      <c r="W51" s="103"/>
+      <c r="X51" s="103"/>
+      <c r="Y51" s="103"/>
+      <c r="Z51" s="103"/>
+      <c r="AA51" s="103"/>
+      <c r="AB51" s="103"/>
+      <c r="AC51" s="103"/>
+      <c r="AD51" s="103"/>
+      <c r="AE51" s="103"/>
+      <c r="AF51" s="103"/>
+      <c r="AG51" s="103"/>
+      <c r="AH51" s="103"/>
+      <c r="AI51" s="103"/>
+      <c r="AJ51" s="103"/>
+      <c r="AK51" s="102"/>
+      <c r="AL51" s="102"/>
+      <c r="AM51" s="102"/>
+      <c r="AN51" s="102"/>
+      <c r="AO51" s="102"/>
+      <c r="AP51" s="102"/>
+      <c r="AQ51" s="102"/>
+      <c r="AR51" s="102"/>
+      <c r="AS51" s="102"/>
+      <c r="AT51" s="102"/>
+      <c r="AU51" s="102"/>
     </row>
     <row r="52" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="82"/>
-      <c r="X52" s="82"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="82"/>
-      <c r="AA52" s="82"/>
-      <c r="AB52" s="82"/>
-      <c r="AC52" s="82"/>
-      <c r="AD52" s="82"/>
-      <c r="AE52" s="82"/>
-      <c r="AF52" s="82"/>
-      <c r="AG52" s="82"/>
-      <c r="AH52" s="82"/>
-      <c r="AI52" s="82"/>
-      <c r="AJ52" s="82"/>
-      <c r="AK52" s="81"/>
-      <c r="AL52" s="81"/>
-      <c r="AM52" s="81"/>
-      <c r="AN52" s="81"/>
-      <c r="AO52" s="81"/>
-      <c r="AP52" s="81"/>
-      <c r="AQ52" s="81"/>
-      <c r="AR52" s="81"/>
-      <c r="AS52" s="81"/>
-      <c r="AT52" s="81"/>
-      <c r="AU52" s="81"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="103"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="103"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="103"/>
+      <c r="P52" s="103"/>
+      <c r="Q52" s="103"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="103"/>
+      <c r="T52" s="103"/>
+      <c r="U52" s="103"/>
+      <c r="V52" s="103"/>
+      <c r="W52" s="103"/>
+      <c r="X52" s="103"/>
+      <c r="Y52" s="103"/>
+      <c r="Z52" s="103"/>
+      <c r="AA52" s="103"/>
+      <c r="AB52" s="103"/>
+      <c r="AC52" s="103"/>
+      <c r="AD52" s="103"/>
+      <c r="AE52" s="103"/>
+      <c r="AF52" s="103"/>
+      <c r="AG52" s="103"/>
+      <c r="AH52" s="103"/>
+      <c r="AI52" s="103"/>
+      <c r="AJ52" s="103"/>
+      <c r="AK52" s="102"/>
+      <c r="AL52" s="102"/>
+      <c r="AM52" s="102"/>
+      <c r="AN52" s="102"/>
+      <c r="AO52" s="102"/>
+      <c r="AP52" s="102"/>
+      <c r="AQ52" s="102"/>
+      <c r="AR52" s="102"/>
+      <c r="AS52" s="102"/>
+      <c r="AT52" s="102"/>
+      <c r="AU52" s="102"/>
     </row>
     <row r="53" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="82"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="82"/>
-      <c r="U53" s="82"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="82"/>
-      <c r="X53" s="82"/>
-      <c r="Y53" s="82"/>
-      <c r="Z53" s="82"/>
-      <c r="AA53" s="82"/>
-      <c r="AB53" s="82"/>
-      <c r="AC53" s="82"/>
-      <c r="AD53" s="82"/>
-      <c r="AE53" s="82"/>
-      <c r="AF53" s="82"/>
-      <c r="AG53" s="82"/>
-      <c r="AH53" s="82"/>
-      <c r="AI53" s="82"/>
-      <c r="AJ53" s="82"/>
-      <c r="AK53" s="81"/>
-      <c r="AL53" s="81"/>
-      <c r="AM53" s="81"/>
-      <c r="AN53" s="81"/>
-      <c r="AO53" s="81"/>
-      <c r="AP53" s="81"/>
-      <c r="AQ53" s="81"/>
-      <c r="AR53" s="81"/>
-      <c r="AS53" s="81"/>
-      <c r="AT53" s="81"/>
-      <c r="AU53" s="81"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="103"/>
+      <c r="L53" s="103"/>
+      <c r="M53" s="103"/>
+      <c r="N53" s="103"/>
+      <c r="O53" s="103"/>
+      <c r="P53" s="103"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="103"/>
+      <c r="T53" s="103"/>
+      <c r="U53" s="103"/>
+      <c r="V53" s="103"/>
+      <c r="W53" s="103"/>
+      <c r="X53" s="103"/>
+      <c r="Y53" s="103"/>
+      <c r="Z53" s="103"/>
+      <c r="AA53" s="103"/>
+      <c r="AB53" s="103"/>
+      <c r="AC53" s="103"/>
+      <c r="AD53" s="103"/>
+      <c r="AE53" s="103"/>
+      <c r="AF53" s="103"/>
+      <c r="AG53" s="103"/>
+      <c r="AH53" s="103"/>
+      <c r="AI53" s="103"/>
+      <c r="AJ53" s="103"/>
+      <c r="AK53" s="102"/>
+      <c r="AL53" s="102"/>
+      <c r="AM53" s="102"/>
+      <c r="AN53" s="102"/>
+      <c r="AO53" s="102"/>
+      <c r="AP53" s="102"/>
+      <c r="AQ53" s="102"/>
+      <c r="AR53" s="102"/>
+      <c r="AS53" s="102"/>
+      <c r="AT53" s="102"/>
+      <c r="AU53" s="102"/>
     </row>
     <row r="54" spans="3:47" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="72"/>
-      <c r="X54" s="72"/>
-      <c r="Y54" s="72"/>
-      <c r="Z54" s="72"/>
-      <c r="AA54" s="72"/>
-      <c r="AB54" s="72"/>
-      <c r="AC54" s="72"/>
-      <c r="AD54" s="72"/>
-      <c r="AE54" s="72"/>
-      <c r="AF54" s="72"/>
-      <c r="AG54" s="72"/>
-      <c r="AH54" s="72"/>
-      <c r="AI54" s="72"/>
-      <c r="AJ54" s="72"/>
-      <c r="AK54" s="72"/>
-      <c r="AL54" s="72"/>
-      <c r="AM54" s="72"/>
-      <c r="AN54" s="72"/>
-      <c r="AO54" s="72"/>
-      <c r="AP54" s="72"/>
-      <c r="AQ54" s="72"/>
-      <c r="AR54" s="72"/>
-      <c r="AS54" s="72"/>
-      <c r="AT54" s="72"/>
-      <c r="AU54" s="73"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="93"/>
+      <c r="S54" s="93"/>
+      <c r="T54" s="93"/>
+      <c r="U54" s="93"/>
+      <c r="V54" s="93"/>
+      <c r="W54" s="93"/>
+      <c r="X54" s="93"/>
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="93"/>
+      <c r="AA54" s="93"/>
+      <c r="AB54" s="93"/>
+      <c r="AC54" s="93"/>
+      <c r="AD54" s="93"/>
+      <c r="AE54" s="93"/>
+      <c r="AF54" s="93"/>
+      <c r="AG54" s="93"/>
+      <c r="AH54" s="93"/>
+      <c r="AI54" s="93"/>
+      <c r="AJ54" s="93"/>
+      <c r="AK54" s="93"/>
+      <c r="AL54" s="93"/>
+      <c r="AM54" s="93"/>
+      <c r="AN54" s="93"/>
+      <c r="AO54" s="93"/>
+      <c r="AP54" s="93"/>
+      <c r="AQ54" s="93"/>
+      <c r="AR54" s="93"/>
+      <c r="AS54" s="93"/>
+      <c r="AT54" s="93"/>
+      <c r="AU54" s="94"/>
     </row>
     <row r="55" spans="3:47" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="74"/>
-      <c r="S55" s="74"/>
-      <c r="T55" s="74"/>
-      <c r="U55" s="74"/>
-      <c r="V55" s="74"/>
-      <c r="W55" s="74"/>
-      <c r="X55" s="74"/>
-      <c r="Y55" s="74"/>
-      <c r="Z55" s="74"/>
-      <c r="AA55" s="74"/>
-      <c r="AB55" s="74"/>
-      <c r="AC55" s="74"/>
-      <c r="AD55" s="74"/>
-      <c r="AE55" s="74"/>
-      <c r="AF55" s="74"/>
-      <c r="AG55" s="74"/>
-      <c r="AH55" s="74"/>
-      <c r="AI55" s="74"/>
-      <c r="AJ55" s="74"/>
-      <c r="AK55" s="74"/>
-      <c r="AL55" s="74"/>
-      <c r="AM55" s="74"/>
-      <c r="AN55" s="74"/>
-      <c r="AO55" s="74"/>
-      <c r="AP55" s="74"/>
-      <c r="AQ55" s="74"/>
-      <c r="AR55" s="74"/>
-      <c r="AS55" s="74"/>
-      <c r="AT55" s="74"/>
-      <c r="AU55" s="74"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="95"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="95"/>
+      <c r="S55" s="95"/>
+      <c r="T55" s="95"/>
+      <c r="U55" s="95"/>
+      <c r="V55" s="95"/>
+      <c r="W55" s="95"/>
+      <c r="X55" s="95"/>
+      <c r="Y55" s="95"/>
+      <c r="Z55" s="95"/>
+      <c r="AA55" s="95"/>
+      <c r="AB55" s="95"/>
+      <c r="AC55" s="95"/>
+      <c r="AD55" s="95"/>
+      <c r="AE55" s="95"/>
+      <c r="AF55" s="95"/>
+      <c r="AG55" s="95"/>
+      <c r="AH55" s="95"/>
+      <c r="AI55" s="95"/>
+      <c r="AJ55" s="95"/>
+      <c r="AK55" s="95"/>
+      <c r="AL55" s="95"/>
+      <c r="AM55" s="95"/>
+      <c r="AN55" s="95"/>
+      <c r="AO55" s="95"/>
+      <c r="AP55" s="95"/>
+      <c r="AQ55" s="95"/>
+      <c r="AR55" s="95"/>
+      <c r="AS55" s="95"/>
+      <c r="AT55" s="95"/>
+      <c r="AU55" s="95"/>
     </row>
     <row r="56" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="76"/>
-      <c r="S56" s="76"/>
-      <c r="T56" s="76"/>
-      <c r="U56" s="76"/>
-      <c r="V56" s="76"/>
-      <c r="W56" s="76"/>
-      <c r="X56" s="76"/>
-      <c r="Y56" s="76"/>
-      <c r="Z56" s="76"/>
-      <c r="AA56" s="76"/>
-      <c r="AB56" s="76"/>
-      <c r="AC56" s="76"/>
-      <c r="AD56" s="76"/>
-      <c r="AE56" s="76"/>
-      <c r="AF56" s="76"/>
-      <c r="AG56" s="76"/>
-      <c r="AH56" s="76"/>
-      <c r="AI56" s="76"/>
-      <c r="AJ56" s="76"/>
-      <c r="AK56" s="76"/>
-      <c r="AL56" s="76"/>
-      <c r="AM56" s="76"/>
-      <c r="AN56" s="76"/>
-      <c r="AO56" s="76"/>
-      <c r="AP56" s="76"/>
-      <c r="AQ56" s="76"/>
-      <c r="AR56" s="76"/>
-      <c r="AS56" s="76"/>
-      <c r="AT56" s="76"/>
-      <c r="AU56" s="77"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="97"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="97"/>
+      <c r="N56" s="97"/>
+      <c r="O56" s="97"/>
+      <c r="P56" s="97"/>
+      <c r="Q56" s="97"/>
+      <c r="R56" s="97"/>
+      <c r="S56" s="97"/>
+      <c r="T56" s="97"/>
+      <c r="U56" s="97"/>
+      <c r="V56" s="97"/>
+      <c r="W56" s="97"/>
+      <c r="X56" s="97"/>
+      <c r="Y56" s="97"/>
+      <c r="Z56" s="97"/>
+      <c r="AA56" s="97"/>
+      <c r="AB56" s="97"/>
+      <c r="AC56" s="97"/>
+      <c r="AD56" s="97"/>
+      <c r="AE56" s="97"/>
+      <c r="AF56" s="97"/>
+      <c r="AG56" s="97"/>
+      <c r="AH56" s="97"/>
+      <c r="AI56" s="97"/>
+      <c r="AJ56" s="97"/>
+      <c r="AK56" s="97"/>
+      <c r="AL56" s="97"/>
+      <c r="AM56" s="97"/>
+      <c r="AN56" s="97"/>
+      <c r="AO56" s="97"/>
+      <c r="AP56" s="97"/>
+      <c r="AQ56" s="97"/>
+      <c r="AR56" s="97"/>
+      <c r="AS56" s="97"/>
+      <c r="AT56" s="97"/>
+      <c r="AU56" s="98"/>
     </row>
     <row r="57" spans="3:47" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="78"/>
-      <c r="W57" s="78"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="78"/>
-      <c r="AA57" s="78" t="s">
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="99"/>
+      <c r="R57" s="99"/>
+      <c r="S57" s="99"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="99"/>
+      <c r="W57" s="99"/>
+      <c r="X57" s="99"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="99"/>
+      <c r="AA57" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="AB57" s="78"/>
-      <c r="AC57" s="78"/>
-      <c r="AD57" s="78"/>
-      <c r="AE57" s="78"/>
-      <c r="AF57" s="78"/>
-      <c r="AG57" s="78"/>
-      <c r="AH57" s="78"/>
-      <c r="AI57" s="78"/>
-      <c r="AJ57" s="78"/>
-      <c r="AK57" s="78"/>
-      <c r="AL57" s="78"/>
-      <c r="AM57" s="78"/>
-      <c r="AN57" s="78"/>
-      <c r="AO57" s="78"/>
-      <c r="AP57" s="78"/>
-      <c r="AQ57" s="78"/>
-      <c r="AR57" s="78"/>
-      <c r="AS57" s="78"/>
-      <c r="AT57" s="78"/>
-      <c r="AU57" s="78"/>
+      <c r="AB57" s="99"/>
+      <c r="AC57" s="99"/>
+      <c r="AD57" s="99"/>
+      <c r="AE57" s="99"/>
+      <c r="AF57" s="99"/>
+      <c r="AG57" s="99"/>
+      <c r="AH57" s="99"/>
+      <c r="AI57" s="99"/>
+      <c r="AJ57" s="99"/>
+      <c r="AK57" s="99"/>
+      <c r="AL57" s="99"/>
+      <c r="AM57" s="99"/>
+      <c r="AN57" s="99"/>
+      <c r="AO57" s="99"/>
+      <c r="AP57" s="99"/>
+      <c r="AQ57" s="99"/>
+      <c r="AR57" s="99"/>
+      <c r="AS57" s="99"/>
+      <c r="AT57" s="99"/>
+      <c r="AU57" s="99"/>
     </row>
     <row r="58" spans="3:47" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
-      <c r="V58" s="79"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
-      <c r="Z58" s="79"/>
-      <c r="AA58" s="79" t="s">
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="100"/>
+      <c r="Q58" s="100"/>
+      <c r="R58" s="100"/>
+      <c r="S58" s="100"/>
+      <c r="T58" s="100"/>
+      <c r="U58" s="100"/>
+      <c r="V58" s="100"/>
+      <c r="W58" s="100"/>
+      <c r="X58" s="100"/>
+      <c r="Y58" s="100"/>
+      <c r="Z58" s="100"/>
+      <c r="AA58" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="AB58" s="79"/>
-      <c r="AC58" s="79"/>
-      <c r="AD58" s="79"/>
-      <c r="AE58" s="79"/>
-      <c r="AF58" s="79"/>
-      <c r="AG58" s="79"/>
-      <c r="AH58" s="79"/>
-      <c r="AI58" s="79"/>
-      <c r="AJ58" s="79"/>
-      <c r="AK58" s="79"/>
-      <c r="AL58" s="79"/>
-      <c r="AM58" s="79"/>
-      <c r="AN58" s="79"/>
-      <c r="AO58" s="79"/>
-      <c r="AP58" s="79"/>
-      <c r="AQ58" s="79"/>
-      <c r="AR58" s="79"/>
-      <c r="AS58" s="79"/>
-      <c r="AT58" s="79"/>
-      <c r="AU58" s="79"/>
+      <c r="AB58" s="100"/>
+      <c r="AC58" s="100"/>
+      <c r="AD58" s="100"/>
+      <c r="AE58" s="100"/>
+      <c r="AF58" s="100"/>
+      <c r="AG58" s="100"/>
+      <c r="AH58" s="100"/>
+      <c r="AI58" s="100"/>
+      <c r="AJ58" s="100"/>
+      <c r="AK58" s="100"/>
+      <c r="AL58" s="100"/>
+      <c r="AM58" s="100"/>
+      <c r="AN58" s="100"/>
+      <c r="AO58" s="100"/>
+      <c r="AP58" s="100"/>
+      <c r="AQ58" s="100"/>
+      <c r="AR58" s="100"/>
+      <c r="AS58" s="100"/>
+      <c r="AT58" s="100"/>
+      <c r="AU58" s="100"/>
     </row>
     <row r="59" spans="3:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
@@ -5424,52 +6011,52 @@
       <c r="AU61" s="8"/>
     </row>
     <row r="62" spans="3:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="67" t="s">
+      <c r="C62" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="68"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
       <c r="M62" s="21"/>
       <c r="N62" s="22"/>
       <c r="O62" s="23"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="70" t="s">
+      <c r="Q62" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="R62" s="70"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-      <c r="W62" s="69"/>
-      <c r="X62" s="69"/>
-      <c r="Y62" s="69"/>
-      <c r="Z62" s="69"/>
-      <c r="AA62" s="69"/>
-      <c r="AB62" s="69"/>
+      <c r="R62" s="91"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="90"/>
+      <c r="W62" s="90"/>
+      <c r="X62" s="90"/>
+      <c r="Y62" s="90"/>
+      <c r="Z62" s="90"/>
+      <c r="AA62" s="90"/>
+      <c r="AB62" s="90"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="21"/>
       <c r="AE62" s="22"/>
       <c r="AF62" s="23"/>
       <c r="AG62" s="3"/>
-      <c r="AH62" s="70" t="s">
+      <c r="AH62" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="AI62" s="70"/>
-      <c r="AJ62" s="69"/>
-      <c r="AK62" s="69"/>
-      <c r="AL62" s="69"/>
-      <c r="AM62" s="69"/>
-      <c r="AN62" s="69"/>
-      <c r="AO62" s="69"/>
-      <c r="AP62" s="69"/>
+      <c r="AI62" s="91"/>
+      <c r="AJ62" s="90"/>
+      <c r="AK62" s="90"/>
+      <c r="AL62" s="90"/>
+      <c r="AM62" s="90"/>
+      <c r="AN62" s="90"/>
+      <c r="AO62" s="90"/>
+      <c r="AP62" s="90"/>
       <c r="AQ62" s="3"/>
       <c r="AR62" s="21"/>
       <c r="AS62" s="22"/>
@@ -5477,62 +6064,62 @@
       <c r="AU62" s="8"/>
     </row>
     <row r="63" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="70"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
       <c r="L63" s="25"/>
-      <c r="M63" s="66" t="s">
+      <c r="M63" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="87"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="70" t="s">
+      <c r="Q63" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="R63" s="70"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="V63" s="69"/>
-      <c r="W63" s="69"/>
-      <c r="X63" s="69"/>
-      <c r="Y63" s="69"/>
-      <c r="Z63" s="69"/>
-      <c r="AA63" s="69"/>
-      <c r="AB63" s="69"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="90"/>
+      <c r="W63" s="90"/>
+      <c r="X63" s="90"/>
+      <c r="Y63" s="90"/>
+      <c r="Z63" s="90"/>
+      <c r="AA63" s="90"/>
+      <c r="AB63" s="90"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="66" t="s">
+      <c r="AD63" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
+      <c r="AE63" s="87"/>
+      <c r="AF63" s="87"/>
       <c r="AG63" s="3"/>
-      <c r="AH63" s="70" t="s">
+      <c r="AH63" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="AI63" s="70"/>
-      <c r="AJ63" s="69"/>
-      <c r="AK63" s="69"/>
-      <c r="AL63" s="69"/>
-      <c r="AM63" s="69"/>
-      <c r="AN63" s="69"/>
-      <c r="AO63" s="69"/>
-      <c r="AP63" s="69"/>
+      <c r="AI63" s="91"/>
+      <c r="AJ63" s="90"/>
+      <c r="AK63" s="90"/>
+      <c r="AL63" s="90"/>
+      <c r="AM63" s="90"/>
+      <c r="AN63" s="90"/>
+      <c r="AO63" s="90"/>
+      <c r="AP63" s="90"/>
       <c r="AQ63" s="3"/>
-      <c r="AR63" s="66" t="s">
+      <c r="AR63" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="AS63" s="66"/>
-      <c r="AT63" s="66"/>
+      <c r="AS63" s="87"/>
+      <c r="AT63" s="87"/>
       <c r="AU63" s="8"/>
     </row>
     <row r="64" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5812,7 +6399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFD018-77AF-4638-A5AC-F3532E4530FC}">
   <dimension ref="A1:V13"/>
   <sheetViews>
@@ -5837,264 +6424,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140" t="s">
+      <c r="A1" s="160"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="133" t="s">
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
     </row>
     <row r="2" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="136" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="137" t="s">
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
     </row>
     <row r="3" spans="1:22" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="138" t="s">
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
     </row>
     <row r="4" spans="1:22" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="144"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="165"/>
     </row>
     <row r="5" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="132" t="s">
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
       <c r="V5" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="147"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="168"/>
       <c r="N6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="149" t="s">
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="149"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="151"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="171"/>
+      <c r="V6" s="172"/>
     </row>
     <row r="7" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="154"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="175"/>
       <c r="N7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="149" t="s">
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="149"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="152"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="173"/>
     </row>
     <row r="8" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127" t="s">
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="132" t="s">
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="127" t="s">
+      <c r="N8" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="127" t="s">
+      <c r="O8" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="127" t="s">
+      <c r="P8" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="129" t="s">
+      <c r="Q8" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="130"/>
-      <c r="S8" s="129" t="s">
+      <c r="R8" s="151"/>
+      <c r="S8" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="T8" s="130"/>
-      <c r="U8" s="129" t="s">
+      <c r="T8" s="151"/>
+      <c r="U8" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="131"/>
+      <c r="V8" s="152"/>
     </row>
     <row r="9" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
       <c r="Q9" s="26" t="s">
         <v>87</v>
       </c>
@@ -6116,17 +6703,17 @@
     </row>
     <row r="10" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
       <c r="M10" s="30"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
@@ -6196,7 +6783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C1BAEE-FC11-44C0-8774-73DC27E45FC9}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -6910,110 +7497,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159" t="s">
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159" t="s">
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="160" t="s">
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157" t="s">
+      <c r="C5" s="177"/>
+      <c r="D5" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
@@ -7033,15 +7620,15 @@
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
       <c r="K8" s="47"/>
       <c r="L8" s="51" t="s">
         <v>99</v>

--- a/static/documentos/ficha_proyecto.xlsx
+++ b/static/documentos/ficha_proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pytho\PycharmProjects\sion\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A998879D-2464-4373-9BD5-526EA9074262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5410914A-55F4-4263-9725-81A098CF4B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDENTIFICACION PROYECTOS" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>FORMATO FICHA DE PROYECTO IRACA</t>
   </si>
@@ -457,9 +457,6 @@
       </rPr>
       <t>F-GI-IP-4</t>
     </r>
-  </si>
-  <si>
-    <t>Logo del Socio/Operador/Contratista</t>
   </si>
   <si>
     <r>
@@ -707,6 +704,9 @@
     <t>DIVERSIDAD CULTURAL,
 TRADICIONAL, ORGANIZACION
 SOCIAL Y COMUNITARIA</t>
+  </si>
+  <si>
+    <t>FINANCIAMIENTO COMPLEMENTARIO</t>
   </si>
 </sst>
 </file>
@@ -1777,6 +1777,54 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1790,52 +1838,164 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1853,27 +2013,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1885,265 +2024,126 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2165,43 +2165,43 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2234,22 +2234,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>52918</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1665393</xdr:colOff>
+      <xdr:colOff>1714500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>341045</xdr:rowOff>
+      <xdr:rowOff>352336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348D8991-04DC-491D-99C5-33F90C24253A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF49D78-65A8-4716-8CEA-1CC2D2EBCAC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,15 +2258,71 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="56728"/>
-          <a:ext cx="1665393" cy="288127"/>
+          <a:off x="9525" y="9525"/>
+          <a:ext cx="1704975" cy="342811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20DFFC2-CB42-4341-80A0-B66CB8ACBD6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="390525"/>
+          <a:ext cx="1714500" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2283,22 +2339,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
+      <xdr:colOff>83344</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>166685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>372469</xdr:colOff>
+      <xdr:colOff>370834</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1004744</xdr:rowOff>
+      <xdr:rowOff>1000123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC70C229-9664-47CA-BC5A-E8602A9F0891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A055021-3C57-46E8-986F-D8B30FDE64C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,15 +2363,71 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="690563" y="166688"/>
-          <a:ext cx="4158656" cy="838056"/>
+          <a:off x="702469" y="166685"/>
+          <a:ext cx="4145115" cy="833438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13823</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>547687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1960E95-8AC0-490B-9A24-C597D29EE489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047749" y="1131094"/>
+          <a:ext cx="3442824" cy="916781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2329,54 +2441,102 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>197970</xdr:colOff>
+      <xdr:colOff>265567</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>672193</xdr:rowOff>
+      <xdr:rowOff>762000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 7">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509358F0-BDD1-424F-AA5B-CC5ABAAC1727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BD8033-2D84-496D-B6BF-F4BF2F60776A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="19050"/>
-          <a:ext cx="3665070" cy="653143"/>
+          <a:off x="114300" y="0"/>
+          <a:ext cx="3789817" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233823</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C045D2CF-F9E2-4FB6-B5C1-EE71F989B4B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="800100"/>
+          <a:ext cx="2986548" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2389,22 +2549,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171872</xdr:rowOff>
+      <xdr:rowOff>161836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BB7DEA-F22F-4EAF-8119-3AB225F961D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F4CFFF-8BCF-4DFF-9B41-306BD137370C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,15 +2573,71 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="76200"/>
-          <a:ext cx="1628775" cy="286172"/>
+          <a:off x="1457325" y="9525"/>
+          <a:ext cx="2009775" cy="342811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6CF3D9-65FC-499B-836C-93E656C0B654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="390526"/>
+          <a:ext cx="1457325" cy="371474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F370A7F-7DAB-4285-A267-A6BAD20EE836}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,45 +2929,43 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="75" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="84"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="86"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="A4" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67"/>
@@ -2762,24 +2976,24 @@
     </row>
     <row r="6" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="C6" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="D6" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="E6" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="70" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>124</v>
       </c>
       <c r="B7" s="182"/>
       <c r="C7" s="182"/>
@@ -2787,43 +3001,43 @@
       <c r="E7" s="183"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="184"/>
       <c r="C8" s="184"/>
       <c r="D8" s="184"/>
       <c r="E8" s="185"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="184"/>
       <c r="C9" s="184"/>
       <c r="D9" s="184"/>
       <c r="E9" s="186"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="184"/>
       <c r="C10" s="184"/>
       <c r="D10" s="184"/>
       <c r="E10" s="187"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="184"/>
       <c r="C11" s="184"/>
       <c r="D11" s="184"/>
       <c r="E11" s="185"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="188"/>
       <c r="C12" s="188"/>
       <c r="D12" s="188"/>
       <c r="E12" s="189"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>125</v>
+      <c r="A13" s="84" t="s">
+        <v>124</v>
       </c>
       <c r="B13" s="190"/>
       <c r="C13" s="190"/>
@@ -2831,43 +3045,43 @@
       <c r="E13" s="185"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="184"/>
       <c r="C14" s="184"/>
       <c r="D14" s="184"/>
       <c r="E14" s="185"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="184"/>
       <c r="C15" s="184"/>
       <c r="D15" s="184"/>
       <c r="E15" s="186"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="184"/>
       <c r="C16" s="184"/>
       <c r="D16" s="184"/>
       <c r="E16" s="187"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="184"/>
       <c r="C17" s="184"/>
       <c r="D17" s="184"/>
       <c r="E17" s="185"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="191"/>
       <c r="C18" s="191"/>
       <c r="D18" s="191"/>
       <c r="E18" s="185"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>126</v>
+      <c r="A19" s="83" t="s">
+        <v>125</v>
       </c>
       <c r="B19" s="182"/>
       <c r="C19" s="182"/>
@@ -2875,48 +3089,89 @@
       <c r="E19" s="183"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="184"/>
       <c r="C20" s="184"/>
       <c r="D20" s="184"/>
       <c r="E20" s="185"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="184"/>
       <c r="C21" s="184"/>
       <c r="D21" s="184"/>
       <c r="E21" s="186"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="184"/>
       <c r="C22" s="184"/>
       <c r="D22" s="184"/>
       <c r="E22" s="187"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="184"/>
       <c r="C23" s="184"/>
       <c r="D23" s="184"/>
       <c r="E23" s="185"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="188"/>
       <c r="C24" s="188"/>
       <c r="D24" s="188"/>
       <c r="E24" s="189"/>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="183"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="185"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="84"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="186"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="84"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="187"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="84"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="185"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="85"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="189"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="19">
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E24"/>
@@ -2927,6 +3182,12 @@
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2952,1419 +3213,1417 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:47" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="137" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="138" t="s">
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="94"/>
+      <c r="AU1" s="94"/>
     </row>
     <row r="2" spans="3:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="133" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="138" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="94"/>
+      <c r="AU2" s="94"/>
     </row>
     <row r="3" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="144" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="145"/>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="146"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="102"/>
     </row>
     <row r="4" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="132"/>
-      <c r="AK4" s="132"/>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="132"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="132"/>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
     </row>
     <row r="5" spans="3:47" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="135"/>
-      <c r="AE5" s="135"/>
-      <c r="AF5" s="135"/>
-      <c r="AG5" s="135"/>
-      <c r="AH5" s="135"/>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="135"/>
-      <c r="AM5" s="135"/>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="135"/>
-      <c r="AR5" s="135"/>
-      <c r="AS5" s="135"/>
-      <c r="AT5" s="135"/>
-      <c r="AU5" s="136"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="91"/>
     </row>
     <row r="6" spans="3:47" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="127" t="s">
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="96" t="s">
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="131"/>
-      <c r="AL6" s="131"/>
-      <c r="AM6" s="131"/>
-      <c r="AN6" s="131"/>
-      <c r="AO6" s="131"/>
-      <c r="AP6" s="131"/>
-      <c r="AQ6" s="131"/>
-      <c r="AR6" s="131"/>
-      <c r="AS6" s="131"/>
-      <c r="AT6" s="131"/>
-      <c r="AU6" s="131"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="110"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113"/>
+      <c r="AU6" s="113"/>
     </row>
     <row r="7" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="98" t="s">
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="120"/>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="120"/>
-      <c r="AR7" s="120"/>
-      <c r="AS7" s="120"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="120"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="112"/>
+      <c r="AN7" s="112"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="112"/>
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="112"/>
     </row>
     <row r="8" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="92" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="92" t="s">
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="121"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-      <c r="AI8" s="122"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
-      <c r="AL8" s="122"/>
-      <c r="AM8" s="122"/>
-      <c r="AN8" s="122"/>
-      <c r="AO8" s="122"/>
-      <c r="AP8" s="122"/>
-      <c r="AQ8" s="122"/>
-      <c r="AR8" s="122"/>
-      <c r="AS8" s="122"/>
-      <c r="AT8" s="122"/>
-      <c r="AU8" s="123"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="107"/>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="107"/>
+      <c r="AK8" s="107"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="108"/>
     </row>
     <row r="9" spans="3:47" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="92" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="96" t="s">
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="107"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="121"/>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="122"/>
-      <c r="AP9" s="122"/>
-      <c r="AQ9" s="122"/>
-      <c r="AR9" s="122"/>
-      <c r="AS9" s="122"/>
-      <c r="AT9" s="122"/>
-      <c r="AU9" s="123"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="108"/>
     </row>
     <row r="10" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="98" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="120"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120"/>
-      <c r="AM10" s="120"/>
-      <c r="AN10" s="120"/>
-      <c r="AO10" s="120"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="120"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="120"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="112"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="112"/>
+      <c r="AM10" s="112"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="112"/>
+      <c r="AQ10" s="112"/>
+      <c r="AR10" s="112"/>
+      <c r="AS10" s="112"/>
+      <c r="AT10" s="112"/>
+      <c r="AU10" s="112"/>
     </row>
     <row r="11" spans="3:47" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="125"/>
-      <c r="AJ11" s="125"/>
-      <c r="AK11" s="125"/>
-      <c r="AL11" s="125"/>
-      <c r="AM11" s="125"/>
-      <c r="AN11" s="125"/>
-      <c r="AO11" s="125"/>
-      <c r="AP11" s="125"/>
-      <c r="AQ11" s="125"/>
-      <c r="AR11" s="125"/>
-      <c r="AS11" s="125"/>
-      <c r="AT11" s="125"/>
-      <c r="AU11" s="126"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="115"/>
+      <c r="AF11" s="115"/>
+      <c r="AG11" s="115"/>
+      <c r="AH11" s="115"/>
+      <c r="AI11" s="115"/>
+      <c r="AJ11" s="115"/>
+      <c r="AK11" s="115"/>
+      <c r="AL11" s="115"/>
+      <c r="AM11" s="115"/>
+      <c r="AN11" s="115"/>
+      <c r="AO11" s="115"/>
+      <c r="AP11" s="115"/>
+      <c r="AQ11" s="115"/>
+      <c r="AR11" s="115"/>
+      <c r="AS11" s="115"/>
+      <c r="AT11" s="115"/>
+      <c r="AU11" s="116"/>
     </row>
     <row r="12" spans="3:47" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="130"/>
-      <c r="AH12" s="130"/>
-      <c r="AI12" s="130"/>
-      <c r="AJ12" s="130"/>
-      <c r="AK12" s="130"/>
-      <c r="AL12" s="130"/>
-      <c r="AM12" s="130"/>
-      <c r="AN12" s="130"/>
-      <c r="AO12" s="130"/>
-      <c r="AP12" s="130"/>
-      <c r="AQ12" s="130"/>
-      <c r="AR12" s="130"/>
-      <c r="AS12" s="130"/>
-      <c r="AT12" s="130"/>
-      <c r="AU12" s="130"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="119"/>
+      <c r="AK12" s="119"/>
+      <c r="AL12" s="119"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="119"/>
+      <c r="AO12" s="119"/>
+      <c r="AP12" s="119"/>
+      <c r="AQ12" s="119"/>
+      <c r="AR12" s="119"/>
+      <c r="AS12" s="119"/>
+      <c r="AT12" s="119"/>
+      <c r="AU12" s="119"/>
     </row>
     <row r="13" spans="3:47" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="92" t="s">
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="92" t="s">
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="121"/>
-      <c r="AP13" s="122"/>
-      <c r="AQ13" s="122"/>
-      <c r="AR13" s="122"/>
-      <c r="AS13" s="122"/>
-      <c r="AT13" s="122"/>
-      <c r="AU13" s="123"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="108"/>
     </row>
     <row r="14" spans="3:47" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="94"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="104"/>
+      <c r="AU14" s="105"/>
     </row>
     <row r="15" spans="3:47" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="125"/>
-      <c r="X15" s="125"/>
-      <c r="Y15" s="125"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="125"/>
-      <c r="AB15" s="125"/>
-      <c r="AC15" s="125"/>
-      <c r="AD15" s="125"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="125"/>
-      <c r="AJ15" s="125"/>
-      <c r="AK15" s="125"/>
-      <c r="AL15" s="125"/>
-      <c r="AM15" s="125"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="125"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="126"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="115"/>
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="115"/>
+      <c r="AH15" s="115"/>
+      <c r="AI15" s="115"/>
+      <c r="AJ15" s="115"/>
+      <c r="AK15" s="115"/>
+      <c r="AL15" s="115"/>
+      <c r="AM15" s="115"/>
+      <c r="AN15" s="115"/>
+      <c r="AO15" s="115"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="115"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="116"/>
     </row>
     <row r="16" spans="3:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="94"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="104"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="104"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="104"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="104"/>
+      <c r="AT16" s="104"/>
+      <c r="AU16" s="105"/>
     </row>
     <row r="17" spans="3:47" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="124"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="125"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="125"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="125"/>
-      <c r="AK17" s="125"/>
-      <c r="AL17" s="125"/>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="125"/>
-      <c r="AO17" s="125"/>
-      <c r="AP17" s="125"/>
-      <c r="AQ17" s="125"/>
-      <c r="AR17" s="125"/>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="126"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="115"/>
+      <c r="AB17" s="115"/>
+      <c r="AC17" s="115"/>
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="115"/>
+      <c r="AF17" s="115"/>
+      <c r="AG17" s="115"/>
+      <c r="AH17" s="115"/>
+      <c r="AI17" s="115"/>
+      <c r="AJ17" s="115"/>
+      <c r="AK17" s="115"/>
+      <c r="AL17" s="115"/>
+      <c r="AM17" s="115"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="115"/>
+      <c r="AP17" s="115"/>
+      <c r="AQ17" s="115"/>
+      <c r="AR17" s="115"/>
+      <c r="AS17" s="115"/>
+      <c r="AT17" s="115"/>
+      <c r="AU17" s="116"/>
     </row>
     <row r="18" spans="3:47" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="93"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="93"/>
-      <c r="AQ18" s="93"/>
-      <c r="AR18" s="93"/>
-      <c r="AS18" s="93"/>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="94"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="105"/>
     </row>
     <row r="19" spans="3:47" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="120"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="120"/>
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="120"/>
+      <c r="AO19" s="120"/>
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="120"/>
+      <c r="AR19" s="120"/>
+      <c r="AS19" s="120"/>
+      <c r="AT19" s="120"/>
+      <c r="AU19" s="120"/>
     </row>
     <row r="20" spans="3:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="94"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="104"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="104"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="104"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="104"/>
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="105"/>
     </row>
     <row r="21" spans="3:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="120"/>
+      <c r="AO21" s="120"/>
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="120"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="120"/>
+      <c r="AU21" s="120"/>
     </row>
     <row r="22" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="93"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="93"/>
-      <c r="AK22" s="93"/>
-      <c r="AL22" s="93"/>
-      <c r="AM22" s="93"/>
-      <c r="AN22" s="93"/>
-      <c r="AO22" s="93"/>
-      <c r="AP22" s="93"/>
-      <c r="AQ22" s="93"/>
-      <c r="AR22" s="93"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="94"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="104"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="104"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="104"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="105"/>
     </row>
     <row r="23" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="122"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="122"/>
-      <c r="AD23" s="122"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="122"/>
-      <c r="AK23" s="122"/>
-      <c r="AL23" s="122"/>
-      <c r="AM23" s="122"/>
-      <c r="AN23" s="122"/>
-      <c r="AO23" s="122"/>
-      <c r="AP23" s="122"/>
-      <c r="AQ23" s="122"/>
-      <c r="AR23" s="122"/>
-      <c r="AS23" s="122"/>
-      <c r="AT23" s="122"/>
-      <c r="AU23" s="123"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="107"/>
+      <c r="AI23" s="107"/>
+      <c r="AJ23" s="107"/>
+      <c r="AK23" s="107"/>
+      <c r="AL23" s="107"/>
+      <c r="AM23" s="107"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="107"/>
+      <c r="AP23" s="107"/>
+      <c r="AQ23" s="107"/>
+      <c r="AR23" s="107"/>
+      <c r="AS23" s="107"/>
+      <c r="AT23" s="107"/>
+      <c r="AU23" s="108"/>
     </row>
     <row r="24" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="122"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="122"/>
-      <c r="AD24" s="122"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="122"/>
-      <c r="AI24" s="122"/>
-      <c r="AJ24" s="122"/>
-      <c r="AK24" s="122"/>
-      <c r="AL24" s="122"/>
-      <c r="AM24" s="122"/>
-      <c r="AN24" s="122"/>
-      <c r="AO24" s="122"/>
-      <c r="AP24" s="122"/>
-      <c r="AQ24" s="122"/>
-      <c r="AR24" s="122"/>
-      <c r="AS24" s="122"/>
-      <c r="AT24" s="122"/>
-      <c r="AU24" s="123"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="107"/>
+      <c r="AJ24" s="107"/>
+      <c r="AK24" s="107"/>
+      <c r="AL24" s="107"/>
+      <c r="AM24" s="107"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="107"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="107"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="107"/>
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="108"/>
     </row>
     <row r="25" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="122"/>
-      <c r="AJ25" s="122"/>
-      <c r="AK25" s="122"/>
-      <c r="AL25" s="122"/>
-      <c r="AM25" s="122"/>
-      <c r="AN25" s="122"/>
-      <c r="AO25" s="122"/>
-      <c r="AP25" s="122"/>
-      <c r="AQ25" s="122"/>
-      <c r="AR25" s="122"/>
-      <c r="AS25" s="122"/>
-      <c r="AT25" s="122"/>
-      <c r="AU25" s="123"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="107"/>
+      <c r="AJ25" s="107"/>
+      <c r="AK25" s="107"/>
+      <c r="AL25" s="107"/>
+      <c r="AM25" s="107"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="107"/>
+      <c r="AP25" s="107"/>
+      <c r="AQ25" s="107"/>
+      <c r="AR25" s="107"/>
+      <c r="AS25" s="107"/>
+      <c r="AT25" s="107"/>
+      <c r="AU25" s="108"/>
     </row>
     <row r="26" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="97" t="s">
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="97"/>
-      <c r="AI26" s="97"/>
-      <c r="AJ26" s="97"/>
-      <c r="AK26" s="97"/>
-      <c r="AL26" s="97"/>
-      <c r="AM26" s="97"/>
-      <c r="AN26" s="97"/>
-      <c r="AO26" s="97"/>
-      <c r="AP26" s="97"/>
-      <c r="AQ26" s="97"/>
-      <c r="AR26" s="97"/>
-      <c r="AS26" s="97"/>
-      <c r="AT26" s="97"/>
-      <c r="AU26" s="98"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="110"/>
+      <c r="AJ26" s="110"/>
+      <c r="AK26" s="110"/>
+      <c r="AL26" s="110"/>
+      <c r="AM26" s="110"/>
+      <c r="AN26" s="110"/>
+      <c r="AO26" s="110"/>
+      <c r="AP26" s="110"/>
+      <c r="AQ26" s="110"/>
+      <c r="AR26" s="110"/>
+      <c r="AS26" s="110"/>
+      <c r="AT26" s="110"/>
+      <c r="AU26" s="111"/>
     </row>
     <row r="27" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="93"/>
-      <c r="AK27" s="93"/>
-      <c r="AL27" s="93"/>
-      <c r="AM27" s="93"/>
-      <c r="AN27" s="93"/>
-      <c r="AO27" s="93"/>
-      <c r="AP27" s="93"/>
-      <c r="AQ27" s="93"/>
-      <c r="AR27" s="93"/>
-      <c r="AS27" s="93"/>
-      <c r="AT27" s="93"/>
-      <c r="AU27" s="94"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="104"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="104"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="104"/>
+      <c r="AL27" s="104"/>
+      <c r="AM27" s="104"/>
+      <c r="AN27" s="104"/>
+      <c r="AO27" s="104"/>
+      <c r="AP27" s="104"/>
+      <c r="AQ27" s="104"/>
+      <c r="AR27" s="104"/>
+      <c r="AS27" s="104"/>
+      <c r="AT27" s="104"/>
+      <c r="AU27" s="105"/>
     </row>
     <row r="28" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="120" t="s">
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="111" t="s">
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="111" t="s">
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="123"/>
+      <c r="AF28" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="113"/>
-      <c r="AI28" s="111" t="s">
+      <c r="AG28" s="122"/>
+      <c r="AH28" s="123"/>
+      <c r="AI28" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="AJ28" s="112"/>
-      <c r="AK28" s="113"/>
-      <c r="AL28" s="111" t="s">
+      <c r="AJ28" s="122"/>
+      <c r="AK28" s="123"/>
+      <c r="AL28" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="AM28" s="112"/>
-      <c r="AN28" s="112"/>
-      <c r="AO28" s="112"/>
-      <c r="AP28" s="113"/>
-      <c r="AQ28" s="111" t="s">
+      <c r="AM28" s="122"/>
+      <c r="AN28" s="122"/>
+      <c r="AO28" s="122"/>
+      <c r="AP28" s="123"/>
+      <c r="AQ28" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="AR28" s="112"/>
-      <c r="AS28" s="112"/>
-      <c r="AT28" s="112"/>
-      <c r="AU28" s="113"/>
+      <c r="AR28" s="122"/>
+      <c r="AS28" s="122"/>
+      <c r="AT28" s="122"/>
+      <c r="AU28" s="123"/>
     </row>
     <row r="29" spans="3:47" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="114"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="116"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="1">
         <v>1</v>
       </c>
@@ -4401,41 +4660,41 @@
       <c r="Y29" s="1">
         <v>12</v>
       </c>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="115"/>
-      <c r="AB29" s="115"/>
-      <c r="AC29" s="115"/>
-      <c r="AD29" s="115"/>
-      <c r="AE29" s="116"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="115"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="115"/>
-      <c r="AK29" s="116"/>
-      <c r="AL29" s="114"/>
-      <c r="AM29" s="115"/>
-      <c r="AN29" s="115"/>
-      <c r="AO29" s="115"/>
-      <c r="AP29" s="116"/>
-      <c r="AQ29" s="114"/>
-      <c r="AR29" s="115"/>
-      <c r="AS29" s="115"/>
-      <c r="AT29" s="115"/>
-      <c r="AU29" s="116"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="125"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="125"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="124"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="124"/>
+      <c r="AJ29" s="125"/>
+      <c r="AK29" s="126"/>
+      <c r="AL29" s="124"/>
+      <c r="AM29" s="125"/>
+      <c r="AN29" s="125"/>
+      <c r="AO29" s="125"/>
+      <c r="AP29" s="126"/>
+      <c r="AQ29" s="124"/>
+      <c r="AR29" s="125"/>
+      <c r="AS29" s="125"/>
+      <c r="AT29" s="125"/>
+      <c r="AU29" s="126"/>
     </row>
     <row r="30" spans="3:47" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="119"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="129"/>
       <c r="N30" s="1" t="s">
         <v>37</v>
       </c>
@@ -4472,43 +4731,43 @@
       <c r="Y30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="118"/>
-      <c r="AE30" s="119"/>
-      <c r="AF30" s="117"/>
-      <c r="AG30" s="118"/>
-      <c r="AH30" s="119"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="118"/>
-      <c r="AK30" s="119"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="118"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="118"/>
-      <c r="AP30" s="119"/>
-      <c r="AQ30" s="117"/>
-      <c r="AR30" s="118"/>
-      <c r="AS30" s="118"/>
-      <c r="AT30" s="118"/>
-      <c r="AU30" s="119"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="129"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="127"/>
+      <c r="AJ30" s="128"/>
+      <c r="AK30" s="129"/>
+      <c r="AL30" s="127"/>
+      <c r="AM30" s="128"/>
+      <c r="AN30" s="128"/>
+      <c r="AO30" s="128"/>
+      <c r="AP30" s="129"/>
+      <c r="AQ30" s="127"/>
+      <c r="AR30" s="128"/>
+      <c r="AS30" s="128"/>
+      <c r="AT30" s="128"/>
+      <c r="AU30" s="129"/>
     </row>
     <row r="31" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
@@ -4521,43 +4780,43 @@
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
       <c r="Y31" s="24"/>
-      <c r="Z31" s="108"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="109"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="108"/>
-      <c r="AJ31" s="109"/>
-      <c r="AK31" s="110"/>
-      <c r="AL31" s="108"/>
-      <c r="AM31" s="109"/>
-      <c r="AN31" s="109"/>
-      <c r="AO31" s="109"/>
-      <c r="AP31" s="110"/>
-      <c r="AQ31" s="108"/>
-      <c r="AR31" s="109"/>
-      <c r="AS31" s="109"/>
-      <c r="AT31" s="109"/>
-      <c r="AU31" s="110"/>
+      <c r="Z31" s="133"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="134"/>
+      <c r="AC31" s="134"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="135"/>
+      <c r="AF31" s="133"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="133"/>
+      <c r="AJ31" s="134"/>
+      <c r="AK31" s="135"/>
+      <c r="AL31" s="133"/>
+      <c r="AM31" s="134"/>
+      <c r="AN31" s="134"/>
+      <c r="AO31" s="134"/>
+      <c r="AP31" s="135"/>
+      <c r="AQ31" s="133"/>
+      <c r="AR31" s="134"/>
+      <c r="AS31" s="134"/>
+      <c r="AT31" s="134"/>
+      <c r="AU31" s="135"/>
     </row>
     <row r="32" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
@@ -4570,43 +4829,43 @@
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
       <c r="Y32" s="24"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="109"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="108"/>
-      <c r="AJ32" s="109"/>
-      <c r="AK32" s="110"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="109"/>
-      <c r="AN32" s="109"/>
-      <c r="AO32" s="109"/>
-      <c r="AP32" s="110"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="109"/>
-      <c r="AS32" s="109"/>
-      <c r="AT32" s="109"/>
-      <c r="AU32" s="110"/>
+      <c r="Z32" s="133"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="135"/>
+      <c r="AF32" s="133"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="135"/>
+      <c r="AI32" s="133"/>
+      <c r="AJ32" s="134"/>
+      <c r="AK32" s="135"/>
+      <c r="AL32" s="133"/>
+      <c r="AM32" s="134"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="134"/>
+      <c r="AP32" s="135"/>
+      <c r="AQ32" s="133"/>
+      <c r="AR32" s="134"/>
+      <c r="AS32" s="134"/>
+      <c r="AT32" s="134"/>
+      <c r="AU32" s="135"/>
     </row>
     <row r="33" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
       <c r="N33" s="24"/>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -4619,43 +4878,43 @@
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
       <c r="Y33" s="24"/>
-      <c r="Z33" s="108"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="108"/>
-      <c r="AJ33" s="109"/>
-      <c r="AK33" s="110"/>
-      <c r="AL33" s="108"/>
-      <c r="AM33" s="109"/>
-      <c r="AN33" s="109"/>
-      <c r="AO33" s="109"/>
-      <c r="AP33" s="110"/>
-      <c r="AQ33" s="108"/>
-      <c r="AR33" s="109"/>
-      <c r="AS33" s="109"/>
-      <c r="AT33" s="109"/>
-      <c r="AU33" s="110"/>
+      <c r="Z33" s="133"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="134"/>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="135"/>
+      <c r="AF33" s="133"/>
+      <c r="AG33" s="134"/>
+      <c r="AH33" s="135"/>
+      <c r="AI33" s="133"/>
+      <c r="AJ33" s="134"/>
+      <c r="AK33" s="135"/>
+      <c r="AL33" s="133"/>
+      <c r="AM33" s="134"/>
+      <c r="AN33" s="134"/>
+      <c r="AO33" s="134"/>
+      <c r="AP33" s="135"/>
+      <c r="AQ33" s="133"/>
+      <c r="AR33" s="134"/>
+      <c r="AS33" s="134"/>
+      <c r="AT33" s="134"/>
+      <c r="AU33" s="135"/>
     </row>
     <row r="34" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <v>4</v>
       </c>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -4668,43 +4927,43 @@
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>
       <c r="Y34" s="24"/>
-      <c r="Z34" s="108"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="108"/>
-      <c r="AG34" s="109"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="108"/>
-      <c r="AJ34" s="109"/>
-      <c r="AK34" s="110"/>
-      <c r="AL34" s="108"/>
-      <c r="AM34" s="109"/>
-      <c r="AN34" s="109"/>
-      <c r="AO34" s="109"/>
-      <c r="AP34" s="110"/>
-      <c r="AQ34" s="108"/>
-      <c r="AR34" s="109"/>
-      <c r="AS34" s="109"/>
-      <c r="AT34" s="109"/>
-      <c r="AU34" s="110"/>
+      <c r="Z34" s="133"/>
+      <c r="AA34" s="134"/>
+      <c r="AB34" s="134"/>
+      <c r="AC34" s="134"/>
+      <c r="AD34" s="134"/>
+      <c r="AE34" s="135"/>
+      <c r="AF34" s="133"/>
+      <c r="AG34" s="134"/>
+      <c r="AH34" s="135"/>
+      <c r="AI34" s="133"/>
+      <c r="AJ34" s="134"/>
+      <c r="AK34" s="135"/>
+      <c r="AL34" s="133"/>
+      <c r="AM34" s="134"/>
+      <c r="AN34" s="134"/>
+      <c r="AO34" s="134"/>
+      <c r="AP34" s="135"/>
+      <c r="AQ34" s="133"/>
+      <c r="AR34" s="134"/>
+      <c r="AS34" s="134"/>
+      <c r="AT34" s="134"/>
+      <c r="AU34" s="135"/>
     </row>
     <row r="35" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -4717,43 +4976,43 @@
       <c r="W35" s="24"/>
       <c r="X35" s="24"/>
       <c r="Y35" s="24"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="109"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="109"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="108"/>
-      <c r="AG35" s="109"/>
-      <c r="AH35" s="110"/>
-      <c r="AI35" s="108"/>
-      <c r="AJ35" s="109"/>
-      <c r="AK35" s="110"/>
-      <c r="AL35" s="108"/>
-      <c r="AM35" s="109"/>
-      <c r="AN35" s="109"/>
-      <c r="AO35" s="109"/>
-      <c r="AP35" s="110"/>
-      <c r="AQ35" s="108"/>
-      <c r="AR35" s="109"/>
-      <c r="AS35" s="109"/>
-      <c r="AT35" s="109"/>
-      <c r="AU35" s="110"/>
+      <c r="Z35" s="133"/>
+      <c r="AA35" s="134"/>
+      <c r="AB35" s="134"/>
+      <c r="AC35" s="134"/>
+      <c r="AD35" s="134"/>
+      <c r="AE35" s="135"/>
+      <c r="AF35" s="133"/>
+      <c r="AG35" s="134"/>
+      <c r="AH35" s="135"/>
+      <c r="AI35" s="133"/>
+      <c r="AJ35" s="134"/>
+      <c r="AK35" s="135"/>
+      <c r="AL35" s="133"/>
+      <c r="AM35" s="134"/>
+      <c r="AN35" s="134"/>
+      <c r="AO35" s="134"/>
+      <c r="AP35" s="135"/>
+      <c r="AQ35" s="133"/>
+      <c r="AR35" s="134"/>
+      <c r="AS35" s="134"/>
+      <c r="AT35" s="134"/>
+      <c r="AU35" s="135"/>
     </row>
     <row r="36" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <v>6</v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
@@ -4766,43 +5025,43 @@
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
       <c r="Y36" s="24"/>
-      <c r="Z36" s="108"/>
-      <c r="AA36" s="109"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="109"/>
-      <c r="AD36" s="109"/>
-      <c r="AE36" s="110"/>
-      <c r="AF36" s="108"/>
-      <c r="AG36" s="109"/>
-      <c r="AH36" s="110"/>
-      <c r="AI36" s="108"/>
-      <c r="AJ36" s="109"/>
-      <c r="AK36" s="110"/>
-      <c r="AL36" s="108"/>
-      <c r="AM36" s="109"/>
-      <c r="AN36" s="109"/>
-      <c r="AO36" s="109"/>
-      <c r="AP36" s="110"/>
-      <c r="AQ36" s="108"/>
-      <c r="AR36" s="109"/>
-      <c r="AS36" s="109"/>
-      <c r="AT36" s="109"/>
-      <c r="AU36" s="110"/>
+      <c r="Z36" s="133"/>
+      <c r="AA36" s="134"/>
+      <c r="AB36" s="134"/>
+      <c r="AC36" s="134"/>
+      <c r="AD36" s="134"/>
+      <c r="AE36" s="135"/>
+      <c r="AF36" s="133"/>
+      <c r="AG36" s="134"/>
+      <c r="AH36" s="135"/>
+      <c r="AI36" s="133"/>
+      <c r="AJ36" s="134"/>
+      <c r="AK36" s="135"/>
+      <c r="AL36" s="133"/>
+      <c r="AM36" s="134"/>
+      <c r="AN36" s="134"/>
+      <c r="AO36" s="134"/>
+      <c r="AP36" s="135"/>
+      <c r="AQ36" s="133"/>
+      <c r="AR36" s="134"/>
+      <c r="AS36" s="134"/>
+      <c r="AT36" s="134"/>
+      <c r="AU36" s="135"/>
     </row>
     <row r="37" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <v>7</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
@@ -4815,43 +5074,43 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
       <c r="Y37" s="24"/>
-      <c r="Z37" s="108"/>
-      <c r="AA37" s="109"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="109"/>
-      <c r="AD37" s="109"/>
-      <c r="AE37" s="110"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="109"/>
-      <c r="AH37" s="110"/>
-      <c r="AI37" s="108"/>
-      <c r="AJ37" s="109"/>
-      <c r="AK37" s="110"/>
-      <c r="AL37" s="108"/>
-      <c r="AM37" s="109"/>
-      <c r="AN37" s="109"/>
-      <c r="AO37" s="109"/>
-      <c r="AP37" s="110"/>
-      <c r="AQ37" s="108"/>
-      <c r="AR37" s="109"/>
-      <c r="AS37" s="109"/>
-      <c r="AT37" s="109"/>
-      <c r="AU37" s="110"/>
+      <c r="Z37" s="133"/>
+      <c r="AA37" s="134"/>
+      <c r="AB37" s="134"/>
+      <c r="AC37" s="134"/>
+      <c r="AD37" s="134"/>
+      <c r="AE37" s="135"/>
+      <c r="AF37" s="133"/>
+      <c r="AG37" s="134"/>
+      <c r="AH37" s="135"/>
+      <c r="AI37" s="133"/>
+      <c r="AJ37" s="134"/>
+      <c r="AK37" s="135"/>
+      <c r="AL37" s="133"/>
+      <c r="AM37" s="134"/>
+      <c r="AN37" s="134"/>
+      <c r="AO37" s="134"/>
+      <c r="AP37" s="135"/>
+      <c r="AQ37" s="133"/>
+      <c r="AR37" s="134"/>
+      <c r="AS37" s="134"/>
+      <c r="AT37" s="134"/>
+      <c r="AU37" s="135"/>
     </row>
     <row r="38" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <v>8</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
@@ -4864,43 +5123,43 @@
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
       <c r="Y38" s="24"/>
-      <c r="Z38" s="108"/>
-      <c r="AA38" s="109"/>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="109"/>
-      <c r="AD38" s="109"/>
-      <c r="AE38" s="110"/>
-      <c r="AF38" s="108"/>
-      <c r="AG38" s="109"/>
-      <c r="AH38" s="110"/>
-      <c r="AI38" s="108"/>
-      <c r="AJ38" s="109"/>
-      <c r="AK38" s="110"/>
-      <c r="AL38" s="108"/>
-      <c r="AM38" s="109"/>
-      <c r="AN38" s="109"/>
-      <c r="AO38" s="109"/>
-      <c r="AP38" s="110"/>
-      <c r="AQ38" s="108"/>
-      <c r="AR38" s="109"/>
-      <c r="AS38" s="109"/>
-      <c r="AT38" s="109"/>
-      <c r="AU38" s="110"/>
+      <c r="Z38" s="133"/>
+      <c r="AA38" s="134"/>
+      <c r="AB38" s="134"/>
+      <c r="AC38" s="134"/>
+      <c r="AD38" s="134"/>
+      <c r="AE38" s="135"/>
+      <c r="AF38" s="133"/>
+      <c r="AG38" s="134"/>
+      <c r="AH38" s="135"/>
+      <c r="AI38" s="133"/>
+      <c r="AJ38" s="134"/>
+      <c r="AK38" s="135"/>
+      <c r="AL38" s="133"/>
+      <c r="AM38" s="134"/>
+      <c r="AN38" s="134"/>
+      <c r="AO38" s="134"/>
+      <c r="AP38" s="135"/>
+      <c r="AQ38" s="133"/>
+      <c r="AR38" s="134"/>
+      <c r="AS38" s="134"/>
+      <c r="AT38" s="134"/>
+      <c r="AU38" s="135"/>
     </row>
     <row r="39" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <v>9</v>
       </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
@@ -4913,43 +5172,43 @@
       <c r="W39" s="24"/>
       <c r="X39" s="24"/>
       <c r="Y39" s="24"/>
-      <c r="Z39" s="108"/>
-      <c r="AA39" s="109"/>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="109"/>
-      <c r="AD39" s="109"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="108"/>
-      <c r="AG39" s="109"/>
-      <c r="AH39" s="110"/>
-      <c r="AI39" s="108"/>
-      <c r="AJ39" s="109"/>
-      <c r="AK39" s="110"/>
-      <c r="AL39" s="108"/>
-      <c r="AM39" s="109"/>
-      <c r="AN39" s="109"/>
-      <c r="AO39" s="109"/>
-      <c r="AP39" s="110"/>
-      <c r="AQ39" s="108"/>
-      <c r="AR39" s="109"/>
-      <c r="AS39" s="109"/>
-      <c r="AT39" s="109"/>
-      <c r="AU39" s="110"/>
+      <c r="Z39" s="133"/>
+      <c r="AA39" s="134"/>
+      <c r="AB39" s="134"/>
+      <c r="AC39" s="134"/>
+      <c r="AD39" s="134"/>
+      <c r="AE39" s="135"/>
+      <c r="AF39" s="133"/>
+      <c r="AG39" s="134"/>
+      <c r="AH39" s="135"/>
+      <c r="AI39" s="133"/>
+      <c r="AJ39" s="134"/>
+      <c r="AK39" s="135"/>
+      <c r="AL39" s="133"/>
+      <c r="AM39" s="134"/>
+      <c r="AN39" s="134"/>
+      <c r="AO39" s="134"/>
+      <c r="AP39" s="135"/>
+      <c r="AQ39" s="133"/>
+      <c r="AR39" s="134"/>
+      <c r="AS39" s="134"/>
+      <c r="AT39" s="134"/>
+      <c r="AU39" s="135"/>
     </row>
     <row r="40" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <v>10</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
@@ -4962,906 +5221,906 @@
       <c r="W40" s="24"/>
       <c r="X40" s="24"/>
       <c r="Y40" s="24"/>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="109"/>
-      <c r="AB40" s="109"/>
-      <c r="AC40" s="109"/>
-      <c r="AD40" s="109"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="108"/>
-      <c r="AG40" s="109"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="108"/>
-      <c r="AJ40" s="109"/>
-      <c r="AK40" s="110"/>
-      <c r="AL40" s="108"/>
-      <c r="AM40" s="109"/>
-      <c r="AN40" s="109"/>
-      <c r="AO40" s="109"/>
-      <c r="AP40" s="110"/>
-      <c r="AQ40" s="108"/>
-      <c r="AR40" s="109"/>
-      <c r="AS40" s="109"/>
-      <c r="AT40" s="109"/>
-      <c r="AU40" s="110"/>
+      <c r="Z40" s="133"/>
+      <c r="AA40" s="134"/>
+      <c r="AB40" s="134"/>
+      <c r="AC40" s="134"/>
+      <c r="AD40" s="134"/>
+      <c r="AE40" s="135"/>
+      <c r="AF40" s="133"/>
+      <c r="AG40" s="134"/>
+      <c r="AH40" s="135"/>
+      <c r="AI40" s="133"/>
+      <c r="AJ40" s="134"/>
+      <c r="AK40" s="135"/>
+      <c r="AL40" s="133"/>
+      <c r="AM40" s="134"/>
+      <c r="AN40" s="134"/>
+      <c r="AO40" s="134"/>
+      <c r="AP40" s="135"/>
+      <c r="AQ40" s="133"/>
+      <c r="AR40" s="134"/>
+      <c r="AS40" s="134"/>
+      <c r="AT40" s="134"/>
+      <c r="AU40" s="135"/>
     </row>
     <row r="41" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="97" t="s">
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="97"/>
-      <c r="T41" s="97"/>
-      <c r="U41" s="97"/>
-      <c r="V41" s="97"/>
-      <c r="W41" s="97"/>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="97"/>
-      <c r="Z41" s="97"/>
-      <c r="AA41" s="97"/>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
-      <c r="AF41" s="97"/>
-      <c r="AG41" s="97"/>
-      <c r="AH41" s="97"/>
-      <c r="AI41" s="97"/>
-      <c r="AJ41" s="97"/>
-      <c r="AK41" s="97"/>
-      <c r="AL41" s="97"/>
-      <c r="AM41" s="97"/>
-      <c r="AN41" s="97"/>
-      <c r="AO41" s="97"/>
-      <c r="AP41" s="97"/>
-      <c r="AQ41" s="97"/>
-      <c r="AR41" s="97"/>
-      <c r="AS41" s="97"/>
-      <c r="AT41" s="97"/>
-      <c r="AU41" s="98"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="110"/>
+      <c r="T41" s="110"/>
+      <c r="U41" s="110"/>
+      <c r="V41" s="110"/>
+      <c r="W41" s="110"/>
+      <c r="X41" s="110"/>
+      <c r="Y41" s="110"/>
+      <c r="Z41" s="110"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="110"/>
+      <c r="AD41" s="110"/>
+      <c r="AE41" s="110"/>
+      <c r="AF41" s="110"/>
+      <c r="AG41" s="110"/>
+      <c r="AH41" s="110"/>
+      <c r="AI41" s="110"/>
+      <c r="AJ41" s="110"/>
+      <c r="AK41" s="110"/>
+      <c r="AL41" s="110"/>
+      <c r="AM41" s="110"/>
+      <c r="AN41" s="110"/>
+      <c r="AO41" s="110"/>
+      <c r="AP41" s="110"/>
+      <c r="AQ41" s="110"/>
+      <c r="AR41" s="110"/>
+      <c r="AS41" s="110"/>
+      <c r="AT41" s="110"/>
+      <c r="AU41" s="111"/>
     </row>
     <row r="42" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="93"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="93"/>
-      <c r="AF42" s="93"/>
-      <c r="AG42" s="93"/>
-      <c r="AH42" s="93"/>
-      <c r="AI42" s="93"/>
-      <c r="AJ42" s="93"/>
-      <c r="AK42" s="93"/>
-      <c r="AL42" s="93"/>
-      <c r="AM42" s="93"/>
-      <c r="AN42" s="93"/>
-      <c r="AO42" s="93"/>
-      <c r="AP42" s="93"/>
-      <c r="AQ42" s="93"/>
-      <c r="AR42" s="93"/>
-      <c r="AS42" s="93"/>
-      <c r="AT42" s="93"/>
-      <c r="AU42" s="94"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="104"/>
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="104"/>
+      <c r="AI42" s="104"/>
+      <c r="AJ42" s="104"/>
+      <c r="AK42" s="104"/>
+      <c r="AL42" s="104"/>
+      <c r="AM42" s="104"/>
+      <c r="AN42" s="104"/>
+      <c r="AO42" s="104"/>
+      <c r="AP42" s="104"/>
+      <c r="AQ42" s="104"/>
+      <c r="AR42" s="104"/>
+      <c r="AS42" s="104"/>
+      <c r="AT42" s="104"/>
+      <c r="AU42" s="105"/>
     </row>
     <row r="43" spans="3:47" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="95"/>
-      <c r="AO43" s="95"/>
-      <c r="AP43" s="95"/>
-      <c r="AQ43" s="95"/>
-      <c r="AR43" s="95"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="95"/>
-      <c r="AU43" s="95"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
+      <c r="U43" s="120"/>
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="120"/>
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="120"/>
+      <c r="AA43" s="120"/>
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="120"/>
+      <c r="AD43" s="120"/>
+      <c r="AE43" s="120"/>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="120"/>
+      <c r="AH43" s="120"/>
+      <c r="AI43" s="120"/>
+      <c r="AJ43" s="120"/>
+      <c r="AK43" s="120"/>
+      <c r="AL43" s="120"/>
+      <c r="AM43" s="120"/>
+      <c r="AN43" s="120"/>
+      <c r="AO43" s="120"/>
+      <c r="AP43" s="120"/>
+      <c r="AQ43" s="120"/>
+      <c r="AR43" s="120"/>
+      <c r="AS43" s="120"/>
+      <c r="AT43" s="120"/>
+      <c r="AU43" s="120"/>
     </row>
     <row r="44" spans="3:47" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="93"/>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="93"/>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="93"/>
-      <c r="AC44" s="93"/>
-      <c r="AD44" s="93"/>
-      <c r="AE44" s="93"/>
-      <c r="AF44" s="93"/>
-      <c r="AG44" s="93"/>
-      <c r="AH44" s="93"/>
-      <c r="AI44" s="93"/>
-      <c r="AJ44" s="93"/>
-      <c r="AK44" s="93"/>
-      <c r="AL44" s="93"/>
-      <c r="AM44" s="93"/>
-      <c r="AN44" s="93"/>
-      <c r="AO44" s="93"/>
-      <c r="AP44" s="93"/>
-      <c r="AQ44" s="93"/>
-      <c r="AR44" s="93"/>
-      <c r="AS44" s="93"/>
-      <c r="AT44" s="93"/>
-      <c r="AU44" s="94"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="104"/>
+      <c r="AG44" s="104"/>
+      <c r="AH44" s="104"/>
+      <c r="AI44" s="104"/>
+      <c r="AJ44" s="104"/>
+      <c r="AK44" s="104"/>
+      <c r="AL44" s="104"/>
+      <c r="AM44" s="104"/>
+      <c r="AN44" s="104"/>
+      <c r="AO44" s="104"/>
+      <c r="AP44" s="104"/>
+      <c r="AQ44" s="104"/>
+      <c r="AR44" s="104"/>
+      <c r="AS44" s="104"/>
+      <c r="AT44" s="104"/>
+      <c r="AU44" s="105"/>
     </row>
     <row r="45" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="95"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="95"/>
-      <c r="AO45" s="95"/>
-      <c r="AP45" s="95"/>
-      <c r="AQ45" s="95"/>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
+      <c r="U45" s="120"/>
+      <c r="V45" s="120"/>
+      <c r="W45" s="120"/>
+      <c r="X45" s="120"/>
+      <c r="Y45" s="120"/>
+      <c r="Z45" s="120"/>
+      <c r="AA45" s="120"/>
+      <c r="AB45" s="120"/>
+      <c r="AC45" s="120"/>
+      <c r="AD45" s="120"/>
+      <c r="AE45" s="120"/>
+      <c r="AF45" s="120"/>
+      <c r="AG45" s="120"/>
+      <c r="AH45" s="120"/>
+      <c r="AI45" s="120"/>
+      <c r="AJ45" s="120"/>
+      <c r="AK45" s="120"/>
+      <c r="AL45" s="120"/>
+      <c r="AM45" s="120"/>
+      <c r="AN45" s="120"/>
+      <c r="AO45" s="120"/>
+      <c r="AP45" s="120"/>
+      <c r="AQ45" s="120"/>
+      <c r="AR45" s="120"/>
+      <c r="AS45" s="120"/>
+      <c r="AT45" s="120"/>
+      <c r="AU45" s="120"/>
     </row>
     <row r="46" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="93"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="93"/>
-      <c r="AA46" s="93"/>
-      <c r="AB46" s="93"/>
-      <c r="AC46" s="93"/>
-      <c r="AD46" s="93"/>
-      <c r="AE46" s="93"/>
-      <c r="AF46" s="93"/>
-      <c r="AG46" s="93"/>
-      <c r="AH46" s="93"/>
-      <c r="AI46" s="93"/>
-      <c r="AJ46" s="93"/>
-      <c r="AK46" s="93"/>
-      <c r="AL46" s="93"/>
-      <c r="AM46" s="93"/>
-      <c r="AN46" s="93"/>
-      <c r="AO46" s="93"/>
-      <c r="AP46" s="93"/>
-      <c r="AQ46" s="93"/>
-      <c r="AR46" s="93"/>
-      <c r="AS46" s="93"/>
-      <c r="AT46" s="93"/>
-      <c r="AU46" s="94"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="104"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
+      <c r="AD46" s="104"/>
+      <c r="AE46" s="104"/>
+      <c r="AF46" s="104"/>
+      <c r="AG46" s="104"/>
+      <c r="AH46" s="104"/>
+      <c r="AI46" s="104"/>
+      <c r="AJ46" s="104"/>
+      <c r="AK46" s="104"/>
+      <c r="AL46" s="104"/>
+      <c r="AM46" s="104"/>
+      <c r="AN46" s="104"/>
+      <c r="AO46" s="104"/>
+      <c r="AP46" s="104"/>
+      <c r="AQ46" s="104"/>
+      <c r="AR46" s="104"/>
+      <c r="AS46" s="104"/>
+      <c r="AT46" s="104"/>
+      <c r="AU46" s="105"/>
     </row>
     <row r="47" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="95"/>
-      <c r="V47" s="95"/>
-      <c r="W47" s="95"/>
-      <c r="X47" s="95"/>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="95"/>
-      <c r="AA47" s="95"/>
-      <c r="AB47" s="95"/>
-      <c r="AC47" s="95"/>
-      <c r="AD47" s="95"/>
-      <c r="AE47" s="95"/>
-      <c r="AF47" s="95"/>
-      <c r="AG47" s="95"/>
-      <c r="AH47" s="95"/>
-      <c r="AI47" s="95"/>
-      <c r="AJ47" s="95"/>
-      <c r="AK47" s="95"/>
-      <c r="AL47" s="95"/>
-      <c r="AM47" s="95"/>
-      <c r="AN47" s="95"/>
-      <c r="AO47" s="95"/>
-      <c r="AP47" s="95"/>
-      <c r="AQ47" s="95"/>
-      <c r="AR47" s="95"/>
-      <c r="AS47" s="95"/>
-      <c r="AT47" s="95"/>
-      <c r="AU47" s="95"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="120"/>
+      <c r="T47" s="120"/>
+      <c r="U47" s="120"/>
+      <c r="V47" s="120"/>
+      <c r="W47" s="120"/>
+      <c r="X47" s="120"/>
+      <c r="Y47" s="120"/>
+      <c r="Z47" s="120"/>
+      <c r="AA47" s="120"/>
+      <c r="AB47" s="120"/>
+      <c r="AC47" s="120"/>
+      <c r="AD47" s="120"/>
+      <c r="AE47" s="120"/>
+      <c r="AF47" s="120"/>
+      <c r="AG47" s="120"/>
+      <c r="AH47" s="120"/>
+      <c r="AI47" s="120"/>
+      <c r="AJ47" s="120"/>
+      <c r="AK47" s="120"/>
+      <c r="AL47" s="120"/>
+      <c r="AM47" s="120"/>
+      <c r="AN47" s="120"/>
+      <c r="AO47" s="120"/>
+      <c r="AP47" s="120"/>
+      <c r="AQ47" s="120"/>
+      <c r="AR47" s="120"/>
+      <c r="AS47" s="120"/>
+      <c r="AT47" s="120"/>
+      <c r="AU47" s="120"/>
     </row>
     <row r="48" spans="3:47" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="93"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="93"/>
-      <c r="T48" s="93"/>
-      <c r="U48" s="93"/>
-      <c r="V48" s="93"/>
-      <c r="W48" s="93"/>
-      <c r="X48" s="93"/>
-      <c r="Y48" s="93"/>
-      <c r="Z48" s="93"/>
-      <c r="AA48" s="93"/>
-      <c r="AB48" s="93"/>
-      <c r="AC48" s="93"/>
-      <c r="AD48" s="93"/>
-      <c r="AE48" s="93"/>
-      <c r="AF48" s="93"/>
-      <c r="AG48" s="93"/>
-      <c r="AH48" s="93"/>
-      <c r="AI48" s="93"/>
-      <c r="AJ48" s="93"/>
-      <c r="AK48" s="93"/>
-      <c r="AL48" s="93"/>
-      <c r="AM48" s="93"/>
-      <c r="AN48" s="93"/>
-      <c r="AO48" s="93"/>
-      <c r="AP48" s="93"/>
-      <c r="AQ48" s="93"/>
-      <c r="AR48" s="93"/>
-      <c r="AS48" s="93"/>
-      <c r="AT48" s="93"/>
-      <c r="AU48" s="94"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
+      <c r="P48" s="104"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="104"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="104"/>
+      <c r="U48" s="104"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="104"/>
+      <c r="X48" s="104"/>
+      <c r="Y48" s="104"/>
+      <c r="Z48" s="104"/>
+      <c r="AA48" s="104"/>
+      <c r="AB48" s="104"/>
+      <c r="AC48" s="104"/>
+      <c r="AD48" s="104"/>
+      <c r="AE48" s="104"/>
+      <c r="AF48" s="104"/>
+      <c r="AG48" s="104"/>
+      <c r="AH48" s="104"/>
+      <c r="AI48" s="104"/>
+      <c r="AJ48" s="104"/>
+      <c r="AK48" s="104"/>
+      <c r="AL48" s="104"/>
+      <c r="AM48" s="104"/>
+      <c r="AN48" s="104"/>
+      <c r="AO48" s="104"/>
+      <c r="AP48" s="104"/>
+      <c r="AQ48" s="104"/>
+      <c r="AR48" s="104"/>
+      <c r="AS48" s="104"/>
+      <c r="AT48" s="104"/>
+      <c r="AU48" s="105"/>
     </row>
     <row r="49" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104" t="s">
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="104"/>
-      <c r="Q49" s="104"/>
-      <c r="R49" s="104"/>
-      <c r="S49" s="104"/>
-      <c r="T49" s="104"/>
-      <c r="U49" s="104"/>
-      <c r="V49" s="104"/>
-      <c r="W49" s="104"/>
-      <c r="X49" s="104"/>
-      <c r="Y49" s="104"/>
-      <c r="Z49" s="104"/>
-      <c r="AA49" s="104" t="s">
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="136"/>
+      <c r="P49" s="136"/>
+      <c r="Q49" s="136"/>
+      <c r="R49" s="136"/>
+      <c r="S49" s="136"/>
+      <c r="T49" s="136"/>
+      <c r="U49" s="136"/>
+      <c r="V49" s="136"/>
+      <c r="W49" s="136"/>
+      <c r="X49" s="136"/>
+      <c r="Y49" s="136"/>
+      <c r="Z49" s="136"/>
+      <c r="AA49" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="AB49" s="104"/>
-      <c r="AC49" s="104"/>
-      <c r="AD49" s="104"/>
-      <c r="AE49" s="104"/>
-      <c r="AF49" s="104"/>
-      <c r="AG49" s="104"/>
-      <c r="AH49" s="104"/>
-      <c r="AI49" s="104"/>
-      <c r="AJ49" s="104"/>
-      <c r="AK49" s="104" t="s">
+      <c r="AB49" s="136"/>
+      <c r="AC49" s="136"/>
+      <c r="AD49" s="136"/>
+      <c r="AE49" s="136"/>
+      <c r="AF49" s="136"/>
+      <c r="AG49" s="136"/>
+      <c r="AH49" s="136"/>
+      <c r="AI49" s="136"/>
+      <c r="AJ49" s="136"/>
+      <c r="AK49" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="AL49" s="104"/>
-      <c r="AM49" s="104"/>
-      <c r="AN49" s="104"/>
-      <c r="AO49" s="104"/>
-      <c r="AP49" s="104"/>
-      <c r="AQ49" s="104"/>
-      <c r="AR49" s="104"/>
-      <c r="AS49" s="104"/>
-      <c r="AT49" s="104"/>
-      <c r="AU49" s="104"/>
+      <c r="AL49" s="136"/>
+      <c r="AM49" s="136"/>
+      <c r="AN49" s="136"/>
+      <c r="AO49" s="136"/>
+      <c r="AP49" s="136"/>
+      <c r="AQ49" s="136"/>
+      <c r="AR49" s="136"/>
+      <c r="AS49" s="136"/>
+      <c r="AT49" s="136"/>
+      <c r="AU49" s="136"/>
     </row>
     <row r="50" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="103"/>
-      <c r="S50" s="103"/>
-      <c r="T50" s="103"/>
-      <c r="U50" s="103"/>
-      <c r="V50" s="103"/>
-      <c r="W50" s="103"/>
-      <c r="X50" s="103"/>
-      <c r="Y50" s="103"/>
-      <c r="Z50" s="103"/>
-      <c r="AA50" s="103"/>
-      <c r="AB50" s="103"/>
-      <c r="AC50" s="103"/>
-      <c r="AD50" s="103"/>
-      <c r="AE50" s="103"/>
-      <c r="AF50" s="103"/>
-      <c r="AG50" s="103"/>
-      <c r="AH50" s="103"/>
-      <c r="AI50" s="103"/>
-      <c r="AJ50" s="103"/>
-      <c r="AK50" s="102"/>
-      <c r="AL50" s="102"/>
-      <c r="AM50" s="102"/>
-      <c r="AN50" s="102"/>
-      <c r="AO50" s="102"/>
-      <c r="AP50" s="102"/>
-      <c r="AQ50" s="102"/>
-      <c r="AR50" s="102"/>
-      <c r="AS50" s="102"/>
-      <c r="AT50" s="102"/>
-      <c r="AU50" s="102"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="138"/>
+      <c r="R50" s="138"/>
+      <c r="S50" s="138"/>
+      <c r="T50" s="138"/>
+      <c r="U50" s="138"/>
+      <c r="V50" s="138"/>
+      <c r="W50" s="138"/>
+      <c r="X50" s="138"/>
+      <c r="Y50" s="138"/>
+      <c r="Z50" s="138"/>
+      <c r="AA50" s="138"/>
+      <c r="AB50" s="138"/>
+      <c r="AC50" s="138"/>
+      <c r="AD50" s="138"/>
+      <c r="AE50" s="138"/>
+      <c r="AF50" s="138"/>
+      <c r="AG50" s="138"/>
+      <c r="AH50" s="138"/>
+      <c r="AI50" s="138"/>
+      <c r="AJ50" s="138"/>
+      <c r="AK50" s="137"/>
+      <c r="AL50" s="137"/>
+      <c r="AM50" s="137"/>
+      <c r="AN50" s="137"/>
+      <c r="AO50" s="137"/>
+      <c r="AP50" s="137"/>
+      <c r="AQ50" s="137"/>
+      <c r="AR50" s="137"/>
+      <c r="AS50" s="137"/>
+      <c r="AT50" s="137"/>
+      <c r="AU50" s="137"/>
     </row>
     <row r="51" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="103"/>
-      <c r="R51" s="103"/>
-      <c r="S51" s="103"/>
-      <c r="T51" s="103"/>
-      <c r="U51" s="103"/>
-      <c r="V51" s="103"/>
-      <c r="W51" s="103"/>
-      <c r="X51" s="103"/>
-      <c r="Y51" s="103"/>
-      <c r="Z51" s="103"/>
-      <c r="AA51" s="103"/>
-      <c r="AB51" s="103"/>
-      <c r="AC51" s="103"/>
-      <c r="AD51" s="103"/>
-      <c r="AE51" s="103"/>
-      <c r="AF51" s="103"/>
-      <c r="AG51" s="103"/>
-      <c r="AH51" s="103"/>
-      <c r="AI51" s="103"/>
-      <c r="AJ51" s="103"/>
-      <c r="AK51" s="102"/>
-      <c r="AL51" s="102"/>
-      <c r="AM51" s="102"/>
-      <c r="AN51" s="102"/>
-      <c r="AO51" s="102"/>
-      <c r="AP51" s="102"/>
-      <c r="AQ51" s="102"/>
-      <c r="AR51" s="102"/>
-      <c r="AS51" s="102"/>
-      <c r="AT51" s="102"/>
-      <c r="AU51" s="102"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
+      <c r="P51" s="138"/>
+      <c r="Q51" s="138"/>
+      <c r="R51" s="138"/>
+      <c r="S51" s="138"/>
+      <c r="T51" s="138"/>
+      <c r="U51" s="138"/>
+      <c r="V51" s="138"/>
+      <c r="W51" s="138"/>
+      <c r="X51" s="138"/>
+      <c r="Y51" s="138"/>
+      <c r="Z51" s="138"/>
+      <c r="AA51" s="138"/>
+      <c r="AB51" s="138"/>
+      <c r="AC51" s="138"/>
+      <c r="AD51" s="138"/>
+      <c r="AE51" s="138"/>
+      <c r="AF51" s="138"/>
+      <c r="AG51" s="138"/>
+      <c r="AH51" s="138"/>
+      <c r="AI51" s="138"/>
+      <c r="AJ51" s="138"/>
+      <c r="AK51" s="137"/>
+      <c r="AL51" s="137"/>
+      <c r="AM51" s="137"/>
+      <c r="AN51" s="137"/>
+      <c r="AO51" s="137"/>
+      <c r="AP51" s="137"/>
+      <c r="AQ51" s="137"/>
+      <c r="AR51" s="137"/>
+      <c r="AS51" s="137"/>
+      <c r="AT51" s="137"/>
+      <c r="AU51" s="137"/>
     </row>
     <row r="52" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="103"/>
-      <c r="M52" s="103"/>
-      <c r="N52" s="103"/>
-      <c r="O52" s="103"/>
-      <c r="P52" s="103"/>
-      <c r="Q52" s="103"/>
-      <c r="R52" s="103"/>
-      <c r="S52" s="103"/>
-      <c r="T52" s="103"/>
-      <c r="U52" s="103"/>
-      <c r="V52" s="103"/>
-      <c r="W52" s="103"/>
-      <c r="X52" s="103"/>
-      <c r="Y52" s="103"/>
-      <c r="Z52" s="103"/>
-      <c r="AA52" s="103"/>
-      <c r="AB52" s="103"/>
-      <c r="AC52" s="103"/>
-      <c r="AD52" s="103"/>
-      <c r="AE52" s="103"/>
-      <c r="AF52" s="103"/>
-      <c r="AG52" s="103"/>
-      <c r="AH52" s="103"/>
-      <c r="AI52" s="103"/>
-      <c r="AJ52" s="103"/>
-      <c r="AK52" s="102"/>
-      <c r="AL52" s="102"/>
-      <c r="AM52" s="102"/>
-      <c r="AN52" s="102"/>
-      <c r="AO52" s="102"/>
-      <c r="AP52" s="102"/>
-      <c r="AQ52" s="102"/>
-      <c r="AR52" s="102"/>
-      <c r="AS52" s="102"/>
-      <c r="AT52" s="102"/>
-      <c r="AU52" s="102"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
+      <c r="Q52" s="138"/>
+      <c r="R52" s="138"/>
+      <c r="S52" s="138"/>
+      <c r="T52" s="138"/>
+      <c r="U52" s="138"/>
+      <c r="V52" s="138"/>
+      <c r="W52" s="138"/>
+      <c r="X52" s="138"/>
+      <c r="Y52" s="138"/>
+      <c r="Z52" s="138"/>
+      <c r="AA52" s="138"/>
+      <c r="AB52" s="138"/>
+      <c r="AC52" s="138"/>
+      <c r="AD52" s="138"/>
+      <c r="AE52" s="138"/>
+      <c r="AF52" s="138"/>
+      <c r="AG52" s="138"/>
+      <c r="AH52" s="138"/>
+      <c r="AI52" s="138"/>
+      <c r="AJ52" s="138"/>
+      <c r="AK52" s="137"/>
+      <c r="AL52" s="137"/>
+      <c r="AM52" s="137"/>
+      <c r="AN52" s="137"/>
+      <c r="AO52" s="137"/>
+      <c r="AP52" s="137"/>
+      <c r="AQ52" s="137"/>
+      <c r="AR52" s="137"/>
+      <c r="AS52" s="137"/>
+      <c r="AT52" s="137"/>
+      <c r="AU52" s="137"/>
     </row>
     <row r="53" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="103"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="103"/>
-      <c r="S53" s="103"/>
-      <c r="T53" s="103"/>
-      <c r="U53" s="103"/>
-      <c r="V53" s="103"/>
-      <c r="W53" s="103"/>
-      <c r="X53" s="103"/>
-      <c r="Y53" s="103"/>
-      <c r="Z53" s="103"/>
-      <c r="AA53" s="103"/>
-      <c r="AB53" s="103"/>
-      <c r="AC53" s="103"/>
-      <c r="AD53" s="103"/>
-      <c r="AE53" s="103"/>
-      <c r="AF53" s="103"/>
-      <c r="AG53" s="103"/>
-      <c r="AH53" s="103"/>
-      <c r="AI53" s="103"/>
-      <c r="AJ53" s="103"/>
-      <c r="AK53" s="102"/>
-      <c r="AL53" s="102"/>
-      <c r="AM53" s="102"/>
-      <c r="AN53" s="102"/>
-      <c r="AO53" s="102"/>
-      <c r="AP53" s="102"/>
-      <c r="AQ53" s="102"/>
-      <c r="AR53" s="102"/>
-      <c r="AS53" s="102"/>
-      <c r="AT53" s="102"/>
-      <c r="AU53" s="102"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="138"/>
+      <c r="W53" s="138"/>
+      <c r="X53" s="138"/>
+      <c r="Y53" s="138"/>
+      <c r="Z53" s="138"/>
+      <c r="AA53" s="138"/>
+      <c r="AB53" s="138"/>
+      <c r="AC53" s="138"/>
+      <c r="AD53" s="138"/>
+      <c r="AE53" s="138"/>
+      <c r="AF53" s="138"/>
+      <c r="AG53" s="138"/>
+      <c r="AH53" s="138"/>
+      <c r="AI53" s="138"/>
+      <c r="AJ53" s="138"/>
+      <c r="AK53" s="137"/>
+      <c r="AL53" s="137"/>
+      <c r="AM53" s="137"/>
+      <c r="AN53" s="137"/>
+      <c r="AO53" s="137"/>
+      <c r="AP53" s="137"/>
+      <c r="AQ53" s="137"/>
+      <c r="AR53" s="137"/>
+      <c r="AS53" s="137"/>
+      <c r="AT53" s="137"/>
+      <c r="AU53" s="137"/>
     </row>
     <row r="54" spans="3:47" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="92" t="s">
+      <c r="C54" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="93"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="93"/>
-      <c r="V54" s="93"/>
-      <c r="W54" s="93"/>
-      <c r="X54" s="93"/>
-      <c r="Y54" s="93"/>
-      <c r="Z54" s="93"/>
-      <c r="AA54" s="93"/>
-      <c r="AB54" s="93"/>
-      <c r="AC54" s="93"/>
-      <c r="AD54" s="93"/>
-      <c r="AE54" s="93"/>
-      <c r="AF54" s="93"/>
-      <c r="AG54" s="93"/>
-      <c r="AH54" s="93"/>
-      <c r="AI54" s="93"/>
-      <c r="AJ54" s="93"/>
-      <c r="AK54" s="93"/>
-      <c r="AL54" s="93"/>
-      <c r="AM54" s="93"/>
-      <c r="AN54" s="93"/>
-      <c r="AO54" s="93"/>
-      <c r="AP54" s="93"/>
-      <c r="AQ54" s="93"/>
-      <c r="AR54" s="93"/>
-      <c r="AS54" s="93"/>
-      <c r="AT54" s="93"/>
-      <c r="AU54" s="94"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
+      <c r="X54" s="104"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="104"/>
+      <c r="AB54" s="104"/>
+      <c r="AC54" s="104"/>
+      <c r="AD54" s="104"/>
+      <c r="AE54" s="104"/>
+      <c r="AF54" s="104"/>
+      <c r="AG54" s="104"/>
+      <c r="AH54" s="104"/>
+      <c r="AI54" s="104"/>
+      <c r="AJ54" s="104"/>
+      <c r="AK54" s="104"/>
+      <c r="AL54" s="104"/>
+      <c r="AM54" s="104"/>
+      <c r="AN54" s="104"/>
+      <c r="AO54" s="104"/>
+      <c r="AP54" s="104"/>
+      <c r="AQ54" s="104"/>
+      <c r="AR54" s="104"/>
+      <c r="AS54" s="104"/>
+      <c r="AT54" s="104"/>
+      <c r="AU54" s="105"/>
     </row>
     <row r="55" spans="3:47" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="95"/>
-      <c r="O55" s="95"/>
-      <c r="P55" s="95"/>
-      <c r="Q55" s="95"/>
-      <c r="R55" s="95"/>
-      <c r="S55" s="95"/>
-      <c r="T55" s="95"/>
-      <c r="U55" s="95"/>
-      <c r="V55" s="95"/>
-      <c r="W55" s="95"/>
-      <c r="X55" s="95"/>
-      <c r="Y55" s="95"/>
-      <c r="Z55" s="95"/>
-      <c r="AA55" s="95"/>
-      <c r="AB55" s="95"/>
-      <c r="AC55" s="95"/>
-      <c r="AD55" s="95"/>
-      <c r="AE55" s="95"/>
-      <c r="AF55" s="95"/>
-      <c r="AG55" s="95"/>
-      <c r="AH55" s="95"/>
-      <c r="AI55" s="95"/>
-      <c r="AJ55" s="95"/>
-      <c r="AK55" s="95"/>
-      <c r="AL55" s="95"/>
-      <c r="AM55" s="95"/>
-      <c r="AN55" s="95"/>
-      <c r="AO55" s="95"/>
-      <c r="AP55" s="95"/>
-      <c r="AQ55" s="95"/>
-      <c r="AR55" s="95"/>
-      <c r="AS55" s="95"/>
-      <c r="AT55" s="95"/>
-      <c r="AU55" s="95"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="120"/>
+      <c r="T55" s="120"/>
+      <c r="U55" s="120"/>
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="120"/>
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="120"/>
+      <c r="AA55" s="120"/>
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120"/>
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120"/>
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
+      <c r="AJ55" s="120"/>
+      <c r="AK55" s="120"/>
+      <c r="AL55" s="120"/>
+      <c r="AM55" s="120"/>
+      <c r="AN55" s="120"/>
+      <c r="AO55" s="120"/>
+      <c r="AP55" s="120"/>
+      <c r="AQ55" s="120"/>
+      <c r="AR55" s="120"/>
+      <c r="AS55" s="120"/>
+      <c r="AT55" s="120"/>
+      <c r="AU55" s="120"/>
     </row>
     <row r="56" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="96" t="s">
+      <c r="C56" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="97"/>
-      <c r="T56" s="97"/>
-      <c r="U56" s="97"/>
-      <c r="V56" s="97"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="97"/>
-      <c r="AC56" s="97"/>
-      <c r="AD56" s="97"/>
-      <c r="AE56" s="97"/>
-      <c r="AF56" s="97"/>
-      <c r="AG56" s="97"/>
-      <c r="AH56" s="97"/>
-      <c r="AI56" s="97"/>
-      <c r="AJ56" s="97"/>
-      <c r="AK56" s="97"/>
-      <c r="AL56" s="97"/>
-      <c r="AM56" s="97"/>
-      <c r="AN56" s="97"/>
-      <c r="AO56" s="97"/>
-      <c r="AP56" s="97"/>
-      <c r="AQ56" s="97"/>
-      <c r="AR56" s="97"/>
-      <c r="AS56" s="97"/>
-      <c r="AT56" s="97"/>
-      <c r="AU56" s="98"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="110"/>
+      <c r="N56" s="110"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="110"/>
+      <c r="T56" s="110"/>
+      <c r="U56" s="110"/>
+      <c r="V56" s="110"/>
+      <c r="W56" s="110"/>
+      <c r="X56" s="110"/>
+      <c r="Y56" s="110"/>
+      <c r="Z56" s="110"/>
+      <c r="AA56" s="110"/>
+      <c r="AB56" s="110"/>
+      <c r="AC56" s="110"/>
+      <c r="AD56" s="110"/>
+      <c r="AE56" s="110"/>
+      <c r="AF56" s="110"/>
+      <c r="AG56" s="110"/>
+      <c r="AH56" s="110"/>
+      <c r="AI56" s="110"/>
+      <c r="AJ56" s="110"/>
+      <c r="AK56" s="110"/>
+      <c r="AL56" s="110"/>
+      <c r="AM56" s="110"/>
+      <c r="AN56" s="110"/>
+      <c r="AO56" s="110"/>
+      <c r="AP56" s="110"/>
+      <c r="AQ56" s="110"/>
+      <c r="AR56" s="110"/>
+      <c r="AS56" s="110"/>
+      <c r="AT56" s="110"/>
+      <c r="AU56" s="111"/>
     </row>
     <row r="57" spans="3:47" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="99" t="s">
+      <c r="C57" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="99"/>
-      <c r="P57" s="99"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="99"/>
-      <c r="S57" s="99"/>
-      <c r="T57" s="99"/>
-      <c r="U57" s="99"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="99"/>
-      <c r="X57" s="99"/>
-      <c r="Y57" s="99"/>
-      <c r="Z57" s="99"/>
-      <c r="AA57" s="99" t="s">
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="144"/>
+      <c r="Q57" s="144"/>
+      <c r="R57" s="144"/>
+      <c r="S57" s="144"/>
+      <c r="T57" s="144"/>
+      <c r="U57" s="144"/>
+      <c r="V57" s="144"/>
+      <c r="W57" s="144"/>
+      <c r="X57" s="144"/>
+      <c r="Y57" s="144"/>
+      <c r="Z57" s="144"/>
+      <c r="AA57" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="AB57" s="99"/>
-      <c r="AC57" s="99"/>
-      <c r="AD57" s="99"/>
-      <c r="AE57" s="99"/>
-      <c r="AF57" s="99"/>
-      <c r="AG57" s="99"/>
-      <c r="AH57" s="99"/>
-      <c r="AI57" s="99"/>
-      <c r="AJ57" s="99"/>
-      <c r="AK57" s="99"/>
-      <c r="AL57" s="99"/>
-      <c r="AM57" s="99"/>
-      <c r="AN57" s="99"/>
-      <c r="AO57" s="99"/>
-      <c r="AP57" s="99"/>
-      <c r="AQ57" s="99"/>
-      <c r="AR57" s="99"/>
-      <c r="AS57" s="99"/>
-      <c r="AT57" s="99"/>
-      <c r="AU57" s="99"/>
+      <c r="AB57" s="144"/>
+      <c r="AC57" s="144"/>
+      <c r="AD57" s="144"/>
+      <c r="AE57" s="144"/>
+      <c r="AF57" s="144"/>
+      <c r="AG57" s="144"/>
+      <c r="AH57" s="144"/>
+      <c r="AI57" s="144"/>
+      <c r="AJ57" s="144"/>
+      <c r="AK57" s="144"/>
+      <c r="AL57" s="144"/>
+      <c r="AM57" s="144"/>
+      <c r="AN57" s="144"/>
+      <c r="AO57" s="144"/>
+      <c r="AP57" s="144"/>
+      <c r="AQ57" s="144"/>
+      <c r="AR57" s="144"/>
+      <c r="AS57" s="144"/>
+      <c r="AT57" s="144"/>
+      <c r="AU57" s="144"/>
     </row>
     <row r="58" spans="3:47" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="100" t="s">
+      <c r="C58" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="100"/>
-      <c r="M58" s="100"/>
-      <c r="N58" s="100"/>
-      <c r="O58" s="100"/>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="100"/>
-      <c r="R58" s="100"/>
-      <c r="S58" s="100"/>
-      <c r="T58" s="100"/>
-      <c r="U58" s="100"/>
-      <c r="V58" s="100"/>
-      <c r="W58" s="100"/>
-      <c r="X58" s="100"/>
-      <c r="Y58" s="100"/>
-      <c r="Z58" s="100"/>
-      <c r="AA58" s="100" t="s">
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="145"/>
+      <c r="L58" s="145"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="145"/>
+      <c r="O58" s="145"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="145"/>
+      <c r="R58" s="145"/>
+      <c r="S58" s="145"/>
+      <c r="T58" s="145"/>
+      <c r="U58" s="145"/>
+      <c r="V58" s="145"/>
+      <c r="W58" s="145"/>
+      <c r="X58" s="145"/>
+      <c r="Y58" s="145"/>
+      <c r="Z58" s="145"/>
+      <c r="AA58" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="AB58" s="100"/>
-      <c r="AC58" s="100"/>
-      <c r="AD58" s="100"/>
-      <c r="AE58" s="100"/>
-      <c r="AF58" s="100"/>
-      <c r="AG58" s="100"/>
-      <c r="AH58" s="100"/>
-      <c r="AI58" s="100"/>
-      <c r="AJ58" s="100"/>
-      <c r="AK58" s="100"/>
-      <c r="AL58" s="100"/>
-      <c r="AM58" s="100"/>
-      <c r="AN58" s="100"/>
-      <c r="AO58" s="100"/>
-      <c r="AP58" s="100"/>
-      <c r="AQ58" s="100"/>
-      <c r="AR58" s="100"/>
-      <c r="AS58" s="100"/>
-      <c r="AT58" s="100"/>
-      <c r="AU58" s="100"/>
+      <c r="AB58" s="145"/>
+      <c r="AC58" s="145"/>
+      <c r="AD58" s="145"/>
+      <c r="AE58" s="145"/>
+      <c r="AF58" s="145"/>
+      <c r="AG58" s="145"/>
+      <c r="AH58" s="145"/>
+      <c r="AI58" s="145"/>
+      <c r="AJ58" s="145"/>
+      <c r="AK58" s="145"/>
+      <c r="AL58" s="145"/>
+      <c r="AM58" s="145"/>
+      <c r="AN58" s="145"/>
+      <c r="AO58" s="145"/>
+      <c r="AP58" s="145"/>
+      <c r="AQ58" s="145"/>
+      <c r="AR58" s="145"/>
+      <c r="AS58" s="145"/>
+      <c r="AT58" s="145"/>
+      <c r="AU58" s="145"/>
     </row>
     <row r="59" spans="3:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
@@ -6011,52 +6270,52 @@
       <c r="AU61" s="8"/>
     </row>
     <row r="62" spans="3:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="88" t="s">
+      <c r="C62" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="89"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="142"/>
+      <c r="I62" s="142"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="142"/>
       <c r="M62" s="21"/>
       <c r="N62" s="22"/>
       <c r="O62" s="23"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="91" t="s">
+      <c r="Q62" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="R62" s="91"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="90"/>
-      <c r="U62" s="90"/>
-      <c r="V62" s="90"/>
-      <c r="W62" s="90"/>
-      <c r="X62" s="90"/>
-      <c r="Y62" s="90"/>
-      <c r="Z62" s="90"/>
-      <c r="AA62" s="90"/>
-      <c r="AB62" s="90"/>
+      <c r="R62" s="143"/>
+      <c r="S62" s="142"/>
+      <c r="T62" s="142"/>
+      <c r="U62" s="142"/>
+      <c r="V62" s="142"/>
+      <c r="W62" s="142"/>
+      <c r="X62" s="142"/>
+      <c r="Y62" s="142"/>
+      <c r="Z62" s="142"/>
+      <c r="AA62" s="142"/>
+      <c r="AB62" s="142"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="21"/>
       <c r="AE62" s="22"/>
       <c r="AF62" s="23"/>
       <c r="AG62" s="3"/>
-      <c r="AH62" s="91" t="s">
+      <c r="AH62" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="AI62" s="91"/>
-      <c r="AJ62" s="90"/>
-      <c r="AK62" s="90"/>
-      <c r="AL62" s="90"/>
-      <c r="AM62" s="90"/>
-      <c r="AN62" s="90"/>
-      <c r="AO62" s="90"/>
-      <c r="AP62" s="90"/>
+      <c r="AI62" s="143"/>
+      <c r="AJ62" s="142"/>
+      <c r="AK62" s="142"/>
+      <c r="AL62" s="142"/>
+      <c r="AM62" s="142"/>
+      <c r="AN62" s="142"/>
+      <c r="AO62" s="142"/>
+      <c r="AP62" s="142"/>
       <c r="AQ62" s="3"/>
       <c r="AR62" s="21"/>
       <c r="AS62" s="22"/>
@@ -6064,62 +6323,62 @@
       <c r="AU62" s="8"/>
     </row>
     <row r="63" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="101" t="s">
+      <c r="C63" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="91"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="142"/>
+      <c r="J63" s="142"/>
+      <c r="K63" s="142"/>
       <c r="L63" s="25"/>
-      <c r="M63" s="87" t="s">
+      <c r="M63" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="N63" s="87"/>
-      <c r="O63" s="87"/>
+      <c r="N63" s="139"/>
+      <c r="O63" s="139"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="91" t="s">
+      <c r="Q63" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="R63" s="91"/>
-      <c r="S63" s="90"/>
-      <c r="T63" s="90"/>
-      <c r="U63" s="90"/>
-      <c r="V63" s="90"/>
-      <c r="W63" s="90"/>
-      <c r="X63" s="90"/>
-      <c r="Y63" s="90"/>
-      <c r="Z63" s="90"/>
-      <c r="AA63" s="90"/>
-      <c r="AB63" s="90"/>
+      <c r="R63" s="143"/>
+      <c r="S63" s="142"/>
+      <c r="T63" s="142"/>
+      <c r="U63" s="142"/>
+      <c r="V63" s="142"/>
+      <c r="W63" s="142"/>
+      <c r="X63" s="142"/>
+      <c r="Y63" s="142"/>
+      <c r="Z63" s="142"/>
+      <c r="AA63" s="142"/>
+      <c r="AB63" s="142"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="87" t="s">
+      <c r="AD63" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="87"/>
-      <c r="AF63" s="87"/>
+      <c r="AE63" s="139"/>
+      <c r="AF63" s="139"/>
       <c r="AG63" s="3"/>
-      <c r="AH63" s="91" t="s">
+      <c r="AH63" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="AI63" s="91"/>
-      <c r="AJ63" s="90"/>
-      <c r="AK63" s="90"/>
-      <c r="AL63" s="90"/>
-      <c r="AM63" s="90"/>
-      <c r="AN63" s="90"/>
-      <c r="AO63" s="90"/>
-      <c r="AP63" s="90"/>
+      <c r="AI63" s="143"/>
+      <c r="AJ63" s="142"/>
+      <c r="AK63" s="142"/>
+      <c r="AL63" s="142"/>
+      <c r="AM63" s="142"/>
+      <c r="AN63" s="142"/>
+      <c r="AO63" s="142"/>
+      <c r="AP63" s="142"/>
       <c r="AQ63" s="3"/>
-      <c r="AR63" s="87" t="s">
+      <c r="AR63" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="AS63" s="87"/>
-      <c r="AT63" s="87"/>
+      <c r="AS63" s="139"/>
+      <c r="AT63" s="139"/>
       <c r="AU63" s="8"/>
     </row>
     <row r="64" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6218,158 +6477,6 @@
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="C4:AU4"/>
-    <mergeCell ref="C5:AU5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="M1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="C2:L3"/>
-    <mergeCell ref="M2:AN3"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AO3:AU3"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="AI9:AL9"/>
-    <mergeCell ref="AM9:AU9"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="Z8:AU8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G7:AU7"/>
-    <mergeCell ref="AI6:AU6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="AO13:AU13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:AU10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:AU11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="N12:AU12"/>
-    <mergeCell ref="C19:AU19"/>
-    <mergeCell ref="C20:AU20"/>
-    <mergeCell ref="C21:AU21"/>
-    <mergeCell ref="C22:AU22"/>
-    <mergeCell ref="D23:AU23"/>
-    <mergeCell ref="D24:AU24"/>
-    <mergeCell ref="C14:AU14"/>
-    <mergeCell ref="C15:AU15"/>
-    <mergeCell ref="C16:AU16"/>
-    <mergeCell ref="C17:AU17"/>
-    <mergeCell ref="C18:AU18"/>
-    <mergeCell ref="AF28:AH30"/>
-    <mergeCell ref="AI28:AK30"/>
-    <mergeCell ref="AL28:AP30"/>
-    <mergeCell ref="AQ28:AU30"/>
-    <mergeCell ref="C28:M30"/>
-    <mergeCell ref="N28:Y28"/>
-    <mergeCell ref="Z28:AE30"/>
-    <mergeCell ref="D25:AU25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:AU26"/>
-    <mergeCell ref="C27:AU27"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AL32:AP32"/>
-    <mergeCell ref="AQ32:AU32"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="Z31:AE31"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AI31:AK31"/>
-    <mergeCell ref="AL31:AP31"/>
-    <mergeCell ref="AQ31:AU31"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="Z34:AE34"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AI34:AK34"/>
-    <mergeCell ref="AL34:AP34"/>
-    <mergeCell ref="AQ34:AU34"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="Z33:AE33"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AI33:AK33"/>
-    <mergeCell ref="AL33:AP33"/>
-    <mergeCell ref="AQ33:AU33"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="Z36:AE36"/>
-    <mergeCell ref="AF36:AH36"/>
-    <mergeCell ref="AI36:AK36"/>
-    <mergeCell ref="AL36:AP36"/>
-    <mergeCell ref="AQ36:AU36"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="Z35:AE35"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="AL35:AP35"/>
-    <mergeCell ref="AQ35:AU35"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="Z38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="AL38:AP38"/>
-    <mergeCell ref="AQ38:AU38"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="Z37:AE37"/>
-    <mergeCell ref="AF37:AH37"/>
-    <mergeCell ref="AI37:AK37"/>
-    <mergeCell ref="AL37:AP37"/>
-    <mergeCell ref="AQ37:AU37"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="Z40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="AL40:AP40"/>
-    <mergeCell ref="AQ40:AU40"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="Z39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="AL39:AP39"/>
-    <mergeCell ref="AQ39:AU39"/>
-    <mergeCell ref="C46:AU46"/>
-    <mergeCell ref="C47:AU47"/>
-    <mergeCell ref="C48:AU48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="K49:Z49"/>
-    <mergeCell ref="AA49:AJ49"/>
-    <mergeCell ref="AK49:AU49"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:AU41"/>
-    <mergeCell ref="C42:AU42"/>
-    <mergeCell ref="C43:AU43"/>
-    <mergeCell ref="C44:AU44"/>
-    <mergeCell ref="C45:AU45"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="K52:Z52"/>
-    <mergeCell ref="AA52:AJ52"/>
-    <mergeCell ref="AK52:AU52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="K53:Z53"/>
-    <mergeCell ref="AA53:AJ53"/>
-    <mergeCell ref="AK53:AU53"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="K50:Z50"/>
-    <mergeCell ref="AA50:AJ50"/>
-    <mergeCell ref="AK50:AU50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="K51:Z51"/>
-    <mergeCell ref="AA51:AJ51"/>
-    <mergeCell ref="AK51:AU51"/>
     <mergeCell ref="AR63:AT63"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="E62:L62"/>
@@ -6392,6 +6499,158 @@
     <mergeCell ref="AJ63:AP63"/>
     <mergeCell ref="M63:O63"/>
     <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="K52:Z52"/>
+    <mergeCell ref="AA52:AJ52"/>
+    <mergeCell ref="AK52:AU52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="K53:Z53"/>
+    <mergeCell ref="AA53:AJ53"/>
+    <mergeCell ref="AK53:AU53"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="K50:Z50"/>
+    <mergeCell ref="AA50:AJ50"/>
+    <mergeCell ref="AK50:AU50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="K51:Z51"/>
+    <mergeCell ref="AA51:AJ51"/>
+    <mergeCell ref="AK51:AU51"/>
+    <mergeCell ref="C46:AU46"/>
+    <mergeCell ref="C47:AU47"/>
+    <mergeCell ref="C48:AU48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="K49:Z49"/>
+    <mergeCell ref="AA49:AJ49"/>
+    <mergeCell ref="AK49:AU49"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:AU41"/>
+    <mergeCell ref="C42:AU42"/>
+    <mergeCell ref="C43:AU43"/>
+    <mergeCell ref="C44:AU44"/>
+    <mergeCell ref="C45:AU45"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="Z40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="AL40:AP40"/>
+    <mergeCell ref="AQ40:AU40"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="Z39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="AL39:AP39"/>
+    <mergeCell ref="AQ39:AU39"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="Z38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="AL38:AP38"/>
+    <mergeCell ref="AQ38:AU38"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="Z37:AE37"/>
+    <mergeCell ref="AF37:AH37"/>
+    <mergeCell ref="AI37:AK37"/>
+    <mergeCell ref="AL37:AP37"/>
+    <mergeCell ref="AQ37:AU37"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="Z36:AE36"/>
+    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AI36:AK36"/>
+    <mergeCell ref="AL36:AP36"/>
+    <mergeCell ref="AQ36:AU36"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="Z35:AE35"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AL35:AP35"/>
+    <mergeCell ref="AQ35:AU35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="Z34:AE34"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="AL34:AP34"/>
+    <mergeCell ref="AQ34:AU34"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="Z33:AE33"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AI33:AK33"/>
+    <mergeCell ref="AL33:AP33"/>
+    <mergeCell ref="AQ33:AU33"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AL32:AP32"/>
+    <mergeCell ref="AQ32:AU32"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="Z31:AE31"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AI31:AK31"/>
+    <mergeCell ref="AL31:AP31"/>
+    <mergeCell ref="AQ31:AU31"/>
+    <mergeCell ref="AF28:AH30"/>
+    <mergeCell ref="AI28:AK30"/>
+    <mergeCell ref="AL28:AP30"/>
+    <mergeCell ref="AQ28:AU30"/>
+    <mergeCell ref="C28:M30"/>
+    <mergeCell ref="N28:Y28"/>
+    <mergeCell ref="Z28:AE30"/>
+    <mergeCell ref="D25:AU25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:AU26"/>
+    <mergeCell ref="C27:AU27"/>
+    <mergeCell ref="C19:AU19"/>
+    <mergeCell ref="C20:AU20"/>
+    <mergeCell ref="C21:AU21"/>
+    <mergeCell ref="C22:AU22"/>
+    <mergeCell ref="D23:AU23"/>
+    <mergeCell ref="D24:AU24"/>
+    <mergeCell ref="C14:AU14"/>
+    <mergeCell ref="C15:AU15"/>
+    <mergeCell ref="C16:AU16"/>
+    <mergeCell ref="C17:AU17"/>
+    <mergeCell ref="C18:AU18"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="AO13:AU13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:AU10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:AU11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="N12:AU12"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="AI9:AL9"/>
+    <mergeCell ref="AM9:AU9"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="Z8:AU8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G7:AU7"/>
+    <mergeCell ref="AI6:AU6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C4:AU4"/>
+    <mergeCell ref="C5:AU5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="M1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="C2:L3"/>
+    <mergeCell ref="M2:AN3"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AO3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6424,133 +6683,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="160"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161" t="s">
+      <c r="A1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="154" t="s">
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
     </row>
     <row r="2" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="157" t="s">
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158" t="s">
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+    </row>
+    <row r="3" spans="1:22" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-    </row>
-    <row r="3" spans="1:22" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="159" t="s">
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+    </row>
+    <row r="4" spans="1:22" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-    </row>
-    <row r="4" spans="1:22" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="163" t="s">
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="149"/>
+    </row>
+    <row r="5" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="165"/>
-    </row>
-    <row r="5" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="153" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="153" t="s">
-        <v>73</v>
       </c>
       <c r="O5" s="153"/>
       <c r="P5" s="153"/>
@@ -6560,160 +6817,160 @@
       <c r="T5" s="153"/>
       <c r="U5" s="153"/>
       <c r="V5" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="150"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="26" t="s">
+      <c r="O6" s="154"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="170" t="s">
+      <c r="R6" s="155"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="157"/>
+    </row>
+    <row r="7" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="170"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="172"/>
-    </row>
-    <row r="7" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="26" t="s">
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="170" t="s">
+      <c r="R7" s="155"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="162"/>
+      <c r="V7" s="158"/>
+    </row>
+    <row r="8" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="170"/>
-      <c r="S7" s="176"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="176"/>
-      <c r="V7" s="173"/>
-    </row>
-    <row r="8" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="B8" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148" t="s">
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="153" t="s">
+      <c r="N8" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="148" t="s">
+      <c r="O8" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="148" t="s">
+      <c r="P8" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="148" t="s">
+      <c r="Q8" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="150" t="s">
+      <c r="R8" s="173"/>
+      <c r="S8" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="173"/>
+      <c r="U8" s="172" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="174"/>
+    </row>
+    <row r="9" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="175"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="151"/>
-      <c r="S8" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="T8" s="151"/>
-      <c r="U8" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="V8" s="152"/>
-    </row>
-    <row r="9" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="26" t="s">
+      <c r="R9" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="26" t="s">
-        <v>88</v>
-      </c>
       <c r="S9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="T9" s="26" t="s">
-        <v>88</v>
-      </c>
       <c r="U9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="V9" s="26" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
       <c r="M10" s="30"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
@@ -6727,7 +6984,7 @@
     </row>
     <row r="11" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O11" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P11" s="38"/>
       <c r="Q11" s="39"/>
@@ -6739,12 +6996,31 @@
     </row>
     <row r="13" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q13" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R13" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="G8:L9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="L2:S3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:S1"/>
     <mergeCell ref="A4:V4"/>
     <mergeCell ref="A5:M6"/>
     <mergeCell ref="N5:U5"/>
@@ -6757,25 +7033,6 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="S7:U7"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="L2:S3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="G8:L9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7500,7 +7757,7 @@
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
       <c r="D1" s="180" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
@@ -7531,9 +7788,7 @@
       <c r="N2" s="180"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="180" t="s">
-        <v>67</v>
-      </c>
+      <c r="B3" s="180"/>
       <c r="C3" s="180"/>
       <c r="D3" s="180" t="s">
         <v>2</v>
@@ -7545,7 +7800,7 @@
       <c r="I3" s="180"/>
       <c r="J3" s="180"/>
       <c r="K3" s="180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" s="180"/>
       <c r="M3" s="180"/>
@@ -7562,7 +7817,7 @@
       <c r="I4" s="180"/>
       <c r="J4" s="180"/>
       <c r="K4" s="181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L4" s="181"/>
       <c r="M4" s="181"/>
@@ -7570,11 +7825,11 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="177" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="177"/>
       <c r="D5" s="178" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="178"/>
       <c r="F5" s="178"/>
@@ -7621,7 +7876,7 @@
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="179" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="179"/>
       <c r="F8" s="179"/>
@@ -7631,7 +7886,7 @@
       <c r="J8" s="179"/>
       <c r="K8" s="47"/>
       <c r="L8" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M8" s="51"/>
       <c r="N8" s="50"/>
@@ -7669,46 +7924,46 @@
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="E11" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="F11" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="G11" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="H11" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="I11" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="J11" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="K11" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="L11" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="M11" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="N11" s="63" t="s">
         <v>110</v>
-      </c>
-      <c r="N11" s="63" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="65">
@@ -7773,7 +8028,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -7805,7 +8060,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="62">
         <f t="shared" ref="C16:N16" si="1">SUM(C15:C15)</f>
@@ -7873,7 +8128,7 @@
     </row>
     <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
@@ -7905,7 +8160,7 @@
     </row>
     <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="57">
         <f t="shared" ref="C20:N20" si="2">SUM(C19:C19)</f>
@@ -7958,7 +8213,7 @@
     </row>
     <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="57">
         <f t="shared" ref="C21:N21" si="3">+(C16-C20)+C12</f>

--- a/static/documentos/ficha_proyecto.xlsx
+++ b/static/documentos/ficha_proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pytho\PycharmProjects\sion\static\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dandr\PycharmProjects\sion\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5410914A-55F4-4263-9725-81A098CF4B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF3E97-19EC-4446-A926-C1C23C02231D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDENTIFICACION PROYECTOS" sheetId="5" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1272,17 +1272,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color theme="4" tint="-0.24994659260841701"/>
       </left>
@@ -1290,19 +1279,6 @@
         <color theme="4" tint="-0.24994659260841701"/>
       </right>
       <top/>
-      <bottom style="double">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </right>
-      <top style="double">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </top>
       <bottom style="double">
         <color theme="4" tint="-0.24994659260841701"/>
       </bottom>
@@ -1568,6 +1544,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1575,7 +1616,7 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1614,7 +1655,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1622,7 +1663,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1704,30 +1745,30 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="33" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="33" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1739,25 +1780,25 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="28" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="30" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="30" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="32" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1765,16 +1806,69 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1789,7 +1883,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1825,18 +1919,145 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1853,9 +2074,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,144 +2105,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2032,7 +2169,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2048,10 +2185,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2064,11 +2197,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2080,75 +2213,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2156,52 +2229,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2929,43 +2982,43 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="75" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="80"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="81" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="82"/>
+      <c r="E3" s="96"/>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67"/>
@@ -2992,189 +3045,189 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="183"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="186"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="187"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="82"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="185"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="189"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="83"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="190"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="185"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="185"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="80"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="186"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="187"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="82"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="185"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="185"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="80"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="185"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="80"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="186"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="187"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="82"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="185"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="189"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="183"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="185"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="186"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="187"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="82"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="185"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="80"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="85"/>
-      <c r="B30" s="188"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="189"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="E7:E9"/>
@@ -3182,12 +3235,12 @@
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3213,1343 +3266,1343 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:47" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="93" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="94" t="s">
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="94"/>
-      <c r="AR1" s="94"/>
-      <c r="AS1" s="94"/>
-      <c r="AT1" s="94"/>
-      <c r="AU1" s="94"/>
+      <c r="AP1" s="148"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="148"/>
+      <c r="AS1" s="148"/>
+      <c r="AT1" s="148"/>
+      <c r="AU1" s="148"/>
     </row>
     <row r="2" spans="3:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="88" t="s">
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="94" t="s">
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="144"/>
+      <c r="AN2" s="150"/>
+      <c r="AO2" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
+      <c r="AP2" s="148"/>
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
     </row>
     <row r="3" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="100" t="s">
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="152"/>
+      <c r="AJ3" s="152"/>
+      <c r="AK3" s="152"/>
+      <c r="AL3" s="152"/>
+      <c r="AM3" s="152"/>
+      <c r="AN3" s="153"/>
+      <c r="AO3" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="101"/>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="101"/>
-      <c r="AT3" s="101"/>
-      <c r="AU3" s="102"/>
+      <c r="AP3" s="155"/>
+      <c r="AQ3" s="155"/>
+      <c r="AR3" s="155"/>
+      <c r="AS3" s="155"/>
+      <c r="AT3" s="155"/>
+      <c r="AU3" s="156"/>
     </row>
     <row r="4" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="142"/>
+      <c r="AF4" s="142"/>
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="142"/>
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="142"/>
+      <c r="AK4" s="142"/>
+      <c r="AL4" s="142"/>
+      <c r="AM4" s="142"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="142"/>
+      <c r="AP4" s="142"/>
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="142"/>
+      <c r="AT4" s="142"/>
+      <c r="AU4" s="142"/>
     </row>
     <row r="5" spans="3:47" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="91"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="145"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="146"/>
     </row>
     <row r="6" spans="3:47" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="92" t="s">
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="109" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="110"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113"/>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113"/>
-      <c r="AU6" s="113"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="141"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="141"/>
+      <c r="AM6" s="141"/>
+      <c r="AN6" s="141"/>
+      <c r="AO6" s="141"/>
+      <c r="AP6" s="141"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="141"/>
+      <c r="AS6" s="141"/>
+      <c r="AT6" s="141"/>
+      <c r="AU6" s="141"/>
     </row>
     <row r="7" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="111" t="s">
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
-      <c r="AJ7" s="112"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="112"/>
-      <c r="AM7" s="112"/>
-      <c r="AN7" s="112"/>
-      <c r="AO7" s="112"/>
-      <c r="AP7" s="112"/>
-      <c r="AQ7" s="112"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="112"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130"/>
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="130"/>
     </row>
     <row r="8" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="103" t="s">
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="104"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="103" t="s">
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="107"/>
-      <c r="AL8" s="107"/>
-      <c r="AM8" s="107"/>
-      <c r="AN8" s="107"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="108"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="132"/>
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="132"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="132"/>
+      <c r="AK8" s="132"/>
+      <c r="AL8" s="132"/>
+      <c r="AM8" s="132"/>
+      <c r="AN8" s="132"/>
+      <c r="AO8" s="132"/>
+      <c r="AP8" s="132"/>
+      <c r="AQ8" s="132"/>
+      <c r="AR8" s="132"/>
+      <c r="AS8" s="132"/>
+      <c r="AT8" s="132"/>
+      <c r="AU8" s="133"/>
     </row>
     <row r="9" spans="3:47" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="103" t="s">
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="109" t="s">
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="132"/>
+      <c r="AF9" s="132"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="133"/>
+      <c r="AI9" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="108"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="131"/>
+      <c r="AN9" s="132"/>
+      <c r="AO9" s="132"/>
+      <c r="AP9" s="132"/>
+      <c r="AQ9" s="132"/>
+      <c r="AR9" s="132"/>
+      <c r="AS9" s="132"/>
+      <c r="AT9" s="132"/>
+      <c r="AU9" s="133"/>
     </row>
     <row r="10" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="111" t="s">
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="112"/>
-      <c r="AI10" s="112"/>
-      <c r="AJ10" s="112"/>
-      <c r="AK10" s="112"/>
-      <c r="AL10" s="112"/>
-      <c r="AM10" s="112"/>
-      <c r="AN10" s="112"/>
-      <c r="AO10" s="112"/>
-      <c r="AP10" s="112"/>
-      <c r="AQ10" s="112"/>
-      <c r="AR10" s="112"/>
-      <c r="AS10" s="112"/>
-      <c r="AT10" s="112"/>
-      <c r="AU10" s="112"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="130"/>
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="130"/>
+      <c r="AM10" s="130"/>
+      <c r="AN10" s="130"/>
+      <c r="AO10" s="130"/>
+      <c r="AP10" s="130"/>
+      <c r="AQ10" s="130"/>
+      <c r="AR10" s="130"/>
+      <c r="AS10" s="130"/>
+      <c r="AT10" s="130"/>
+      <c r="AU10" s="130"/>
     </row>
     <row r="11" spans="3:47" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="115"/>
-      <c r="AD11" s="115"/>
-      <c r="AE11" s="115"/>
-      <c r="AF11" s="115"/>
-      <c r="AG11" s="115"/>
-      <c r="AH11" s="115"/>
-      <c r="AI11" s="115"/>
-      <c r="AJ11" s="115"/>
-      <c r="AK11" s="115"/>
-      <c r="AL11" s="115"/>
-      <c r="AM11" s="115"/>
-      <c r="AN11" s="115"/>
-      <c r="AO11" s="115"/>
-      <c r="AP11" s="115"/>
-      <c r="AQ11" s="115"/>
-      <c r="AR11" s="115"/>
-      <c r="AS11" s="115"/>
-      <c r="AT11" s="115"/>
-      <c r="AU11" s="116"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="135"/>
+      <c r="AJ11" s="135"/>
+      <c r="AK11" s="135"/>
+      <c r="AL11" s="135"/>
+      <c r="AM11" s="135"/>
+      <c r="AN11" s="135"/>
+      <c r="AO11" s="135"/>
+      <c r="AP11" s="135"/>
+      <c r="AQ11" s="135"/>
+      <c r="AR11" s="135"/>
+      <c r="AS11" s="135"/>
+      <c r="AT11" s="135"/>
+      <c r="AU11" s="136"/>
     </row>
     <row r="12" spans="3:47" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="119"/>
-      <c r="AF12" s="119"/>
-      <c r="AG12" s="119"/>
-      <c r="AH12" s="119"/>
-      <c r="AI12" s="119"/>
-      <c r="AJ12" s="119"/>
-      <c r="AK12" s="119"/>
-      <c r="AL12" s="119"/>
-      <c r="AM12" s="119"/>
-      <c r="AN12" s="119"/>
-      <c r="AO12" s="119"/>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="119"/>
-      <c r="AR12" s="119"/>
-      <c r="AS12" s="119"/>
-      <c r="AT12" s="119"/>
-      <c r="AU12" s="119"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="140"/>
+      <c r="AH12" s="140"/>
+      <c r="AI12" s="140"/>
+      <c r="AJ12" s="140"/>
+      <c r="AK12" s="140"/>
+      <c r="AL12" s="140"/>
+      <c r="AM12" s="140"/>
+      <c r="AN12" s="140"/>
+      <c r="AO12" s="140"/>
+      <c r="AP12" s="140"/>
+      <c r="AQ12" s="140"/>
+      <c r="AR12" s="140"/>
+      <c r="AS12" s="140"/>
+      <c r="AT12" s="140"/>
+      <c r="AU12" s="140"/>
     </row>
     <row r="13" spans="3:47" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="103" t="s">
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="103" t="s">
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="132"/>
+      <c r="AF13" s="132"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="133"/>
+      <c r="AI13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="104"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="107"/>
-      <c r="AQ13" s="107"/>
-      <c r="AR13" s="107"/>
-      <c r="AS13" s="107"/>
-      <c r="AT13" s="107"/>
-      <c r="AU13" s="108"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="131"/>
+      <c r="AP13" s="132"/>
+      <c r="AQ13" s="132"/>
+      <c r="AR13" s="132"/>
+      <c r="AS13" s="132"/>
+      <c r="AT13" s="132"/>
+      <c r="AU13" s="133"/>
     </row>
     <row r="14" spans="3:47" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="104"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="104"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="104"/>
-      <c r="AU14" s="105"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="103"/>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="103"/>
+      <c r="AO14" s="103"/>
+      <c r="AP14" s="103"/>
+      <c r="AQ14" s="103"/>
+      <c r="AR14" s="103"/>
+      <c r="AS14" s="103"/>
+      <c r="AT14" s="103"/>
+      <c r="AU14" s="104"/>
     </row>
     <row r="15" spans="3:47" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="114"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="115"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="115"/>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="115"/>
-      <c r="AB15" s="115"/>
-      <c r="AC15" s="115"/>
-      <c r="AD15" s="115"/>
-      <c r="AE15" s="115"/>
-      <c r="AF15" s="115"/>
-      <c r="AG15" s="115"/>
-      <c r="AH15" s="115"/>
-      <c r="AI15" s="115"/>
-      <c r="AJ15" s="115"/>
-      <c r="AK15" s="115"/>
-      <c r="AL15" s="115"/>
-      <c r="AM15" s="115"/>
-      <c r="AN15" s="115"/>
-      <c r="AO15" s="115"/>
-      <c r="AP15" s="115"/>
-      <c r="AQ15" s="115"/>
-      <c r="AR15" s="115"/>
-      <c r="AS15" s="115"/>
-      <c r="AT15" s="115"/>
-      <c r="AU15" s="116"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="135"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="135"/>
+      <c r="AJ15" s="135"/>
+      <c r="AK15" s="135"/>
+      <c r="AL15" s="135"/>
+      <c r="AM15" s="135"/>
+      <c r="AN15" s="135"/>
+      <c r="AO15" s="135"/>
+      <c r="AP15" s="135"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="135"/>
+      <c r="AS15" s="135"/>
+      <c r="AT15" s="135"/>
+      <c r="AU15" s="136"/>
     </row>
     <row r="16" spans="3:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="105"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="103"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="103"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="103"/>
+      <c r="AT16" s="103"/>
+      <c r="AU16" s="104"/>
     </row>
     <row r="17" spans="3:47" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="114"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="115"/>
-      <c r="AA17" s="115"/>
-      <c r="AB17" s="115"/>
-      <c r="AC17" s="115"/>
-      <c r="AD17" s="115"/>
-      <c r="AE17" s="115"/>
-      <c r="AF17" s="115"/>
-      <c r="AG17" s="115"/>
-      <c r="AH17" s="115"/>
-      <c r="AI17" s="115"/>
-      <c r="AJ17" s="115"/>
-      <c r="AK17" s="115"/>
-      <c r="AL17" s="115"/>
-      <c r="AM17" s="115"/>
-      <c r="AN17" s="115"/>
-      <c r="AO17" s="115"/>
-      <c r="AP17" s="115"/>
-      <c r="AQ17" s="115"/>
-      <c r="AR17" s="115"/>
-      <c r="AS17" s="115"/>
-      <c r="AT17" s="115"/>
-      <c r="AU17" s="116"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="135"/>
+      <c r="AJ17" s="135"/>
+      <c r="AK17" s="135"/>
+      <c r="AL17" s="135"/>
+      <c r="AM17" s="135"/>
+      <c r="AN17" s="135"/>
+      <c r="AO17" s="135"/>
+      <c r="AP17" s="135"/>
+      <c r="AQ17" s="135"/>
+      <c r="AR17" s="135"/>
+      <c r="AS17" s="135"/>
+      <c r="AT17" s="135"/>
+      <c r="AU17" s="136"/>
     </row>
     <row r="18" spans="3:47" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="104"/>
-      <c r="AH18" s="104"/>
-      <c r="AI18" s="104"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="104"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="104"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="104"/>
-      <c r="AR18" s="104"/>
-      <c r="AS18" s="104"/>
-      <c r="AT18" s="104"/>
-      <c r="AU18" s="105"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="103"/>
+      <c r="AM18" s="103"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="103"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="103"/>
+      <c r="AR18" s="103"/>
+      <c r="AS18" s="103"/>
+      <c r="AT18" s="103"/>
+      <c r="AU18" s="104"/>
     </row>
     <row r="19" spans="3:47" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="120"/>
-      <c r="AC19" s="120"/>
-      <c r="AD19" s="120"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="120"/>
-      <c r="AM19" s="120"/>
-      <c r="AN19" s="120"/>
-      <c r="AO19" s="120"/>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="120"/>
-      <c r="AR19" s="120"/>
-      <c r="AS19" s="120"/>
-      <c r="AT19" s="120"/>
-      <c r="AU19" s="120"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="105"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="105"/>
+      <c r="AM19" s="105"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="105"/>
+      <c r="AS19" s="105"/>
+      <c r="AT19" s="105"/>
+      <c r="AU19" s="105"/>
     </row>
     <row r="20" spans="3:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="104"/>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="104"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="104"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="104"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="104"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="105"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="103"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="103"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="103"/>
+      <c r="AR20" s="103"/>
+      <c r="AS20" s="103"/>
+      <c r="AT20" s="103"/>
+      <c r="AU20" s="104"/>
     </row>
     <row r="21" spans="3:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="120"/>
-      <c r="AD21" s="120"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="120"/>
-      <c r="AH21" s="120"/>
-      <c r="AI21" s="120"/>
-      <c r="AJ21" s="120"/>
-      <c r="AK21" s="120"/>
-      <c r="AL21" s="120"/>
-      <c r="AM21" s="120"/>
-      <c r="AN21" s="120"/>
-      <c r="AO21" s="120"/>
-      <c r="AP21" s="120"/>
-      <c r="AQ21" s="120"/>
-      <c r="AR21" s="120"/>
-      <c r="AS21" s="120"/>
-      <c r="AT21" s="120"/>
-      <c r="AU21" s="120"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="105"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="105"/>
+      <c r="AM21" s="105"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+      <c r="AQ21" s="105"/>
+      <c r="AR21" s="105"/>
+      <c r="AS21" s="105"/>
+      <c r="AT21" s="105"/>
+      <c r="AU21" s="105"/>
     </row>
     <row r="22" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="104"/>
-      <c r="AG22" s="104"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="104"/>
-      <c r="AJ22" s="104"/>
-      <c r="AK22" s="104"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="104"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="104"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="105"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="103"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="103"/>
+      <c r="AM22" s="103"/>
+      <c r="AN22" s="103"/>
+      <c r="AO22" s="103"/>
+      <c r="AP22" s="103"/>
+      <c r="AQ22" s="103"/>
+      <c r="AR22" s="103"/>
+      <c r="AS22" s="103"/>
+      <c r="AT22" s="103"/>
+      <c r="AU22" s="104"/>
     </row>
     <row r="23" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="107"/>
-      <c r="AA23" s="107"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="107"/>
-      <c r="AH23" s="107"/>
-      <c r="AI23" s="107"/>
-      <c r="AJ23" s="107"/>
-      <c r="AK23" s="107"/>
-      <c r="AL23" s="107"/>
-      <c r="AM23" s="107"/>
-      <c r="AN23" s="107"/>
-      <c r="AO23" s="107"/>
-      <c r="AP23" s="107"/>
-      <c r="AQ23" s="107"/>
-      <c r="AR23" s="107"/>
-      <c r="AS23" s="107"/>
-      <c r="AT23" s="107"/>
-      <c r="AU23" s="108"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="132"/>
+      <c r="AF23" s="132"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="132"/>
+      <c r="AK23" s="132"/>
+      <c r="AL23" s="132"/>
+      <c r="AM23" s="132"/>
+      <c r="AN23" s="132"/>
+      <c r="AO23" s="132"/>
+      <c r="AP23" s="132"/>
+      <c r="AQ23" s="132"/>
+      <c r="AR23" s="132"/>
+      <c r="AS23" s="132"/>
+      <c r="AT23" s="132"/>
+      <c r="AU23" s="133"/>
     </row>
     <row r="24" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="107"/>
-      <c r="AI24" s="107"/>
-      <c r="AJ24" s="107"/>
-      <c r="AK24" s="107"/>
-      <c r="AL24" s="107"/>
-      <c r="AM24" s="107"/>
-      <c r="AN24" s="107"/>
-      <c r="AO24" s="107"/>
-      <c r="AP24" s="107"/>
-      <c r="AQ24" s="107"/>
-      <c r="AR24" s="107"/>
-      <c r="AS24" s="107"/>
-      <c r="AT24" s="107"/>
-      <c r="AU24" s="108"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="132"/>
+      <c r="AF24" s="132"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="132"/>
+      <c r="AJ24" s="132"/>
+      <c r="AK24" s="132"/>
+      <c r="AL24" s="132"/>
+      <c r="AM24" s="132"/>
+      <c r="AN24" s="132"/>
+      <c r="AO24" s="132"/>
+      <c r="AP24" s="132"/>
+      <c r="AQ24" s="132"/>
+      <c r="AR24" s="132"/>
+      <c r="AS24" s="132"/>
+      <c r="AT24" s="132"/>
+      <c r="AU24" s="133"/>
     </row>
     <row r="25" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="107"/>
-      <c r="AI25" s="107"/>
-      <c r="AJ25" s="107"/>
-      <c r="AK25" s="107"/>
-      <c r="AL25" s="107"/>
-      <c r="AM25" s="107"/>
-      <c r="AN25" s="107"/>
-      <c r="AO25" s="107"/>
-      <c r="AP25" s="107"/>
-      <c r="AQ25" s="107"/>
-      <c r="AR25" s="107"/>
-      <c r="AS25" s="107"/>
-      <c r="AT25" s="107"/>
-      <c r="AU25" s="108"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="132"/>
+      <c r="AK25" s="132"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="132"/>
+      <c r="AO25" s="132"/>
+      <c r="AP25" s="132"/>
+      <c r="AQ25" s="132"/>
+      <c r="AR25" s="132"/>
+      <c r="AS25" s="132"/>
+      <c r="AT25" s="132"/>
+      <c r="AU25" s="133"/>
     </row>
     <row r="26" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="110" t="s">
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="110"/>
-      <c r="AL26" s="110"/>
-      <c r="AM26" s="110"/>
-      <c r="AN26" s="110"/>
-      <c r="AO26" s="110"/>
-      <c r="AP26" s="110"/>
-      <c r="AQ26" s="110"/>
-      <c r="AR26" s="110"/>
-      <c r="AS26" s="110"/>
-      <c r="AT26" s="110"/>
-      <c r="AU26" s="111"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="107"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="107"/>
+      <c r="AI26" s="107"/>
+      <c r="AJ26" s="107"/>
+      <c r="AK26" s="107"/>
+      <c r="AL26" s="107"/>
+      <c r="AM26" s="107"/>
+      <c r="AN26" s="107"/>
+      <c r="AO26" s="107"/>
+      <c r="AP26" s="107"/>
+      <c r="AQ26" s="107"/>
+      <c r="AR26" s="107"/>
+      <c r="AS26" s="107"/>
+      <c r="AT26" s="107"/>
+      <c r="AU26" s="108"/>
     </row>
     <row r="27" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="104"/>
-      <c r="AG27" s="104"/>
-      <c r="AH27" s="104"/>
-      <c r="AI27" s="104"/>
-      <c r="AJ27" s="104"/>
-      <c r="AK27" s="104"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="104"/>
-      <c r="AN27" s="104"/>
-      <c r="AO27" s="104"/>
-      <c r="AP27" s="104"/>
-      <c r="AQ27" s="104"/>
-      <c r="AR27" s="104"/>
-      <c r="AS27" s="104"/>
-      <c r="AT27" s="104"/>
-      <c r="AU27" s="105"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="103"/>
+      <c r="AN27" s="103"/>
+      <c r="AO27" s="103"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="103"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="103"/>
+      <c r="AT27" s="103"/>
+      <c r="AU27" s="104"/>
     </row>
     <row r="28" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="121" t="s">
@@ -4565,20 +4618,20 @@
       <c r="K28" s="122"/>
       <c r="L28" s="122"/>
       <c r="M28" s="123"/>
-      <c r="N28" s="112" t="s">
+      <c r="N28" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="130"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
       <c r="Z28" s="121" t="s">
         <v>38</v>
       </c>
@@ -4758,16 +4811,16 @@
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
@@ -4780,43 +4833,43 @@
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
       <c r="Y31" s="24"/>
-      <c r="Z31" s="133"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="133"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="135"/>
-      <c r="AI31" s="133"/>
-      <c r="AJ31" s="134"/>
-      <c r="AK31" s="135"/>
-      <c r="AL31" s="133"/>
-      <c r="AM31" s="134"/>
-      <c r="AN31" s="134"/>
-      <c r="AO31" s="134"/>
-      <c r="AP31" s="135"/>
-      <c r="AQ31" s="133"/>
-      <c r="AR31" s="134"/>
-      <c r="AS31" s="134"/>
-      <c r="AT31" s="134"/>
-      <c r="AU31" s="135"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="119"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="118"/>
+      <c r="AG31" s="119"/>
+      <c r="AH31" s="120"/>
+      <c r="AI31" s="118"/>
+      <c r="AJ31" s="119"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="118"/>
+      <c r="AM31" s="119"/>
+      <c r="AN31" s="119"/>
+      <c r="AO31" s="119"/>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="118"/>
+      <c r="AR31" s="119"/>
+      <c r="AS31" s="119"/>
+      <c r="AT31" s="119"/>
+      <c r="AU31" s="120"/>
     </row>
     <row r="32" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
@@ -4829,43 +4882,43 @@
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
       <c r="Y32" s="24"/>
-      <c r="Z32" s="133"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="135"/>
-      <c r="AF32" s="133"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="135"/>
-      <c r="AI32" s="133"/>
-      <c r="AJ32" s="134"/>
-      <c r="AK32" s="135"/>
-      <c r="AL32" s="133"/>
-      <c r="AM32" s="134"/>
-      <c r="AN32" s="134"/>
-      <c r="AO32" s="134"/>
-      <c r="AP32" s="135"/>
-      <c r="AQ32" s="133"/>
-      <c r="AR32" s="134"/>
-      <c r="AS32" s="134"/>
-      <c r="AT32" s="134"/>
-      <c r="AU32" s="135"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="119"/>
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="119"/>
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="118"/>
+      <c r="AG32" s="119"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="118"/>
+      <c r="AJ32" s="119"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="119"/>
+      <c r="AN32" s="119"/>
+      <c r="AO32" s="119"/>
+      <c r="AP32" s="120"/>
+      <c r="AQ32" s="118"/>
+      <c r="AR32" s="119"/>
+      <c r="AS32" s="119"/>
+      <c r="AT32" s="119"/>
+      <c r="AU32" s="120"/>
     </row>
     <row r="33" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
       <c r="N33" s="24"/>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -4878,43 +4931,43 @@
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
       <c r="Y33" s="24"/>
-      <c r="Z33" s="133"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="135"/>
-      <c r="AF33" s="133"/>
-      <c r="AG33" s="134"/>
-      <c r="AH33" s="135"/>
-      <c r="AI33" s="133"/>
-      <c r="AJ33" s="134"/>
-      <c r="AK33" s="135"/>
-      <c r="AL33" s="133"/>
-      <c r="AM33" s="134"/>
-      <c r="AN33" s="134"/>
-      <c r="AO33" s="134"/>
-      <c r="AP33" s="135"/>
-      <c r="AQ33" s="133"/>
-      <c r="AR33" s="134"/>
-      <c r="AS33" s="134"/>
-      <c r="AT33" s="134"/>
-      <c r="AU33" s="135"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="119"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="118"/>
+      <c r="AG33" s="119"/>
+      <c r="AH33" s="120"/>
+      <c r="AI33" s="118"/>
+      <c r="AJ33" s="119"/>
+      <c r="AK33" s="120"/>
+      <c r="AL33" s="118"/>
+      <c r="AM33" s="119"/>
+      <c r="AN33" s="119"/>
+      <c r="AO33" s="119"/>
+      <c r="AP33" s="120"/>
+      <c r="AQ33" s="118"/>
+      <c r="AR33" s="119"/>
+      <c r="AS33" s="119"/>
+      <c r="AT33" s="119"/>
+      <c r="AU33" s="120"/>
     </row>
     <row r="34" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <v>4</v>
       </c>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -4927,43 +4980,43 @@
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>
       <c r="Y34" s="24"/>
-      <c r="Z34" s="133"/>
-      <c r="AA34" s="134"/>
-      <c r="AB34" s="134"/>
-      <c r="AC34" s="134"/>
-      <c r="AD34" s="134"/>
-      <c r="AE34" s="135"/>
-      <c r="AF34" s="133"/>
-      <c r="AG34" s="134"/>
-      <c r="AH34" s="135"/>
-      <c r="AI34" s="133"/>
-      <c r="AJ34" s="134"/>
-      <c r="AK34" s="135"/>
-      <c r="AL34" s="133"/>
-      <c r="AM34" s="134"/>
-      <c r="AN34" s="134"/>
-      <c r="AO34" s="134"/>
-      <c r="AP34" s="135"/>
-      <c r="AQ34" s="133"/>
-      <c r="AR34" s="134"/>
-      <c r="AS34" s="134"/>
-      <c r="AT34" s="134"/>
-      <c r="AU34" s="135"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="119"/>
+      <c r="AB34" s="119"/>
+      <c r="AC34" s="119"/>
+      <c r="AD34" s="119"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="118"/>
+      <c r="AG34" s="119"/>
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="118"/>
+      <c r="AJ34" s="119"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="118"/>
+      <c r="AM34" s="119"/>
+      <c r="AN34" s="119"/>
+      <c r="AO34" s="119"/>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="118"/>
+      <c r="AR34" s="119"/>
+      <c r="AS34" s="119"/>
+      <c r="AT34" s="119"/>
+      <c r="AU34" s="120"/>
     </row>
     <row r="35" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -4976,43 +5029,43 @@
       <c r="W35" s="24"/>
       <c r="X35" s="24"/>
       <c r="Y35" s="24"/>
-      <c r="Z35" s="133"/>
-      <c r="AA35" s="134"/>
-      <c r="AB35" s="134"/>
-      <c r="AC35" s="134"/>
-      <c r="AD35" s="134"/>
-      <c r="AE35" s="135"/>
-      <c r="AF35" s="133"/>
-      <c r="AG35" s="134"/>
-      <c r="AH35" s="135"/>
-      <c r="AI35" s="133"/>
-      <c r="AJ35" s="134"/>
-      <c r="AK35" s="135"/>
-      <c r="AL35" s="133"/>
-      <c r="AM35" s="134"/>
-      <c r="AN35" s="134"/>
-      <c r="AO35" s="134"/>
-      <c r="AP35" s="135"/>
-      <c r="AQ35" s="133"/>
-      <c r="AR35" s="134"/>
-      <c r="AS35" s="134"/>
-      <c r="AT35" s="134"/>
-      <c r="AU35" s="135"/>
+      <c r="Z35" s="118"/>
+      <c r="AA35" s="119"/>
+      <c r="AB35" s="119"/>
+      <c r="AC35" s="119"/>
+      <c r="AD35" s="119"/>
+      <c r="AE35" s="120"/>
+      <c r="AF35" s="118"/>
+      <c r="AG35" s="119"/>
+      <c r="AH35" s="120"/>
+      <c r="AI35" s="118"/>
+      <c r="AJ35" s="119"/>
+      <c r="AK35" s="120"/>
+      <c r="AL35" s="118"/>
+      <c r="AM35" s="119"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="120"/>
+      <c r="AQ35" s="118"/>
+      <c r="AR35" s="119"/>
+      <c r="AS35" s="119"/>
+      <c r="AT35" s="119"/>
+      <c r="AU35" s="120"/>
     </row>
     <row r="36" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <v>6</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
@@ -5025,43 +5078,43 @@
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
       <c r="Y36" s="24"/>
-      <c r="Z36" s="133"/>
-      <c r="AA36" s="134"/>
-      <c r="AB36" s="134"/>
-      <c r="AC36" s="134"/>
-      <c r="AD36" s="134"/>
-      <c r="AE36" s="135"/>
-      <c r="AF36" s="133"/>
-      <c r="AG36" s="134"/>
-      <c r="AH36" s="135"/>
-      <c r="AI36" s="133"/>
-      <c r="AJ36" s="134"/>
-      <c r="AK36" s="135"/>
-      <c r="AL36" s="133"/>
-      <c r="AM36" s="134"/>
-      <c r="AN36" s="134"/>
-      <c r="AO36" s="134"/>
-      <c r="AP36" s="135"/>
-      <c r="AQ36" s="133"/>
-      <c r="AR36" s="134"/>
-      <c r="AS36" s="134"/>
-      <c r="AT36" s="134"/>
-      <c r="AU36" s="135"/>
+      <c r="Z36" s="118"/>
+      <c r="AA36" s="119"/>
+      <c r="AB36" s="119"/>
+      <c r="AC36" s="119"/>
+      <c r="AD36" s="119"/>
+      <c r="AE36" s="120"/>
+      <c r="AF36" s="118"/>
+      <c r="AG36" s="119"/>
+      <c r="AH36" s="120"/>
+      <c r="AI36" s="118"/>
+      <c r="AJ36" s="119"/>
+      <c r="AK36" s="120"/>
+      <c r="AL36" s="118"/>
+      <c r="AM36" s="119"/>
+      <c r="AN36" s="119"/>
+      <c r="AO36" s="119"/>
+      <c r="AP36" s="120"/>
+      <c r="AQ36" s="118"/>
+      <c r="AR36" s="119"/>
+      <c r="AS36" s="119"/>
+      <c r="AT36" s="119"/>
+      <c r="AU36" s="120"/>
     </row>
     <row r="37" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <v>7</v>
       </c>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
@@ -5074,43 +5127,43 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
       <c r="Y37" s="24"/>
-      <c r="Z37" s="133"/>
-      <c r="AA37" s="134"/>
-      <c r="AB37" s="134"/>
-      <c r="AC37" s="134"/>
-      <c r="AD37" s="134"/>
-      <c r="AE37" s="135"/>
-      <c r="AF37" s="133"/>
-      <c r="AG37" s="134"/>
-      <c r="AH37" s="135"/>
-      <c r="AI37" s="133"/>
-      <c r="AJ37" s="134"/>
-      <c r="AK37" s="135"/>
-      <c r="AL37" s="133"/>
-      <c r="AM37" s="134"/>
-      <c r="AN37" s="134"/>
-      <c r="AO37" s="134"/>
-      <c r="AP37" s="135"/>
-      <c r="AQ37" s="133"/>
-      <c r="AR37" s="134"/>
-      <c r="AS37" s="134"/>
-      <c r="AT37" s="134"/>
-      <c r="AU37" s="135"/>
+      <c r="Z37" s="118"/>
+      <c r="AA37" s="119"/>
+      <c r="AB37" s="119"/>
+      <c r="AC37" s="119"/>
+      <c r="AD37" s="119"/>
+      <c r="AE37" s="120"/>
+      <c r="AF37" s="118"/>
+      <c r="AG37" s="119"/>
+      <c r="AH37" s="120"/>
+      <c r="AI37" s="118"/>
+      <c r="AJ37" s="119"/>
+      <c r="AK37" s="120"/>
+      <c r="AL37" s="118"/>
+      <c r="AM37" s="119"/>
+      <c r="AN37" s="119"/>
+      <c r="AO37" s="119"/>
+      <c r="AP37" s="120"/>
+      <c r="AQ37" s="118"/>
+      <c r="AR37" s="119"/>
+      <c r="AS37" s="119"/>
+      <c r="AT37" s="119"/>
+      <c r="AU37" s="120"/>
     </row>
     <row r="38" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <v>8</v>
       </c>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
@@ -5123,43 +5176,43 @@
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
       <c r="Y38" s="24"/>
-      <c r="Z38" s="133"/>
-      <c r="AA38" s="134"/>
-      <c r="AB38" s="134"/>
-      <c r="AC38" s="134"/>
-      <c r="AD38" s="134"/>
-      <c r="AE38" s="135"/>
-      <c r="AF38" s="133"/>
-      <c r="AG38" s="134"/>
-      <c r="AH38" s="135"/>
-      <c r="AI38" s="133"/>
-      <c r="AJ38" s="134"/>
-      <c r="AK38" s="135"/>
-      <c r="AL38" s="133"/>
-      <c r="AM38" s="134"/>
-      <c r="AN38" s="134"/>
-      <c r="AO38" s="134"/>
-      <c r="AP38" s="135"/>
-      <c r="AQ38" s="133"/>
-      <c r="AR38" s="134"/>
-      <c r="AS38" s="134"/>
-      <c r="AT38" s="134"/>
-      <c r="AU38" s="135"/>
+      <c r="Z38" s="118"/>
+      <c r="AA38" s="119"/>
+      <c r="AB38" s="119"/>
+      <c r="AC38" s="119"/>
+      <c r="AD38" s="119"/>
+      <c r="AE38" s="120"/>
+      <c r="AF38" s="118"/>
+      <c r="AG38" s="119"/>
+      <c r="AH38" s="120"/>
+      <c r="AI38" s="118"/>
+      <c r="AJ38" s="119"/>
+      <c r="AK38" s="120"/>
+      <c r="AL38" s="118"/>
+      <c r="AM38" s="119"/>
+      <c r="AN38" s="119"/>
+      <c r="AO38" s="119"/>
+      <c r="AP38" s="120"/>
+      <c r="AQ38" s="118"/>
+      <c r="AR38" s="119"/>
+      <c r="AS38" s="119"/>
+      <c r="AT38" s="119"/>
+      <c r="AU38" s="120"/>
     </row>
     <row r="39" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <v>9</v>
       </c>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
@@ -5172,43 +5225,43 @@
       <c r="W39" s="24"/>
       <c r="X39" s="24"/>
       <c r="Y39" s="24"/>
-      <c r="Z39" s="133"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
-      <c r="AC39" s="134"/>
-      <c r="AD39" s="134"/>
-      <c r="AE39" s="135"/>
-      <c r="AF39" s="133"/>
-      <c r="AG39" s="134"/>
-      <c r="AH39" s="135"/>
-      <c r="AI39" s="133"/>
-      <c r="AJ39" s="134"/>
-      <c r="AK39" s="135"/>
-      <c r="AL39" s="133"/>
-      <c r="AM39" s="134"/>
-      <c r="AN39" s="134"/>
-      <c r="AO39" s="134"/>
-      <c r="AP39" s="135"/>
-      <c r="AQ39" s="133"/>
-      <c r="AR39" s="134"/>
-      <c r="AS39" s="134"/>
-      <c r="AT39" s="134"/>
-      <c r="AU39" s="135"/>
+      <c r="Z39" s="118"/>
+      <c r="AA39" s="119"/>
+      <c r="AB39" s="119"/>
+      <c r="AC39" s="119"/>
+      <c r="AD39" s="119"/>
+      <c r="AE39" s="120"/>
+      <c r="AF39" s="118"/>
+      <c r="AG39" s="119"/>
+      <c r="AH39" s="120"/>
+      <c r="AI39" s="118"/>
+      <c r="AJ39" s="119"/>
+      <c r="AK39" s="120"/>
+      <c r="AL39" s="118"/>
+      <c r="AM39" s="119"/>
+      <c r="AN39" s="119"/>
+      <c r="AO39" s="119"/>
+      <c r="AP39" s="120"/>
+      <c r="AQ39" s="118"/>
+      <c r="AR39" s="119"/>
+      <c r="AS39" s="119"/>
+      <c r="AT39" s="119"/>
+      <c r="AU39" s="120"/>
     </row>
     <row r="40" spans="3:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <v>10</v>
       </c>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
@@ -5221,906 +5274,906 @@
       <c r="W40" s="24"/>
       <c r="X40" s="24"/>
       <c r="Y40" s="24"/>
-      <c r="Z40" s="133"/>
-      <c r="AA40" s="134"/>
-      <c r="AB40" s="134"/>
-      <c r="AC40" s="134"/>
-      <c r="AD40" s="134"/>
-      <c r="AE40" s="135"/>
-      <c r="AF40" s="133"/>
-      <c r="AG40" s="134"/>
-      <c r="AH40" s="135"/>
-      <c r="AI40" s="133"/>
-      <c r="AJ40" s="134"/>
-      <c r="AK40" s="135"/>
-      <c r="AL40" s="133"/>
-      <c r="AM40" s="134"/>
-      <c r="AN40" s="134"/>
-      <c r="AO40" s="134"/>
-      <c r="AP40" s="135"/>
-      <c r="AQ40" s="133"/>
-      <c r="AR40" s="134"/>
-      <c r="AS40" s="134"/>
-      <c r="AT40" s="134"/>
-      <c r="AU40" s="135"/>
+      <c r="Z40" s="118"/>
+      <c r="AA40" s="119"/>
+      <c r="AB40" s="119"/>
+      <c r="AC40" s="119"/>
+      <c r="AD40" s="119"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="118"/>
+      <c r="AG40" s="119"/>
+      <c r="AH40" s="120"/>
+      <c r="AI40" s="118"/>
+      <c r="AJ40" s="119"/>
+      <c r="AK40" s="120"/>
+      <c r="AL40" s="118"/>
+      <c r="AM40" s="119"/>
+      <c r="AN40" s="119"/>
+      <c r="AO40" s="119"/>
+      <c r="AP40" s="120"/>
+      <c r="AQ40" s="118"/>
+      <c r="AR40" s="119"/>
+      <c r="AS40" s="119"/>
+      <c r="AT40" s="119"/>
+      <c r="AU40" s="120"/>
     </row>
     <row r="41" spans="3:47" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="110" t="s">
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="110"/>
-      <c r="W41" s="110"/>
-      <c r="X41" s="110"/>
-      <c r="Y41" s="110"/>
-      <c r="Z41" s="110"/>
-      <c r="AA41" s="110"/>
-      <c r="AB41" s="110"/>
-      <c r="AC41" s="110"/>
-      <c r="AD41" s="110"/>
-      <c r="AE41" s="110"/>
-      <c r="AF41" s="110"/>
-      <c r="AG41" s="110"/>
-      <c r="AH41" s="110"/>
-      <c r="AI41" s="110"/>
-      <c r="AJ41" s="110"/>
-      <c r="AK41" s="110"/>
-      <c r="AL41" s="110"/>
-      <c r="AM41" s="110"/>
-      <c r="AN41" s="110"/>
-      <c r="AO41" s="110"/>
-      <c r="AP41" s="110"/>
-      <c r="AQ41" s="110"/>
-      <c r="AR41" s="110"/>
-      <c r="AS41" s="110"/>
-      <c r="AT41" s="110"/>
-      <c r="AU41" s="111"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="107"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="107"/>
+      <c r="AI41" s="107"/>
+      <c r="AJ41" s="107"/>
+      <c r="AK41" s="107"/>
+      <c r="AL41" s="107"/>
+      <c r="AM41" s="107"/>
+      <c r="AN41" s="107"/>
+      <c r="AO41" s="107"/>
+      <c r="AP41" s="107"/>
+      <c r="AQ41" s="107"/>
+      <c r="AR41" s="107"/>
+      <c r="AS41" s="107"/>
+      <c r="AT41" s="107"/>
+      <c r="AU41" s="108"/>
     </row>
     <row r="42" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="104"/>
-      <c r="U42" s="104"/>
-      <c r="V42" s="104"/>
-      <c r="W42" s="104"/>
-      <c r="X42" s="104"/>
-      <c r="Y42" s="104"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="104"/>
-      <c r="AC42" s="104"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="104"/>
-      <c r="AF42" s="104"/>
-      <c r="AG42" s="104"/>
-      <c r="AH42" s="104"/>
-      <c r="AI42" s="104"/>
-      <c r="AJ42" s="104"/>
-      <c r="AK42" s="104"/>
-      <c r="AL42" s="104"/>
-      <c r="AM42" s="104"/>
-      <c r="AN42" s="104"/>
-      <c r="AO42" s="104"/>
-      <c r="AP42" s="104"/>
-      <c r="AQ42" s="104"/>
-      <c r="AR42" s="104"/>
-      <c r="AS42" s="104"/>
-      <c r="AT42" s="104"/>
-      <c r="AU42" s="105"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="103"/>
+      <c r="V42" s="103"/>
+      <c r="W42" s="103"/>
+      <c r="X42" s="103"/>
+      <c r="Y42" s="103"/>
+      <c r="Z42" s="103"/>
+      <c r="AA42" s="103"/>
+      <c r="AB42" s="103"/>
+      <c r="AC42" s="103"/>
+      <c r="AD42" s="103"/>
+      <c r="AE42" s="103"/>
+      <c r="AF42" s="103"/>
+      <c r="AG42" s="103"/>
+      <c r="AH42" s="103"/>
+      <c r="AI42" s="103"/>
+      <c r="AJ42" s="103"/>
+      <c r="AK42" s="103"/>
+      <c r="AL42" s="103"/>
+      <c r="AM42" s="103"/>
+      <c r="AN42" s="103"/>
+      <c r="AO42" s="103"/>
+      <c r="AP42" s="103"/>
+      <c r="AQ42" s="103"/>
+      <c r="AR42" s="103"/>
+      <c r="AS42" s="103"/>
+      <c r="AT42" s="103"/>
+      <c r="AU42" s="104"/>
     </row>
     <row r="43" spans="3:47" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120"/>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="120"/>
-      <c r="AA43" s="120"/>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="120"/>
-      <c r="AE43" s="120"/>
-      <c r="AF43" s="120"/>
-      <c r="AG43" s="120"/>
-      <c r="AH43" s="120"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="120"/>
-      <c r="AK43" s="120"/>
-      <c r="AL43" s="120"/>
-      <c r="AM43" s="120"/>
-      <c r="AN43" s="120"/>
-      <c r="AO43" s="120"/>
-      <c r="AP43" s="120"/>
-      <c r="AQ43" s="120"/>
-      <c r="AR43" s="120"/>
-      <c r="AS43" s="120"/>
-      <c r="AT43" s="120"/>
-      <c r="AU43" s="120"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="105"/>
+      <c r="Y43" s="105"/>
+      <c r="Z43" s="105"/>
+      <c r="AA43" s="105"/>
+      <c r="AB43" s="105"/>
+      <c r="AC43" s="105"/>
+      <c r="AD43" s="105"/>
+      <c r="AE43" s="105"/>
+      <c r="AF43" s="105"/>
+      <c r="AG43" s="105"/>
+      <c r="AH43" s="105"/>
+      <c r="AI43" s="105"/>
+      <c r="AJ43" s="105"/>
+      <c r="AK43" s="105"/>
+      <c r="AL43" s="105"/>
+      <c r="AM43" s="105"/>
+      <c r="AN43" s="105"/>
+      <c r="AO43" s="105"/>
+      <c r="AP43" s="105"/>
+      <c r="AQ43" s="105"/>
+      <c r="AR43" s="105"/>
+      <c r="AS43" s="105"/>
+      <c r="AT43" s="105"/>
+      <c r="AU43" s="105"/>
     </row>
     <row r="44" spans="3:47" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="104"/>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="104"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="104"/>
-      <c r="P44" s="104"/>
-      <c r="Q44" s="104"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="104"/>
-      <c r="T44" s="104"/>
-      <c r="U44" s="104"/>
-      <c r="V44" s="104"/>
-      <c r="W44" s="104"/>
-      <c r="X44" s="104"/>
-      <c r="Y44" s="104"/>
-      <c r="Z44" s="104"/>
-      <c r="AA44" s="104"/>
-      <c r="AB44" s="104"/>
-      <c r="AC44" s="104"/>
-      <c r="AD44" s="104"/>
-      <c r="AE44" s="104"/>
-      <c r="AF44" s="104"/>
-      <c r="AG44" s="104"/>
-      <c r="AH44" s="104"/>
-      <c r="AI44" s="104"/>
-      <c r="AJ44" s="104"/>
-      <c r="AK44" s="104"/>
-      <c r="AL44" s="104"/>
-      <c r="AM44" s="104"/>
-      <c r="AN44" s="104"/>
-      <c r="AO44" s="104"/>
-      <c r="AP44" s="104"/>
-      <c r="AQ44" s="104"/>
-      <c r="AR44" s="104"/>
-      <c r="AS44" s="104"/>
-      <c r="AT44" s="104"/>
-      <c r="AU44" s="105"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="103"/>
+      <c r="U44" s="103"/>
+      <c r="V44" s="103"/>
+      <c r="W44" s="103"/>
+      <c r="X44" s="103"/>
+      <c r="Y44" s="103"/>
+      <c r="Z44" s="103"/>
+      <c r="AA44" s="103"/>
+      <c r="AB44" s="103"/>
+      <c r="AC44" s="103"/>
+      <c r="AD44" s="103"/>
+      <c r="AE44" s="103"/>
+      <c r="AF44" s="103"/>
+      <c r="AG44" s="103"/>
+      <c r="AH44" s="103"/>
+      <c r="AI44" s="103"/>
+      <c r="AJ44" s="103"/>
+      <c r="AK44" s="103"/>
+      <c r="AL44" s="103"/>
+      <c r="AM44" s="103"/>
+      <c r="AN44" s="103"/>
+      <c r="AO44" s="103"/>
+      <c r="AP44" s="103"/>
+      <c r="AQ44" s="103"/>
+      <c r="AR44" s="103"/>
+      <c r="AS44" s="103"/>
+      <c r="AT44" s="103"/>
+      <c r="AU44" s="104"/>
     </row>
     <row r="45" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="120"/>
-      <c r="T45" s="120"/>
-      <c r="U45" s="120"/>
-      <c r="V45" s="120"/>
-      <c r="W45" s="120"/>
-      <c r="X45" s="120"/>
-      <c r="Y45" s="120"/>
-      <c r="Z45" s="120"/>
-      <c r="AA45" s="120"/>
-      <c r="AB45" s="120"/>
-      <c r="AC45" s="120"/>
-      <c r="AD45" s="120"/>
-      <c r="AE45" s="120"/>
-      <c r="AF45" s="120"/>
-      <c r="AG45" s="120"/>
-      <c r="AH45" s="120"/>
-      <c r="AI45" s="120"/>
-      <c r="AJ45" s="120"/>
-      <c r="AK45" s="120"/>
-      <c r="AL45" s="120"/>
-      <c r="AM45" s="120"/>
-      <c r="AN45" s="120"/>
-      <c r="AO45" s="120"/>
-      <c r="AP45" s="120"/>
-      <c r="AQ45" s="120"/>
-      <c r="AR45" s="120"/>
-      <c r="AS45" s="120"/>
-      <c r="AT45" s="120"/>
-      <c r="AU45" s="120"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="105"/>
+      <c r="T45" s="105"/>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="105"/>
+      <c r="Z45" s="105"/>
+      <c r="AA45" s="105"/>
+      <c r="AB45" s="105"/>
+      <c r="AC45" s="105"/>
+      <c r="AD45" s="105"/>
+      <c r="AE45" s="105"/>
+      <c r="AF45" s="105"/>
+      <c r="AG45" s="105"/>
+      <c r="AH45" s="105"/>
+      <c r="AI45" s="105"/>
+      <c r="AJ45" s="105"/>
+      <c r="AK45" s="105"/>
+      <c r="AL45" s="105"/>
+      <c r="AM45" s="105"/>
+      <c r="AN45" s="105"/>
+      <c r="AO45" s="105"/>
+      <c r="AP45" s="105"/>
+      <c r="AQ45" s="105"/>
+      <c r="AR45" s="105"/>
+      <c r="AS45" s="105"/>
+      <c r="AT45" s="105"/>
+      <c r="AU45" s="105"/>
     </row>
     <row r="46" spans="3:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="103" t="s">
+      <c r="C46" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="104"/>
-      <c r="U46" s="104"/>
-      <c r="V46" s="104"/>
-      <c r="W46" s="104"/>
-      <c r="X46" s="104"/>
-      <c r="Y46" s="104"/>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="104"/>
-      <c r="AB46" s="104"/>
-      <c r="AC46" s="104"/>
-      <c r="AD46" s="104"/>
-      <c r="AE46" s="104"/>
-      <c r="AF46" s="104"/>
-      <c r="AG46" s="104"/>
-      <c r="AH46" s="104"/>
-      <c r="AI46" s="104"/>
-      <c r="AJ46" s="104"/>
-      <c r="AK46" s="104"/>
-      <c r="AL46" s="104"/>
-      <c r="AM46" s="104"/>
-      <c r="AN46" s="104"/>
-      <c r="AO46" s="104"/>
-      <c r="AP46" s="104"/>
-      <c r="AQ46" s="104"/>
-      <c r="AR46" s="104"/>
-      <c r="AS46" s="104"/>
-      <c r="AT46" s="104"/>
-      <c r="AU46" s="105"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="103"/>
+      <c r="W46" s="103"/>
+      <c r="X46" s="103"/>
+      <c r="Y46" s="103"/>
+      <c r="Z46" s="103"/>
+      <c r="AA46" s="103"/>
+      <c r="AB46" s="103"/>
+      <c r="AC46" s="103"/>
+      <c r="AD46" s="103"/>
+      <c r="AE46" s="103"/>
+      <c r="AF46" s="103"/>
+      <c r="AG46" s="103"/>
+      <c r="AH46" s="103"/>
+      <c r="AI46" s="103"/>
+      <c r="AJ46" s="103"/>
+      <c r="AK46" s="103"/>
+      <c r="AL46" s="103"/>
+      <c r="AM46" s="103"/>
+      <c r="AN46" s="103"/>
+      <c r="AO46" s="103"/>
+      <c r="AP46" s="103"/>
+      <c r="AQ46" s="103"/>
+      <c r="AR46" s="103"/>
+      <c r="AS46" s="103"/>
+      <c r="AT46" s="103"/>
+      <c r="AU46" s="104"/>
     </row>
     <row r="47" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="120"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="120"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="120"/>
-      <c r="X47" s="120"/>
-      <c r="Y47" s="120"/>
-      <c r="Z47" s="120"/>
-      <c r="AA47" s="120"/>
-      <c r="AB47" s="120"/>
-      <c r="AC47" s="120"/>
-      <c r="AD47" s="120"/>
-      <c r="AE47" s="120"/>
-      <c r="AF47" s="120"/>
-      <c r="AG47" s="120"/>
-      <c r="AH47" s="120"/>
-      <c r="AI47" s="120"/>
-      <c r="AJ47" s="120"/>
-      <c r="AK47" s="120"/>
-      <c r="AL47" s="120"/>
-      <c r="AM47" s="120"/>
-      <c r="AN47" s="120"/>
-      <c r="AO47" s="120"/>
-      <c r="AP47" s="120"/>
-      <c r="AQ47" s="120"/>
-      <c r="AR47" s="120"/>
-      <c r="AS47" s="120"/>
-      <c r="AT47" s="120"/>
-      <c r="AU47" s="120"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="105"/>
+      <c r="T47" s="105"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="105"/>
+      <c r="X47" s="105"/>
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="105"/>
+      <c r="AA47" s="105"/>
+      <c r="AB47" s="105"/>
+      <c r="AC47" s="105"/>
+      <c r="AD47" s="105"/>
+      <c r="AE47" s="105"/>
+      <c r="AF47" s="105"/>
+      <c r="AG47" s="105"/>
+      <c r="AH47" s="105"/>
+      <c r="AI47" s="105"/>
+      <c r="AJ47" s="105"/>
+      <c r="AK47" s="105"/>
+      <c r="AL47" s="105"/>
+      <c r="AM47" s="105"/>
+      <c r="AN47" s="105"/>
+      <c r="AO47" s="105"/>
+      <c r="AP47" s="105"/>
+      <c r="AQ47" s="105"/>
+      <c r="AR47" s="105"/>
+      <c r="AS47" s="105"/>
+      <c r="AT47" s="105"/>
+      <c r="AU47" s="105"/>
     </row>
     <row r="48" spans="3:47" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="103" t="s">
+      <c r="C48" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="104"/>
-      <c r="S48" s="104"/>
-      <c r="T48" s="104"/>
-      <c r="U48" s="104"/>
-      <c r="V48" s="104"/>
-      <c r="W48" s="104"/>
-      <c r="X48" s="104"/>
-      <c r="Y48" s="104"/>
-      <c r="Z48" s="104"/>
-      <c r="AA48" s="104"/>
-      <c r="AB48" s="104"/>
-      <c r="AC48" s="104"/>
-      <c r="AD48" s="104"/>
-      <c r="AE48" s="104"/>
-      <c r="AF48" s="104"/>
-      <c r="AG48" s="104"/>
-      <c r="AH48" s="104"/>
-      <c r="AI48" s="104"/>
-      <c r="AJ48" s="104"/>
-      <c r="AK48" s="104"/>
-      <c r="AL48" s="104"/>
-      <c r="AM48" s="104"/>
-      <c r="AN48" s="104"/>
-      <c r="AO48" s="104"/>
-      <c r="AP48" s="104"/>
-      <c r="AQ48" s="104"/>
-      <c r="AR48" s="104"/>
-      <c r="AS48" s="104"/>
-      <c r="AT48" s="104"/>
-      <c r="AU48" s="105"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="103"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="103"/>
+      <c r="U48" s="103"/>
+      <c r="V48" s="103"/>
+      <c r="W48" s="103"/>
+      <c r="X48" s="103"/>
+      <c r="Y48" s="103"/>
+      <c r="Z48" s="103"/>
+      <c r="AA48" s="103"/>
+      <c r="AB48" s="103"/>
+      <c r="AC48" s="103"/>
+      <c r="AD48" s="103"/>
+      <c r="AE48" s="103"/>
+      <c r="AF48" s="103"/>
+      <c r="AG48" s="103"/>
+      <c r="AH48" s="103"/>
+      <c r="AI48" s="103"/>
+      <c r="AJ48" s="103"/>
+      <c r="AK48" s="103"/>
+      <c r="AL48" s="103"/>
+      <c r="AM48" s="103"/>
+      <c r="AN48" s="103"/>
+      <c r="AO48" s="103"/>
+      <c r="AP48" s="103"/>
+      <c r="AQ48" s="103"/>
+      <c r="AR48" s="103"/>
+      <c r="AS48" s="103"/>
+      <c r="AT48" s="103"/>
+      <c r="AU48" s="104"/>
     </row>
     <row r="49" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="136" t="s">
+      <c r="C49" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="136" t="s">
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="136"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="136"/>
-      <c r="O49" s="136"/>
-      <c r="P49" s="136"/>
-      <c r="Q49" s="136"/>
-      <c r="R49" s="136"/>
-      <c r="S49" s="136"/>
-      <c r="T49" s="136"/>
-      <c r="U49" s="136"/>
-      <c r="V49" s="136"/>
-      <c r="W49" s="136"/>
-      <c r="X49" s="136"/>
-      <c r="Y49" s="136"/>
-      <c r="Z49" s="136"/>
-      <c r="AA49" s="136" t="s">
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
+      <c r="Y49" s="114"/>
+      <c r="Z49" s="114"/>
+      <c r="AA49" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="AB49" s="136"/>
-      <c r="AC49" s="136"/>
-      <c r="AD49" s="136"/>
-      <c r="AE49" s="136"/>
-      <c r="AF49" s="136"/>
-      <c r="AG49" s="136"/>
-      <c r="AH49" s="136"/>
-      <c r="AI49" s="136"/>
-      <c r="AJ49" s="136"/>
-      <c r="AK49" s="136" t="s">
+      <c r="AB49" s="114"/>
+      <c r="AC49" s="114"/>
+      <c r="AD49" s="114"/>
+      <c r="AE49" s="114"/>
+      <c r="AF49" s="114"/>
+      <c r="AG49" s="114"/>
+      <c r="AH49" s="114"/>
+      <c r="AI49" s="114"/>
+      <c r="AJ49" s="114"/>
+      <c r="AK49" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="AL49" s="136"/>
-      <c r="AM49" s="136"/>
-      <c r="AN49" s="136"/>
-      <c r="AO49" s="136"/>
-      <c r="AP49" s="136"/>
-      <c r="AQ49" s="136"/>
-      <c r="AR49" s="136"/>
-      <c r="AS49" s="136"/>
-      <c r="AT49" s="136"/>
-      <c r="AU49" s="136"/>
+      <c r="AL49" s="114"/>
+      <c r="AM49" s="114"/>
+      <c r="AN49" s="114"/>
+      <c r="AO49" s="114"/>
+      <c r="AP49" s="114"/>
+      <c r="AQ49" s="114"/>
+      <c r="AR49" s="114"/>
+      <c r="AS49" s="114"/>
+      <c r="AT49" s="114"/>
+      <c r="AU49" s="114"/>
     </row>
     <row r="50" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="138"/>
-      <c r="P50" s="138"/>
-      <c r="Q50" s="138"/>
-      <c r="R50" s="138"/>
-      <c r="S50" s="138"/>
-      <c r="T50" s="138"/>
-      <c r="U50" s="138"/>
-      <c r="V50" s="138"/>
-      <c r="W50" s="138"/>
-      <c r="X50" s="138"/>
-      <c r="Y50" s="138"/>
-      <c r="Z50" s="138"/>
-      <c r="AA50" s="138"/>
-      <c r="AB50" s="138"/>
-      <c r="AC50" s="138"/>
-      <c r="AD50" s="138"/>
-      <c r="AE50" s="138"/>
-      <c r="AF50" s="138"/>
-      <c r="AG50" s="138"/>
-      <c r="AH50" s="138"/>
-      <c r="AI50" s="138"/>
-      <c r="AJ50" s="138"/>
-      <c r="AK50" s="137"/>
-      <c r="AL50" s="137"/>
-      <c r="AM50" s="137"/>
-      <c r="AN50" s="137"/>
-      <c r="AO50" s="137"/>
-      <c r="AP50" s="137"/>
-      <c r="AQ50" s="137"/>
-      <c r="AR50" s="137"/>
-      <c r="AS50" s="137"/>
-      <c r="AT50" s="137"/>
-      <c r="AU50" s="137"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="113"/>
+      <c r="N50" s="113"/>
+      <c r="O50" s="113"/>
+      <c r="P50" s="113"/>
+      <c r="Q50" s="113"/>
+      <c r="R50" s="113"/>
+      <c r="S50" s="113"/>
+      <c r="T50" s="113"/>
+      <c r="U50" s="113"/>
+      <c r="V50" s="113"/>
+      <c r="W50" s="113"/>
+      <c r="X50" s="113"/>
+      <c r="Y50" s="113"/>
+      <c r="Z50" s="113"/>
+      <c r="AA50" s="113"/>
+      <c r="AB50" s="113"/>
+      <c r="AC50" s="113"/>
+      <c r="AD50" s="113"/>
+      <c r="AE50" s="113"/>
+      <c r="AF50" s="113"/>
+      <c r="AG50" s="113"/>
+      <c r="AH50" s="113"/>
+      <c r="AI50" s="113"/>
+      <c r="AJ50" s="113"/>
+      <c r="AK50" s="112"/>
+      <c r="AL50" s="112"/>
+      <c r="AM50" s="112"/>
+      <c r="AN50" s="112"/>
+      <c r="AO50" s="112"/>
+      <c r="AP50" s="112"/>
+      <c r="AQ50" s="112"/>
+      <c r="AR50" s="112"/>
+      <c r="AS50" s="112"/>
+      <c r="AT50" s="112"/>
+      <c r="AU50" s="112"/>
     </row>
     <row r="51" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="138"/>
-      <c r="P51" s="138"/>
-      <c r="Q51" s="138"/>
-      <c r="R51" s="138"/>
-      <c r="S51" s="138"/>
-      <c r="T51" s="138"/>
-      <c r="U51" s="138"/>
-      <c r="V51" s="138"/>
-      <c r="W51" s="138"/>
-      <c r="X51" s="138"/>
-      <c r="Y51" s="138"/>
-      <c r="Z51" s="138"/>
-      <c r="AA51" s="138"/>
-      <c r="AB51" s="138"/>
-      <c r="AC51" s="138"/>
-      <c r="AD51" s="138"/>
-      <c r="AE51" s="138"/>
-      <c r="AF51" s="138"/>
-      <c r="AG51" s="138"/>
-      <c r="AH51" s="138"/>
-      <c r="AI51" s="138"/>
-      <c r="AJ51" s="138"/>
-      <c r="AK51" s="137"/>
-      <c r="AL51" s="137"/>
-      <c r="AM51" s="137"/>
-      <c r="AN51" s="137"/>
-      <c r="AO51" s="137"/>
-      <c r="AP51" s="137"/>
-      <c r="AQ51" s="137"/>
-      <c r="AR51" s="137"/>
-      <c r="AS51" s="137"/>
-      <c r="AT51" s="137"/>
-      <c r="AU51" s="137"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="113"/>
+      <c r="Q51" s="113"/>
+      <c r="R51" s="113"/>
+      <c r="S51" s="113"/>
+      <c r="T51" s="113"/>
+      <c r="U51" s="113"/>
+      <c r="V51" s="113"/>
+      <c r="W51" s="113"/>
+      <c r="X51" s="113"/>
+      <c r="Y51" s="113"/>
+      <c r="Z51" s="113"/>
+      <c r="AA51" s="113"/>
+      <c r="AB51" s="113"/>
+      <c r="AC51" s="113"/>
+      <c r="AD51" s="113"/>
+      <c r="AE51" s="113"/>
+      <c r="AF51" s="113"/>
+      <c r="AG51" s="113"/>
+      <c r="AH51" s="113"/>
+      <c r="AI51" s="113"/>
+      <c r="AJ51" s="113"/>
+      <c r="AK51" s="112"/>
+      <c r="AL51" s="112"/>
+      <c r="AM51" s="112"/>
+      <c r="AN51" s="112"/>
+      <c r="AO51" s="112"/>
+      <c r="AP51" s="112"/>
+      <c r="AQ51" s="112"/>
+      <c r="AR51" s="112"/>
+      <c r="AS51" s="112"/>
+      <c r="AT51" s="112"/>
+      <c r="AU51" s="112"/>
     </row>
     <row r="52" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="138"/>
-      <c r="M52" s="138"/>
-      <c r="N52" s="138"/>
-      <c r="O52" s="138"/>
-      <c r="P52" s="138"/>
-      <c r="Q52" s="138"/>
-      <c r="R52" s="138"/>
-      <c r="S52" s="138"/>
-      <c r="T52" s="138"/>
-      <c r="U52" s="138"/>
-      <c r="V52" s="138"/>
-      <c r="W52" s="138"/>
-      <c r="X52" s="138"/>
-      <c r="Y52" s="138"/>
-      <c r="Z52" s="138"/>
-      <c r="AA52" s="138"/>
-      <c r="AB52" s="138"/>
-      <c r="AC52" s="138"/>
-      <c r="AD52" s="138"/>
-      <c r="AE52" s="138"/>
-      <c r="AF52" s="138"/>
-      <c r="AG52" s="138"/>
-      <c r="AH52" s="138"/>
-      <c r="AI52" s="138"/>
-      <c r="AJ52" s="138"/>
-      <c r="AK52" s="137"/>
-      <c r="AL52" s="137"/>
-      <c r="AM52" s="137"/>
-      <c r="AN52" s="137"/>
-      <c r="AO52" s="137"/>
-      <c r="AP52" s="137"/>
-      <c r="AQ52" s="137"/>
-      <c r="AR52" s="137"/>
-      <c r="AS52" s="137"/>
-      <c r="AT52" s="137"/>
-      <c r="AU52" s="137"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="113"/>
+      <c r="U52" s="113"/>
+      <c r="V52" s="113"/>
+      <c r="W52" s="113"/>
+      <c r="X52" s="113"/>
+      <c r="Y52" s="113"/>
+      <c r="Z52" s="113"/>
+      <c r="AA52" s="113"/>
+      <c r="AB52" s="113"/>
+      <c r="AC52" s="113"/>
+      <c r="AD52" s="113"/>
+      <c r="AE52" s="113"/>
+      <c r="AF52" s="113"/>
+      <c r="AG52" s="113"/>
+      <c r="AH52" s="113"/>
+      <c r="AI52" s="113"/>
+      <c r="AJ52" s="113"/>
+      <c r="AK52" s="112"/>
+      <c r="AL52" s="112"/>
+      <c r="AM52" s="112"/>
+      <c r="AN52" s="112"/>
+      <c r="AO52" s="112"/>
+      <c r="AP52" s="112"/>
+      <c r="AQ52" s="112"/>
+      <c r="AR52" s="112"/>
+      <c r="AS52" s="112"/>
+      <c r="AT52" s="112"/>
+      <c r="AU52" s="112"/>
     </row>
     <row r="53" spans="3:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="138"/>
-      <c r="M53" s="138"/>
-      <c r="N53" s="138"/>
-      <c r="O53" s="138"/>
-      <c r="P53" s="138"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="138"/>
-      <c r="S53" s="138"/>
-      <c r="T53" s="138"/>
-      <c r="U53" s="138"/>
-      <c r="V53" s="138"/>
-      <c r="W53" s="138"/>
-      <c r="X53" s="138"/>
-      <c r="Y53" s="138"/>
-      <c r="Z53" s="138"/>
-      <c r="AA53" s="138"/>
-      <c r="AB53" s="138"/>
-      <c r="AC53" s="138"/>
-      <c r="AD53" s="138"/>
-      <c r="AE53" s="138"/>
-      <c r="AF53" s="138"/>
-      <c r="AG53" s="138"/>
-      <c r="AH53" s="138"/>
-      <c r="AI53" s="138"/>
-      <c r="AJ53" s="138"/>
-      <c r="AK53" s="137"/>
-      <c r="AL53" s="137"/>
-      <c r="AM53" s="137"/>
-      <c r="AN53" s="137"/>
-      <c r="AO53" s="137"/>
-      <c r="AP53" s="137"/>
-      <c r="AQ53" s="137"/>
-      <c r="AR53" s="137"/>
-      <c r="AS53" s="137"/>
-      <c r="AT53" s="137"/>
-      <c r="AU53" s="137"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="113"/>
+      <c r="S53" s="113"/>
+      <c r="T53" s="113"/>
+      <c r="U53" s="113"/>
+      <c r="V53" s="113"/>
+      <c r="W53" s="113"/>
+      <c r="X53" s="113"/>
+      <c r="Y53" s="113"/>
+      <c r="Z53" s="113"/>
+      <c r="AA53" s="113"/>
+      <c r="AB53" s="113"/>
+      <c r="AC53" s="113"/>
+      <c r="AD53" s="113"/>
+      <c r="AE53" s="113"/>
+      <c r="AF53" s="113"/>
+      <c r="AG53" s="113"/>
+      <c r="AH53" s="113"/>
+      <c r="AI53" s="113"/>
+      <c r="AJ53" s="113"/>
+      <c r="AK53" s="112"/>
+      <c r="AL53" s="112"/>
+      <c r="AM53" s="112"/>
+      <c r="AN53" s="112"/>
+      <c r="AO53" s="112"/>
+      <c r="AP53" s="112"/>
+      <c r="AQ53" s="112"/>
+      <c r="AR53" s="112"/>
+      <c r="AS53" s="112"/>
+      <c r="AT53" s="112"/>
+      <c r="AU53" s="112"/>
     </row>
     <row r="54" spans="3:47" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="103" t="s">
+      <c r="C54" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="104"/>
-      <c r="N54" s="104"/>
-      <c r="O54" s="104"/>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="104"/>
-      <c r="S54" s="104"/>
-      <c r="T54" s="104"/>
-      <c r="U54" s="104"/>
-      <c r="V54" s="104"/>
-      <c r="W54" s="104"/>
-      <c r="X54" s="104"/>
-      <c r="Y54" s="104"/>
-      <c r="Z54" s="104"/>
-      <c r="AA54" s="104"/>
-      <c r="AB54" s="104"/>
-      <c r="AC54" s="104"/>
-      <c r="AD54" s="104"/>
-      <c r="AE54" s="104"/>
-      <c r="AF54" s="104"/>
-      <c r="AG54" s="104"/>
-      <c r="AH54" s="104"/>
-      <c r="AI54" s="104"/>
-      <c r="AJ54" s="104"/>
-      <c r="AK54" s="104"/>
-      <c r="AL54" s="104"/>
-      <c r="AM54" s="104"/>
-      <c r="AN54" s="104"/>
-      <c r="AO54" s="104"/>
-      <c r="AP54" s="104"/>
-      <c r="AQ54" s="104"/>
-      <c r="AR54" s="104"/>
-      <c r="AS54" s="104"/>
-      <c r="AT54" s="104"/>
-      <c r="AU54" s="105"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+      <c r="L54" s="103"/>
+      <c r="M54" s="103"/>
+      <c r="N54" s="103"/>
+      <c r="O54" s="103"/>
+      <c r="P54" s="103"/>
+      <c r="Q54" s="103"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="103"/>
+      <c r="T54" s="103"/>
+      <c r="U54" s="103"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="103"/>
+      <c r="X54" s="103"/>
+      <c r="Y54" s="103"/>
+      <c r="Z54" s="103"/>
+      <c r="AA54" s="103"/>
+      <c r="AB54" s="103"/>
+      <c r="AC54" s="103"/>
+      <c r="AD54" s="103"/>
+      <c r="AE54" s="103"/>
+      <c r="AF54" s="103"/>
+      <c r="AG54" s="103"/>
+      <c r="AH54" s="103"/>
+      <c r="AI54" s="103"/>
+      <c r="AJ54" s="103"/>
+      <c r="AK54" s="103"/>
+      <c r="AL54" s="103"/>
+      <c r="AM54" s="103"/>
+      <c r="AN54" s="103"/>
+      <c r="AO54" s="103"/>
+      <c r="AP54" s="103"/>
+      <c r="AQ54" s="103"/>
+      <c r="AR54" s="103"/>
+      <c r="AS54" s="103"/>
+      <c r="AT54" s="103"/>
+      <c r="AU54" s="104"/>
     </row>
     <row r="55" spans="3:47" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="120"/>
-      <c r="T55" s="120"/>
-      <c r="U55" s="120"/>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="120"/>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120"/>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120"/>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120"/>
-      <c r="AH55" s="120"/>
-      <c r="AI55" s="120"/>
-      <c r="AJ55" s="120"/>
-      <c r="AK55" s="120"/>
-      <c r="AL55" s="120"/>
-      <c r="AM55" s="120"/>
-      <c r="AN55" s="120"/>
-      <c r="AO55" s="120"/>
-      <c r="AP55" s="120"/>
-      <c r="AQ55" s="120"/>
-      <c r="AR55" s="120"/>
-      <c r="AS55" s="120"/>
-      <c r="AT55" s="120"/>
-      <c r="AU55" s="120"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="105"/>
+      <c r="S55" s="105"/>
+      <c r="T55" s="105"/>
+      <c r="U55" s="105"/>
+      <c r="V55" s="105"/>
+      <c r="W55" s="105"/>
+      <c r="X55" s="105"/>
+      <c r="Y55" s="105"/>
+      <c r="Z55" s="105"/>
+      <c r="AA55" s="105"/>
+      <c r="AB55" s="105"/>
+      <c r="AC55" s="105"/>
+      <c r="AD55" s="105"/>
+      <c r="AE55" s="105"/>
+      <c r="AF55" s="105"/>
+      <c r="AG55" s="105"/>
+      <c r="AH55" s="105"/>
+      <c r="AI55" s="105"/>
+      <c r="AJ55" s="105"/>
+      <c r="AK55" s="105"/>
+      <c r="AL55" s="105"/>
+      <c r="AM55" s="105"/>
+      <c r="AN55" s="105"/>
+      <c r="AO55" s="105"/>
+      <c r="AP55" s="105"/>
+      <c r="AQ55" s="105"/>
+      <c r="AR55" s="105"/>
+      <c r="AS55" s="105"/>
+      <c r="AT55" s="105"/>
+      <c r="AU55" s="105"/>
     </row>
     <row r="56" spans="3:47" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="110"/>
-      <c r="K56" s="110"/>
-      <c r="L56" s="110"/>
-      <c r="M56" s="110"/>
-      <c r="N56" s="110"/>
-      <c r="O56" s="110"/>
-      <c r="P56" s="110"/>
-      <c r="Q56" s="110"/>
-      <c r="R56" s="110"/>
-      <c r="S56" s="110"/>
-      <c r="T56" s="110"/>
-      <c r="U56" s="110"/>
-      <c r="V56" s="110"/>
-      <c r="W56" s="110"/>
-      <c r="X56" s="110"/>
-      <c r="Y56" s="110"/>
-      <c r="Z56" s="110"/>
-      <c r="AA56" s="110"/>
-      <c r="AB56" s="110"/>
-      <c r="AC56" s="110"/>
-      <c r="AD56" s="110"/>
-      <c r="AE56" s="110"/>
-      <c r="AF56" s="110"/>
-      <c r="AG56" s="110"/>
-      <c r="AH56" s="110"/>
-      <c r="AI56" s="110"/>
-      <c r="AJ56" s="110"/>
-      <c r="AK56" s="110"/>
-      <c r="AL56" s="110"/>
-      <c r="AM56" s="110"/>
-      <c r="AN56" s="110"/>
-      <c r="AO56" s="110"/>
-      <c r="AP56" s="110"/>
-      <c r="AQ56" s="110"/>
-      <c r="AR56" s="110"/>
-      <c r="AS56" s="110"/>
-      <c r="AT56" s="110"/>
-      <c r="AU56" s="111"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="107"/>
+      <c r="N56" s="107"/>
+      <c r="O56" s="107"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="107"/>
+      <c r="R56" s="107"/>
+      <c r="S56" s="107"/>
+      <c r="T56" s="107"/>
+      <c r="U56" s="107"/>
+      <c r="V56" s="107"/>
+      <c r="W56" s="107"/>
+      <c r="X56" s="107"/>
+      <c r="Y56" s="107"/>
+      <c r="Z56" s="107"/>
+      <c r="AA56" s="107"/>
+      <c r="AB56" s="107"/>
+      <c r="AC56" s="107"/>
+      <c r="AD56" s="107"/>
+      <c r="AE56" s="107"/>
+      <c r="AF56" s="107"/>
+      <c r="AG56" s="107"/>
+      <c r="AH56" s="107"/>
+      <c r="AI56" s="107"/>
+      <c r="AJ56" s="107"/>
+      <c r="AK56" s="107"/>
+      <c r="AL56" s="107"/>
+      <c r="AM56" s="107"/>
+      <c r="AN56" s="107"/>
+      <c r="AO56" s="107"/>
+      <c r="AP56" s="107"/>
+      <c r="AQ56" s="107"/>
+      <c r="AR56" s="107"/>
+      <c r="AS56" s="107"/>
+      <c r="AT56" s="107"/>
+      <c r="AU56" s="108"/>
     </row>
     <row r="57" spans="3:47" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="144" t="s">
+      <c r="C57" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="144"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="144"/>
-      <c r="N57" s="144"/>
-      <c r="O57" s="144"/>
-      <c r="P57" s="144"/>
-      <c r="Q57" s="144"/>
-      <c r="R57" s="144"/>
-      <c r="S57" s="144"/>
-      <c r="T57" s="144"/>
-      <c r="U57" s="144"/>
-      <c r="V57" s="144"/>
-      <c r="W57" s="144"/>
-      <c r="X57" s="144"/>
-      <c r="Y57" s="144"/>
-      <c r="Z57" s="144"/>
-      <c r="AA57" s="144" t="s">
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="109"/>
+      <c r="L57" s="109"/>
+      <c r="M57" s="109"/>
+      <c r="N57" s="109"/>
+      <c r="O57" s="109"/>
+      <c r="P57" s="109"/>
+      <c r="Q57" s="109"/>
+      <c r="R57" s="109"/>
+      <c r="S57" s="109"/>
+      <c r="T57" s="109"/>
+      <c r="U57" s="109"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
+      <c r="X57" s="109"/>
+      <c r="Y57" s="109"/>
+      <c r="Z57" s="109"/>
+      <c r="AA57" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="AB57" s="144"/>
-      <c r="AC57" s="144"/>
-      <c r="AD57" s="144"/>
-      <c r="AE57" s="144"/>
-      <c r="AF57" s="144"/>
-      <c r="AG57" s="144"/>
-      <c r="AH57" s="144"/>
-      <c r="AI57" s="144"/>
-      <c r="AJ57" s="144"/>
-      <c r="AK57" s="144"/>
-      <c r="AL57" s="144"/>
-      <c r="AM57" s="144"/>
-      <c r="AN57" s="144"/>
-      <c r="AO57" s="144"/>
-      <c r="AP57" s="144"/>
-      <c r="AQ57" s="144"/>
-      <c r="AR57" s="144"/>
-      <c r="AS57" s="144"/>
-      <c r="AT57" s="144"/>
-      <c r="AU57" s="144"/>
+      <c r="AB57" s="109"/>
+      <c r="AC57" s="109"/>
+      <c r="AD57" s="109"/>
+      <c r="AE57" s="109"/>
+      <c r="AF57" s="109"/>
+      <c r="AG57" s="109"/>
+      <c r="AH57" s="109"/>
+      <c r="AI57" s="109"/>
+      <c r="AJ57" s="109"/>
+      <c r="AK57" s="109"/>
+      <c r="AL57" s="109"/>
+      <c r="AM57" s="109"/>
+      <c r="AN57" s="109"/>
+      <c r="AO57" s="109"/>
+      <c r="AP57" s="109"/>
+      <c r="AQ57" s="109"/>
+      <c r="AR57" s="109"/>
+      <c r="AS57" s="109"/>
+      <c r="AT57" s="109"/>
+      <c r="AU57" s="109"/>
     </row>
     <row r="58" spans="3:47" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="145" t="s">
+      <c r="C58" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="145"/>
-      <c r="L58" s="145"/>
-      <c r="M58" s="145"/>
-      <c r="N58" s="145"/>
-      <c r="O58" s="145"/>
-      <c r="P58" s="145"/>
-      <c r="Q58" s="145"/>
-      <c r="R58" s="145"/>
-      <c r="S58" s="145"/>
-      <c r="T58" s="145"/>
-      <c r="U58" s="145"/>
-      <c r="V58" s="145"/>
-      <c r="W58" s="145"/>
-      <c r="X58" s="145"/>
-      <c r="Y58" s="145"/>
-      <c r="Z58" s="145"/>
-      <c r="AA58" s="145" t="s">
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="110"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="110"/>
+      <c r="N58" s="110"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="110"/>
+      <c r="S58" s="110"/>
+      <c r="T58" s="110"/>
+      <c r="U58" s="110"/>
+      <c r="V58" s="110"/>
+      <c r="W58" s="110"/>
+      <c r="X58" s="110"/>
+      <c r="Y58" s="110"/>
+      <c r="Z58" s="110"/>
+      <c r="AA58" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="AB58" s="145"/>
-      <c r="AC58" s="145"/>
-      <c r="AD58" s="145"/>
-      <c r="AE58" s="145"/>
-      <c r="AF58" s="145"/>
-      <c r="AG58" s="145"/>
-      <c r="AH58" s="145"/>
-      <c r="AI58" s="145"/>
-      <c r="AJ58" s="145"/>
-      <c r="AK58" s="145"/>
-      <c r="AL58" s="145"/>
-      <c r="AM58" s="145"/>
-      <c r="AN58" s="145"/>
-      <c r="AO58" s="145"/>
-      <c r="AP58" s="145"/>
-      <c r="AQ58" s="145"/>
-      <c r="AR58" s="145"/>
-      <c r="AS58" s="145"/>
-      <c r="AT58" s="145"/>
-      <c r="AU58" s="145"/>
+      <c r="AB58" s="110"/>
+      <c r="AC58" s="110"/>
+      <c r="AD58" s="110"/>
+      <c r="AE58" s="110"/>
+      <c r="AF58" s="110"/>
+      <c r="AG58" s="110"/>
+      <c r="AH58" s="110"/>
+      <c r="AI58" s="110"/>
+      <c r="AJ58" s="110"/>
+      <c r="AK58" s="110"/>
+      <c r="AL58" s="110"/>
+      <c r="AM58" s="110"/>
+      <c r="AN58" s="110"/>
+      <c r="AO58" s="110"/>
+      <c r="AP58" s="110"/>
+      <c r="AQ58" s="110"/>
+      <c r="AR58" s="110"/>
+      <c r="AS58" s="110"/>
+      <c r="AT58" s="110"/>
+      <c r="AU58" s="110"/>
     </row>
     <row r="59" spans="3:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
@@ -6270,52 +6323,52 @@
       <c r="AU61" s="8"/>
     </row>
     <row r="62" spans="3:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="140" t="s">
+      <c r="C62" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="141"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="142"/>
-      <c r="I62" s="142"/>
-      <c r="J62" s="142"/>
-      <c r="K62" s="142"/>
-      <c r="L62" s="142"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
       <c r="M62" s="21"/>
       <c r="N62" s="22"/>
       <c r="O62" s="23"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="143" t="s">
+      <c r="Q62" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="R62" s="143"/>
-      <c r="S62" s="142"/>
-      <c r="T62" s="142"/>
-      <c r="U62" s="142"/>
-      <c r="V62" s="142"/>
-      <c r="W62" s="142"/>
-      <c r="X62" s="142"/>
-      <c r="Y62" s="142"/>
-      <c r="Z62" s="142"/>
-      <c r="AA62" s="142"/>
-      <c r="AB62" s="142"/>
+      <c r="R62" s="101"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="100"/>
+      <c r="U62" s="100"/>
+      <c r="V62" s="100"/>
+      <c r="W62" s="100"/>
+      <c r="X62" s="100"/>
+      <c r="Y62" s="100"/>
+      <c r="Z62" s="100"/>
+      <c r="AA62" s="100"/>
+      <c r="AB62" s="100"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="21"/>
       <c r="AE62" s="22"/>
       <c r="AF62" s="23"/>
       <c r="AG62" s="3"/>
-      <c r="AH62" s="143" t="s">
+      <c r="AH62" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="AI62" s="143"/>
-      <c r="AJ62" s="142"/>
-      <c r="AK62" s="142"/>
-      <c r="AL62" s="142"/>
-      <c r="AM62" s="142"/>
-      <c r="AN62" s="142"/>
-      <c r="AO62" s="142"/>
-      <c r="AP62" s="142"/>
+      <c r="AI62" s="101"/>
+      <c r="AJ62" s="100"/>
+      <c r="AK62" s="100"/>
+      <c r="AL62" s="100"/>
+      <c r="AM62" s="100"/>
+      <c r="AN62" s="100"/>
+      <c r="AO62" s="100"/>
+      <c r="AP62" s="100"/>
       <c r="AQ62" s="3"/>
       <c r="AR62" s="21"/>
       <c r="AS62" s="22"/>
@@ -6323,62 +6376,62 @@
       <c r="AU62" s="8"/>
     </row>
     <row r="63" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="146" t="s">
+      <c r="C63" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="143"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="142"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
       <c r="L63" s="25"/>
-      <c r="M63" s="139" t="s">
+      <c r="M63" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="N63" s="139"/>
-      <c r="O63" s="139"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="97"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="143" t="s">
+      <c r="Q63" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="R63" s="143"/>
-      <c r="S63" s="142"/>
-      <c r="T63" s="142"/>
-      <c r="U63" s="142"/>
-      <c r="V63" s="142"/>
-      <c r="W63" s="142"/>
-      <c r="X63" s="142"/>
-      <c r="Y63" s="142"/>
-      <c r="Z63" s="142"/>
-      <c r="AA63" s="142"/>
-      <c r="AB63" s="142"/>
+      <c r="R63" s="101"/>
+      <c r="S63" s="100"/>
+      <c r="T63" s="100"/>
+      <c r="U63" s="100"/>
+      <c r="V63" s="100"/>
+      <c r="W63" s="100"/>
+      <c r="X63" s="100"/>
+      <c r="Y63" s="100"/>
+      <c r="Z63" s="100"/>
+      <c r="AA63" s="100"/>
+      <c r="AB63" s="100"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="139" t="s">
+      <c r="AD63" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="139"/>
-      <c r="AF63" s="139"/>
+      <c r="AE63" s="97"/>
+      <c r="AF63" s="97"/>
       <c r="AG63" s="3"/>
-      <c r="AH63" s="143" t="s">
+      <c r="AH63" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="AI63" s="143"/>
-      <c r="AJ63" s="142"/>
-      <c r="AK63" s="142"/>
-      <c r="AL63" s="142"/>
-      <c r="AM63" s="142"/>
-      <c r="AN63" s="142"/>
-      <c r="AO63" s="142"/>
-      <c r="AP63" s="142"/>
+      <c r="AI63" s="101"/>
+      <c r="AJ63" s="100"/>
+      <c r="AK63" s="100"/>
+      <c r="AL63" s="100"/>
+      <c r="AM63" s="100"/>
+      <c r="AN63" s="100"/>
+      <c r="AO63" s="100"/>
+      <c r="AP63" s="100"/>
       <c r="AQ63" s="3"/>
-      <c r="AR63" s="139" t="s">
+      <c r="AR63" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="AS63" s="139"/>
-      <c r="AT63" s="139"/>
+      <c r="AS63" s="97"/>
+      <c r="AT63" s="97"/>
       <c r="AU63" s="8"/>
     </row>
     <row r="64" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6477,6 +6530,158 @@
     </row>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="C4:AU4"/>
+    <mergeCell ref="C5:AU5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="M1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="C2:L3"/>
+    <mergeCell ref="M2:AN3"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AO3:AU3"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="AI9:AL9"/>
+    <mergeCell ref="AM9:AU9"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="Z8:AU8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G7:AU7"/>
+    <mergeCell ref="AI6:AU6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="AO13:AU13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:AU10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:AU11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="N12:AU12"/>
+    <mergeCell ref="C19:AU19"/>
+    <mergeCell ref="C20:AU20"/>
+    <mergeCell ref="C21:AU21"/>
+    <mergeCell ref="C22:AU22"/>
+    <mergeCell ref="D23:AU23"/>
+    <mergeCell ref="D24:AU24"/>
+    <mergeCell ref="C14:AU14"/>
+    <mergeCell ref="C15:AU15"/>
+    <mergeCell ref="C16:AU16"/>
+    <mergeCell ref="C17:AU17"/>
+    <mergeCell ref="C18:AU18"/>
+    <mergeCell ref="AF28:AH30"/>
+    <mergeCell ref="AI28:AK30"/>
+    <mergeCell ref="AL28:AP30"/>
+    <mergeCell ref="AQ28:AU30"/>
+    <mergeCell ref="C28:M30"/>
+    <mergeCell ref="N28:Y28"/>
+    <mergeCell ref="Z28:AE30"/>
+    <mergeCell ref="D25:AU25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:AU26"/>
+    <mergeCell ref="C27:AU27"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AL32:AP32"/>
+    <mergeCell ref="AQ32:AU32"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="Z31:AE31"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AI31:AK31"/>
+    <mergeCell ref="AL31:AP31"/>
+    <mergeCell ref="AQ31:AU31"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="Z34:AE34"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="AL34:AP34"/>
+    <mergeCell ref="AQ34:AU34"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="Z33:AE33"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AI33:AK33"/>
+    <mergeCell ref="AL33:AP33"/>
+    <mergeCell ref="AQ33:AU33"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="Z36:AE36"/>
+    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AI36:AK36"/>
+    <mergeCell ref="AL36:AP36"/>
+    <mergeCell ref="AQ36:AU36"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="Z35:AE35"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AL35:AP35"/>
+    <mergeCell ref="AQ35:AU35"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="Z38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="AL38:AP38"/>
+    <mergeCell ref="AQ38:AU38"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="Z37:AE37"/>
+    <mergeCell ref="AF37:AH37"/>
+    <mergeCell ref="AI37:AK37"/>
+    <mergeCell ref="AL37:AP37"/>
+    <mergeCell ref="AQ37:AU37"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="Z40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="AL40:AP40"/>
+    <mergeCell ref="AQ40:AU40"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="Z39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="AL39:AP39"/>
+    <mergeCell ref="AQ39:AU39"/>
+    <mergeCell ref="C46:AU46"/>
+    <mergeCell ref="C47:AU47"/>
+    <mergeCell ref="C48:AU48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="K49:Z49"/>
+    <mergeCell ref="AA49:AJ49"/>
+    <mergeCell ref="AK49:AU49"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:AU41"/>
+    <mergeCell ref="C42:AU42"/>
+    <mergeCell ref="C43:AU43"/>
+    <mergeCell ref="C44:AU44"/>
+    <mergeCell ref="C45:AU45"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="K52:Z52"/>
+    <mergeCell ref="AA52:AJ52"/>
+    <mergeCell ref="AK52:AU52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="K53:Z53"/>
+    <mergeCell ref="AA53:AJ53"/>
+    <mergeCell ref="AK53:AU53"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="K50:Z50"/>
+    <mergeCell ref="AA50:AJ50"/>
+    <mergeCell ref="AK50:AU50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="K51:Z51"/>
+    <mergeCell ref="AA51:AJ51"/>
+    <mergeCell ref="AK51:AU51"/>
     <mergeCell ref="AR63:AT63"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="E62:L62"/>
@@ -6499,158 +6704,6 @@
     <mergeCell ref="AJ63:AP63"/>
     <mergeCell ref="M63:O63"/>
     <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="K52:Z52"/>
-    <mergeCell ref="AA52:AJ52"/>
-    <mergeCell ref="AK52:AU52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="K53:Z53"/>
-    <mergeCell ref="AA53:AJ53"/>
-    <mergeCell ref="AK53:AU53"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="K50:Z50"/>
-    <mergeCell ref="AA50:AJ50"/>
-    <mergeCell ref="AK50:AU50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="K51:Z51"/>
-    <mergeCell ref="AA51:AJ51"/>
-    <mergeCell ref="AK51:AU51"/>
-    <mergeCell ref="C46:AU46"/>
-    <mergeCell ref="C47:AU47"/>
-    <mergeCell ref="C48:AU48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="K49:Z49"/>
-    <mergeCell ref="AA49:AJ49"/>
-    <mergeCell ref="AK49:AU49"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:AU41"/>
-    <mergeCell ref="C42:AU42"/>
-    <mergeCell ref="C43:AU43"/>
-    <mergeCell ref="C44:AU44"/>
-    <mergeCell ref="C45:AU45"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="Z40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="AL40:AP40"/>
-    <mergeCell ref="AQ40:AU40"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="Z39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="AL39:AP39"/>
-    <mergeCell ref="AQ39:AU39"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="Z38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="AL38:AP38"/>
-    <mergeCell ref="AQ38:AU38"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="Z37:AE37"/>
-    <mergeCell ref="AF37:AH37"/>
-    <mergeCell ref="AI37:AK37"/>
-    <mergeCell ref="AL37:AP37"/>
-    <mergeCell ref="AQ37:AU37"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="Z36:AE36"/>
-    <mergeCell ref="AF36:AH36"/>
-    <mergeCell ref="AI36:AK36"/>
-    <mergeCell ref="AL36:AP36"/>
-    <mergeCell ref="AQ36:AU36"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="Z35:AE35"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="AL35:AP35"/>
-    <mergeCell ref="AQ35:AU35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="Z34:AE34"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AI34:AK34"/>
-    <mergeCell ref="AL34:AP34"/>
-    <mergeCell ref="AQ34:AU34"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="Z33:AE33"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AI33:AK33"/>
-    <mergeCell ref="AL33:AP33"/>
-    <mergeCell ref="AQ33:AU33"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AL32:AP32"/>
-    <mergeCell ref="AQ32:AU32"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="Z31:AE31"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AI31:AK31"/>
-    <mergeCell ref="AL31:AP31"/>
-    <mergeCell ref="AQ31:AU31"/>
-    <mergeCell ref="AF28:AH30"/>
-    <mergeCell ref="AI28:AK30"/>
-    <mergeCell ref="AL28:AP30"/>
-    <mergeCell ref="AQ28:AU30"/>
-    <mergeCell ref="C28:M30"/>
-    <mergeCell ref="N28:Y28"/>
-    <mergeCell ref="Z28:AE30"/>
-    <mergeCell ref="D25:AU25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:AU26"/>
-    <mergeCell ref="C27:AU27"/>
-    <mergeCell ref="C19:AU19"/>
-    <mergeCell ref="C20:AU20"/>
-    <mergeCell ref="C21:AU21"/>
-    <mergeCell ref="C22:AU22"/>
-    <mergeCell ref="D23:AU23"/>
-    <mergeCell ref="D24:AU24"/>
-    <mergeCell ref="C14:AU14"/>
-    <mergeCell ref="C15:AU15"/>
-    <mergeCell ref="C16:AU16"/>
-    <mergeCell ref="C17:AU17"/>
-    <mergeCell ref="C18:AU18"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="AO13:AU13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:AU10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:AU11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="N12:AU12"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="AI9:AL9"/>
-    <mergeCell ref="AM9:AU9"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="Z8:AU8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G7:AU7"/>
-    <mergeCell ref="AI6:AU6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C4:AU4"/>
-    <mergeCell ref="C5:AU5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="M1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="C2:L3"/>
-    <mergeCell ref="M2:AN3"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AO3:AU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6663,7 +6716,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:M7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6683,45 +6736,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="169"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170" t="s">
+      <c r="A1" s="191"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="163" t="s">
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
     </row>
     <row r="2" spans="1:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
       <c r="L2" s="166" t="s">
         <v>67</v>
       </c>
@@ -6739,7 +6792,7 @@
       <c r="V2" s="167"/>
     </row>
     <row r="3" spans="1:22" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="164"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="165"/>
       <c r="C3" s="165"/>
       <c r="D3" s="165"/>
@@ -6765,180 +6818,180 @@
       <c r="V3" s="168"/>
     </row>
     <row r="4" spans="1:22" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="148"/>
-      <c r="V4" s="149"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="172"/>
+      <c r="V4" s="173"/>
     </row>
     <row r="5" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="152"/>
-      <c r="N5" s="153" t="s">
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
       <c r="V5" s="27" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="152"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="176"/>
       <c r="N6" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="154"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="155" t="s">
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="155"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="157"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="179"/>
+      <c r="V6" s="180"/>
     </row>
     <row r="7" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="160"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="183"/>
       <c r="N7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="155" t="s">
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="155"/>
-      <c r="S7" s="162"/>
-      <c r="T7" s="162"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="158"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="181"/>
     </row>
     <row r="8" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161" t="s">
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="153" t="s">
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="161" t="s">
+      <c r="N8" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="161" t="s">
+      <c r="O8" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="161" t="s">
+      <c r="P8" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="172" t="s">
+      <c r="Q8" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="R8" s="173"/>
-      <c r="S8" s="172" t="s">
+      <c r="R8" s="161"/>
+      <c r="S8" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="173"/>
-      <c r="U8" s="172" t="s">
+      <c r="T8" s="161"/>
+      <c r="U8" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="V8" s="174"/>
+      <c r="V8" s="162"/>
     </row>
     <row r="9" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
       <c r="Q9" s="26" t="s">
         <v>86</v>
       </c>
@@ -6960,17 +7013,17 @@
     </row>
     <row r="10" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
       <c r="M10" s="30"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
@@ -7002,25 +7055,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="G8:L9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="L2:S3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:S1"/>
     <mergeCell ref="A4:V4"/>
     <mergeCell ref="A5:M6"/>
     <mergeCell ref="N5:U5"/>
@@ -7033,6 +7067,25 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="S7:U7"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="L2:S3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="G8:L9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7754,108 +7807,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180" t="s">
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180" t="s">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181" t="s">
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="189" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178" t="s">
+      <c r="C5" s="185"/>
+      <c r="D5" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
@@ -7875,15 +7928,15 @@
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
-      <c r="D8" s="179" t="s">
+      <c r="D8" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
       <c r="K8" s="47"/>
       <c r="L8" s="51" t="s">
         <v>98</v>
